--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1114">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3516,12 +3516,6 @@
     <t>NOTA 4176 ALBICIA</t>
   </si>
   <si>
-    <t>QUESOS-POLLO-PASTOR-ARABE</t>
-  </si>
-  <si>
-    <t>POLLO-QUESO</t>
-  </si>
-  <si>
     <t>CUENTA CENTRAL</t>
   </si>
   <si>
@@ -4024,6 +4018,39 @@
   </si>
   <si>
     <t>QUESO MANCHEGO</t>
+  </si>
+  <si>
+    <t>CHORIZO-QUESOS</t>
+  </si>
+  <si>
+    <t>FALTANTE DE ERIKA POR DUPLICAR GASTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO-QUESOS--Pagos Central </t>
+  </si>
+  <si>
+    <t>JAMON-QUESOS-POLLO-SALCHICHA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>Acumulado 5 Y 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGOS A CENTRAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLLO-QUESO </t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-PASTOR-ARAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMINA # 35 Y PAGOS CENTRAL </t>
+  </si>
+  <si>
+    <t>PASTOR-QUESOS-POLLO-JAMON-CHORIZO-BIMBO</t>
+  </si>
+  <si>
+    <t>Aculumado 4-y---6</t>
   </si>
 </sst>
 </file>
@@ -4038,7 +4065,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4444,6 +4471,14 @@
       <name val="Calibri Light"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="25">
@@ -5727,7 +5762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="666">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6746,9 +6781,7 @@
     <xf numFmtId="16" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="15" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="12" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="15" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6865,39 +6898,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6973,6 +6973,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7039,6 +7072,33 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="19" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7048,16 +7108,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFCC9900"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF66FF66"/>
       <color rgb="FF990099"/>
       <color rgb="FF800080"/>
       <color rgb="FFCCFF99"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10552,6 +10612,54 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16259175" y="9477375"/>
+          <a:ext cx="2085975" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11276,23 +11384,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11302,24 +11410,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="608" t="s">
+      <c r="R3" s="595" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11334,14 +11442,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11351,11 +11459,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="609"/>
+      <c r="R4" s="596"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13190,11 +13298,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13202,7 +13310,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13223,10 +13331,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13281,11 +13389,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13710,26 +13818,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="615"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="616">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="617"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="608"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -13738,22 +13846,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="609"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="611"/>
+      <c r="K79" s="612">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="612"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13794,11 +13902,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="613">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="612"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13815,22 +13923,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="602"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="616" t="s">
+      <c r="I83" s="603" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="617"/>
-      <c r="K83" s="618">
+      <c r="J83" s="604"/>
+      <c r="K83" s="605">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="618"/>
+      <c r="L83" s="605"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -13977,6 +14085,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13993,12 +14107,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14014,7 +14122,7 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -15168,10 +15276,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="636" t="s">
+      <c r="I37" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="637"/>
+      <c r="J37" s="635"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -15190,8 +15298,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="638"/>
-      <c r="J38" s="639"/>
+      <c r="I38" s="636"/>
+      <c r="J38" s="637"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -15210,8 +15318,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="640"/>
-      <c r="J39" s="641"/>
+      <c r="I39" s="638"/>
+      <c r="J39" s="639"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -15769,10 +15877,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="642" t="s">
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -15794,11 +15902,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="651"/>
-      <c r="J68" s="652"/>
+      <c r="I68" s="649"/>
+      <c r="J68" s="650"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15809,7 +15917,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -16370,7 +16478,7 @@
   </sheetPr>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -16397,23 +16505,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16423,27 +16531,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16458,14 +16566,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16475,11 +16583,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -18535,11 +18643,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18547,7 +18655,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18580,10 +18688,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18668,11 +18776,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19001,26 +19109,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="627" t="s">
+      <c r="H69" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="628"/>
+      <c r="I69" s="615"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="629">
+      <c r="K69" s="616">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="630"/>
+      <c r="L69" s="617"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="621" t="s">
+      <c r="D70" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="621"/>
+      <c r="E70" s="608"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19029,23 +19137,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="622" t="s">
+      <c r="D71" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="622"/>
+      <c r="E71" s="609"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="623" t="s">
+      <c r="I71" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="624"/>
-      <c r="K71" s="625">
+      <c r="J71" s="611"/>
+      <c r="K71" s="612">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="625"/>
+      <c r="L71" s="612"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19087,11 +19195,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="626">
+      <c r="K73" s="613">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="625"/>
+      <c r="L73" s="612"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19108,22 +19216,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="614" t="s">
+      <c r="D75" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="615"/>
+      <c r="E75" s="602"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="616" t="s">
+      <c r="I75" s="603" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="617"/>
-      <c r="K75" s="618">
+      <c r="J75" s="604"/>
+      <c r="K75" s="605">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="618"/>
+      <c r="L75" s="605"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19271,12 +19379,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19293,6 +19395,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19308,7 +19416,7 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G68" sqref="G68:G69"/>
     </sheetView>
   </sheetViews>
@@ -20462,10 +20570,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="636" t="s">
+      <c r="I37" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="637"/>
+      <c r="J37" s="635"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -20484,8 +20592,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="638"/>
-      <c r="J38" s="639"/>
+      <c r="I38" s="636"/>
+      <c r="J38" s="637"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -20504,8 +20612,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="640"/>
-      <c r="J39" s="641"/>
+      <c r="I39" s="638"/>
+      <c r="J39" s="639"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -21063,10 +21171,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="642" t="s">
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -21088,11 +21196,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="651"/>
-      <c r="J68" s="652"/>
+      <c r="I68" s="649"/>
+      <c r="J68" s="650"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -21103,7 +21211,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -21665,8 +21773,8 @@
   </sheetPr>
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21692,23 +21800,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21718,25 +21826,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -21751,14 +21859,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -21768,11 +21876,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -22385,10 +22493,10 @@
       <c r="J16" s="40">
         <v>45119</v>
       </c>
-      <c r="K16" s="342" t="s">
+      <c r="K16" s="661" t="s">
         <v>784</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="662">
         <v>293293</v>
       </c>
       <c r="M16" s="42">
@@ -22758,7 +22866,7 @@
       <c r="J23" s="64">
         <v>45126</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="345" t="s">
         <v>796</v>
       </c>
       <c r="L23" s="55">
@@ -23474,8 +23582,8 @@
       <c r="C39" s="93">
         <v>8611.6</v>
       </c>
-      <c r="D39" s="569" t="s">
-        <v>1035</v>
+      <c r="D39" s="567" t="s">
+        <v>1033</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
@@ -23510,8 +23618,8 @@
       <c r="C40" s="93">
         <v>7509.6</v>
       </c>
-      <c r="D40" s="569" t="s">
-        <v>1036</v>
+      <c r="D40" s="567" t="s">
+        <v>1034</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>10</v>
@@ -23554,7 +23662,7 @@
         <v>34165.4</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
@@ -23676,11 +23784,11 @@
       <c r="B44" s="32">
         <v>45117</v>
       </c>
-      <c r="C44" s="567">
+      <c r="C44" s="565">
         <v>768600</v>
       </c>
-      <c r="D44" s="568" t="s">
-        <v>1075</v>
+      <c r="D44" s="566" t="s">
+        <v>1073</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
@@ -23764,7 +23872,7 @@
         <v>15786.4</v>
       </c>
       <c r="D46" s="114" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
@@ -23775,7 +23883,7 @@
         <v>45113</v>
       </c>
       <c r="K46" s="349" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L46" s="49">
         <v>28000</v>
@@ -23817,7 +23925,7 @@
         <v>45115</v>
       </c>
       <c r="K47" s="343" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L47" s="49">
         <v>20648</v>
@@ -23878,14 +23986,14 @@
     </row>
     <row r="49" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31"/>
-      <c r="B49" s="573">
+      <c r="B49" s="571">
         <v>45124</v>
       </c>
-      <c r="C49" s="567">
+      <c r="C49" s="565">
         <v>12434</v>
       </c>
-      <c r="D49" s="578" t="s">
-        <v>1078</v>
+      <c r="D49" s="576" t="s">
+        <v>1076</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
@@ -23901,11 +24009,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -23913,7 +24021,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -23930,7 +24038,7 @@
         <v>122545</v>
       </c>
       <c r="D50" s="114" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
@@ -23946,10 +24054,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -23964,7 +24072,7 @@
         <v>10690.8</v>
       </c>
       <c r="D51" s="114" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
@@ -23975,7 +24083,7 @@
         <v>45122</v>
       </c>
       <c r="K51" s="343" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="L51" s="49">
         <v>5395.16</v>
@@ -23987,14 +24095,14 @@
     </row>
     <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31"/>
-      <c r="B52" s="574">
+      <c r="B52" s="572">
         <v>45125</v>
       </c>
-      <c r="C52" s="576">
+      <c r="C52" s="574">
         <v>37120</v>
       </c>
-      <c r="D52" s="579" t="s">
-        <v>1076</v>
+      <c r="D52" s="577" t="s">
+        <v>1074</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
@@ -24005,7 +24113,7 @@
         <v>45128</v>
       </c>
       <c r="K52" s="343" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L52" s="49">
         <v>28000</v>
@@ -24040,11 +24148,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24098,7 +24206,7 @@
         <v>45135</v>
       </c>
       <c r="K55" s="343" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="L55" s="49">
         <v>3786.75</v>
@@ -24128,7 +24236,7 @@
         <v>45135</v>
       </c>
       <c r="K56" s="343" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="L56" s="84">
         <v>6531.7</v>
@@ -24158,7 +24266,7 @@
         <v>45135</v>
       </c>
       <c r="K57" s="349" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="L57" s="84">
         <v>6170.82</v>
@@ -24188,7 +24296,7 @@
         <v>45135</v>
       </c>
       <c r="K58" s="350" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="L58" s="84">
         <v>42299.360000000001</v>
@@ -24207,7 +24315,7 @@
         <v>7806.4</v>
       </c>
       <c r="D59" s="114" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="110"/>
@@ -24218,7 +24326,7 @@
         <v>45153</v>
       </c>
       <c r="K59" s="349" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="L59" s="84">
         <v>9744</v>
@@ -24233,11 +24341,11 @@
       <c r="B60" s="32">
         <v>45131</v>
       </c>
-      <c r="C60" s="567">
+      <c r="C60" s="565">
         <v>792561</v>
       </c>
-      <c r="D60" s="568" t="s">
-        <v>1077</v>
+      <c r="D60" s="566" t="s">
+        <v>1075</v>
       </c>
       <c r="E60" s="104"/>
       <c r="F60" s="110"/>
@@ -24248,7 +24356,7 @@
         <v>45167</v>
       </c>
       <c r="K60" s="350" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="L60" s="84">
         <v>21634</v>
@@ -24260,13 +24368,13 @@
     </row>
     <row r="61" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31"/>
-      <c r="B61" s="575">
+      <c r="B61" s="573">
         <v>45132</v>
       </c>
-      <c r="C61" s="577">
+      <c r="C61" s="575">
         <v>119630.7</v>
       </c>
-      <c r="D61" s="581" t="s">
+      <c r="D61" s="579" t="s">
         <v>811</v>
       </c>
       <c r="E61" s="104"/>
@@ -24274,7 +24382,7 @@
       <c r="G61" s="37"/>
       <c r="H61" s="106"/>
       <c r="I61" s="103"/>
-      <c r="J61" s="580"/>
+      <c r="J61" s="578"/>
       <c r="K61" s="349"/>
       <c r="L61" s="68"/>
       <c r="M61" s="113"/>
@@ -24421,26 +24529,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="627" t="s">
+      <c r="H69" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="628"/>
+      <c r="I69" s="615"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="629">
+      <c r="K69" s="616">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="630"/>
+      <c r="L69" s="617"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="621" t="s">
+      <c r="D70" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="621"/>
+      <c r="E70" s="608"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24449,22 +24557,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="622" t="s">
+      <c r="D71" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="622"/>
+      <c r="E71" s="609"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="623" t="s">
+      <c r="I71" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="624"/>
-      <c r="K71" s="625">
+      <c r="J71" s="611"/>
+      <c r="K71" s="612">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="625"/>
+      <c r="L71" s="612"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24509,11 +24617,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="626">
+      <c r="K73" s="613">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="625"/>
+      <c r="L73" s="612"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24534,22 +24642,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="614" t="s">
+      <c r="D75" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="615"/>
+      <c r="E75" s="602"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="616" t="s">
+      <c r="I75" s="603" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="617"/>
-      <c r="K75" s="618">
+      <c r="J75" s="604"/>
+      <c r="K75" s="605">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="618"/>
+      <c r="L75" s="605"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24697,12 +24805,6 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24719,6 +24821,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24734,8 +24842,8 @@
   </sheetPr>
   <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37:J39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25127,11 +25235,15 @@
       <c r="K12" s="237">
         <v>2360</v>
       </c>
-      <c r="L12" s="218"/>
-      <c r="M12" s="237"/>
+      <c r="L12" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M12" s="410">
+        <v>2360</v>
+      </c>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>45589</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25159,11 +25271,15 @@
       <c r="K13" s="237">
         <v>3000</v>
       </c>
-      <c r="L13" s="218"/>
-      <c r="M13" s="237"/>
+      <c r="L13" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M13" s="410">
+        <v>3000</v>
+      </c>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>48589</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25191,11 +25307,15 @@
       <c r="K14" s="237">
         <v>720</v>
       </c>
-      <c r="L14" s="218"/>
-      <c r="M14" s="237"/>
+      <c r="L14" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M14" s="410">
+        <v>720</v>
+      </c>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>49309</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25223,11 +25343,15 @@
       <c r="K15" s="237">
         <v>2470</v>
       </c>
-      <c r="L15" s="218"/>
-      <c r="M15" s="237"/>
+      <c r="L15" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M15" s="410">
+        <v>2470</v>
+      </c>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>51779</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25255,11 +25379,15 @@
       <c r="K16" s="237">
         <v>360</v>
       </c>
-      <c r="L16" s="218"/>
-      <c r="M16" s="237"/>
+      <c r="L16" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M16" s="410">
+        <v>360</v>
+      </c>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>52139</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25287,11 +25415,15 @@
       <c r="K17" s="237">
         <v>600</v>
       </c>
-      <c r="L17" s="218"/>
-      <c r="M17" s="237"/>
+      <c r="L17" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M17" s="410">
+        <v>600</v>
+      </c>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>52739</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25319,11 +25451,15 @@
       <c r="K18" s="237">
         <v>12260</v>
       </c>
-      <c r="L18" s="218"/>
-      <c r="M18" s="237"/>
+      <c r="L18" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M18" s="410">
+        <v>12260</v>
+      </c>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>64999</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25337,10 +25473,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="224"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="225">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F19" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="225" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="I19" s="235" t="s">
         <v>848</v>
@@ -25351,11 +25489,15 @@
       <c r="K19" s="237">
         <v>600</v>
       </c>
-      <c r="L19" s="218"/>
-      <c r="M19" s="237"/>
+      <c r="L19" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M19" s="410">
+        <v>600</v>
+      </c>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>65599</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25383,11 +25525,15 @@
       <c r="K20" s="237">
         <v>720</v>
       </c>
-      <c r="L20" s="218"/>
-      <c r="M20" s="237"/>
+      <c r="L20" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M20" s="410">
+        <v>720</v>
+      </c>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>66319</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25415,11 +25561,15 @@
       <c r="K21" s="237">
         <v>6120</v>
       </c>
-      <c r="L21" s="218"/>
-      <c r="M21" s="237"/>
+      <c r="L21" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M21" s="410">
+        <v>6120</v>
+      </c>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>72439</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -25448,11 +25598,15 @@
       <c r="K22" s="237">
         <v>480</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="237"/>
+      <c r="L22" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M22" s="410">
+        <v>480</v>
+      </c>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>72919</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25481,11 +25635,15 @@
       <c r="K23" s="237">
         <v>4680</v>
       </c>
-      <c r="L23" s="218"/>
-      <c r="M23" s="237"/>
+      <c r="L23" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M23" s="410">
+        <v>4680</v>
+      </c>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>77599</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -25514,11 +25672,15 @@
       <c r="K24" s="237">
         <v>17443</v>
       </c>
-      <c r="L24" s="218"/>
-      <c r="M24" s="237"/>
+      <c r="L24" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M24" s="410">
+        <v>17443</v>
+      </c>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>95042</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25547,11 +25709,15 @@
       <c r="K25" s="237">
         <v>840</v>
       </c>
-      <c r="L25" s="218"/>
-      <c r="M25" s="237"/>
+      <c r="L25" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M25" s="410">
+        <v>840</v>
+      </c>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>95882</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25580,11 +25746,15 @@
       <c r="K26" s="237">
         <v>3780</v>
       </c>
-      <c r="L26" s="218"/>
-      <c r="M26" s="237"/>
+      <c r="L26" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M26" s="410">
+        <v>3780</v>
+      </c>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>99662</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25613,11 +25783,15 @@
       <c r="K27" s="237">
         <v>9832</v>
       </c>
-      <c r="L27" s="218"/>
-      <c r="M27" s="237"/>
+      <c r="L27" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M27" s="410">
+        <v>9832</v>
+      </c>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>109494</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25646,11 +25820,15 @@
       <c r="K28" s="237">
         <v>11249.6</v>
       </c>
-      <c r="L28" s="218"/>
-      <c r="M28" s="237"/>
+      <c r="L28" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M28" s="410">
+        <v>11249.6</v>
+      </c>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>120743.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25679,11 +25857,15 @@
       <c r="K29" s="237">
         <v>600</v>
       </c>
-      <c r="L29" s="218"/>
-      <c r="M29" s="237"/>
+      <c r="L29" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M29" s="410">
+        <v>600</v>
+      </c>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>121343.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25713,11 +25895,15 @@
       <c r="K30" s="237">
         <v>600</v>
       </c>
-      <c r="L30" s="224"/>
-      <c r="M30" s="101"/>
+      <c r="L30" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M30" s="410">
+        <v>600</v>
+      </c>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>121943.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25746,11 +25932,15 @@
       <c r="K31" s="237">
         <v>600</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="101"/>
+      <c r="L31" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M31" s="410">
+        <v>600</v>
+      </c>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25777,7 +25967,7 @@
       <c r="M32" s="101"/>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25805,7 +25995,7 @@
       <c r="M33" s="101"/>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25833,7 +26023,7 @@
       <c r="M34" s="101"/>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25859,7 +26049,7 @@
       <c r="M35" s="101"/>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25885,7 +26075,7 @@
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25904,16 +26094,16 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="636" t="s">
+      <c r="I37" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="637"/>
+      <c r="J37" s="635"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25932,14 +26122,14 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="638"/>
-      <c r="J38" s="639"/>
+      <c r="I38" s="636"/>
+      <c r="J38" s="637"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25958,14 +26148,14 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="640"/>
-      <c r="J39" s="641"/>
+      <c r="I39" s="638"/>
+      <c r="J39" s="639"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -25989,7 +26179,7 @@
       <c r="M40" s="84"/>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26013,7 +26203,7 @@
       <c r="M41" s="84"/>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26037,7 +26227,7 @@
       <c r="M42" s="84"/>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26063,7 +26253,7 @@
       <c r="M43" s="84"/>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26089,7 +26279,7 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26115,7 +26305,7 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26141,7 +26331,7 @@
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26167,7 +26357,7 @@
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26187,7 +26377,7 @@
       <c r="M48" s="84"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26207,7 +26397,7 @@
       <c r="M49" s="84"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26227,7 +26417,7 @@
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26247,7 +26437,7 @@
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26267,7 +26457,7 @@
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26287,7 +26477,7 @@
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26307,7 +26497,7 @@
       <c r="M54" s="44"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26327,7 +26517,7 @@
       <c r="M55" s="44"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26347,7 +26537,7 @@
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26367,7 +26557,7 @@
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26387,7 +26577,7 @@
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26407,7 +26597,7 @@
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26427,7 +26617,7 @@
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26447,7 +26637,7 @@
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26467,7 +26657,7 @@
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26487,7 +26677,7 @@
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -26507,7 +26697,7 @@
       <c r="M64" s="84"/>
       <c r="N64" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -26527,7 +26717,7 @@
       <c r="M65" s="84"/>
       <c r="N65" s="227">
         <f t="shared" si="1"/>
-        <v>122543.6</v>
+        <v>43229</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -26561,14 +26751,14 @@
         <f>SUM(F3:F66)</f>
         <v>0</v>
       </c>
-      <c r="G67" s="263">
+      <c r="G67" s="263" t="e">
         <f>SUM(G3:G66)</f>
-        <v>917631.77</v>
-      </c>
-      <c r="I67" s="642" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -26576,7 +26766,7 @@
       <c r="L67" s="265"/>
       <c r="M67" s="266">
         <f>SUM(M3:M66)</f>
-        <v>0</v>
+        <v>79314.600000000006</v>
       </c>
       <c r="N67" s="263">
         <f>N66</f>
@@ -26590,11 +26780,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="651"/>
-      <c r="J68" s="652"/>
+      <c r="I68" s="649"/>
+      <c r="J68" s="650"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26605,7 +26795,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -27164,10 +27354,10 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27193,23 +27383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27219,25 +27409,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27252,14 +27442,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27269,11 +27459,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -28727,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="504" t="s">
         <v>656</v>
       </c>
@@ -28780,7 +28970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="504" t="s">
         <v>650</v>
       </c>
@@ -28830,7 +29020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="504" t="s">
         <v>651</v>
       </c>
@@ -28859,7 +29049,7 @@
       <c r="J35" s="374">
         <v>45166</v>
       </c>
-      <c r="K35" s="373" t="s">
+      <c r="K35" s="660" t="s">
         <v>925</v>
       </c>
       <c r="L35" s="375">
@@ -28884,7 +29074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="504" t="s">
         <v>652</v>
       </c>
@@ -28932,7 +29122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="504" t="s">
         <v>653</v>
       </c>
@@ -28980,7 +29170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:24" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="504" t="s">
         <v>654</v>
       </c>
@@ -28988,10 +29178,11 @@
         <v>45169</v>
       </c>
       <c r="C38" s="93">
+        <f>11722</f>
         <v>11722</v>
       </c>
-      <c r="D38" s="94" t="s">
-        <v>935</v>
+      <c r="D38" s="658" t="s">
+        <v>1110</v>
       </c>
       <c r="E38" s="35">
         <v>45169</v>
@@ -29006,31 +29197,37 @@
       <c r="I38" s="39">
         <v>2648</v>
       </c>
-      <c r="J38" s="338"/>
-      <c r="K38" s="383"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="540">
+      <c r="J38" s="653">
+        <v>45169</v>
+      </c>
+      <c r="K38" s="654" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L38" s="655">
+        <v>170327</v>
+      </c>
+      <c r="M38" s="42">
         <v>0</v>
       </c>
       <c r="N38" s="43">
         <v>44699</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="P38" s="69">
         <f t="shared" si="0"/>
-        <v>59069</v>
-      </c>
-      <c r="Q38" s="285">
-        <f t="shared" si="1"/>
-        <v>-170332</v>
+        <v>229396</v>
+      </c>
+      <c r="Q38" s="45">
+        <f t="shared" si="1"/>
+        <v>-5</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="504" t="s">
         <v>655</v>
       </c>
@@ -29038,10 +29235,11 @@
         <v>45170</v>
       </c>
       <c r="C39" s="93">
+        <f>3458</f>
         <v>3458</v>
       </c>
-      <c r="D39" s="94" t="s">
-        <v>936</v>
+      <c r="D39" s="658" t="s">
+        <v>1109</v>
       </c>
       <c r="E39" s="35">
         <v>45170</v>
@@ -29056,9 +29254,13 @@
       <c r="I39" s="98">
         <v>3080.5</v>
       </c>
-      <c r="J39" s="338"/>
-      <c r="K39" s="343"/>
-      <c r="L39" s="542">
+      <c r="J39" s="653">
+        <v>45170</v>
+      </c>
+      <c r="K39" s="654" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L39" s="655">
         <v>61389.5</v>
       </c>
       <c r="M39" s="42">
@@ -29069,21 +29271,28 @@
         <v>45031</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="P39" s="69">
         <f t="shared" si="0"/>
         <v>116450</v>
       </c>
-      <c r="Q39" s="541">
+      <c r="Q39" s="540">
         <f t="shared" si="1"/>
         <v>-1120</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T39" s="656" t="s">
+        <v>1104</v>
+      </c>
+      <c r="U39" s="657"/>
+      <c r="V39" s="657"/>
+      <c r="W39" s="657"/>
+      <c r="X39" s="657"/>
+    </row>
+    <row r="40" spans="1:24" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="504" t="s">
         <v>656</v>
       </c>
@@ -29091,10 +29300,11 @@
         <v>45171</v>
       </c>
       <c r="C40" s="93">
+        <f>10199</f>
         <v>10199</v>
       </c>
-      <c r="D40" s="94" t="s">
-        <v>431</v>
+      <c r="D40" s="658" t="s">
+        <v>1105</v>
       </c>
       <c r="E40" s="35">
         <v>45171</v>
@@ -29109,15 +29319,15 @@
       <c r="I40" s="98">
         <v>2094</v>
       </c>
-      <c r="J40" s="338">
+      <c r="J40" s="653">
         <v>45171</v>
       </c>
-      <c r="K40" s="343" t="s">
-        <v>938</v>
-      </c>
-      <c r="L40" s="49">
-        <f>22683+300</f>
-        <v>22983</v>
+      <c r="K40" s="654" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L40" s="655">
+        <f>22683+300+71117</f>
+        <v>94100</v>
       </c>
       <c r="M40" s="42">
         <f>46236+4026</f>
@@ -29127,21 +29337,21 @@
         <v>82986</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="P40" s="69">
         <f t="shared" si="0"/>
-        <v>168524</v>
-      </c>
-      <c r="Q40" s="285">
-        <f t="shared" si="1"/>
-        <v>-71117</v>
+        <v>239641</v>
+      </c>
+      <c r="Q40" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31"/>
       <c r="B41" s="32"/>
       <c r="C41" s="93">
@@ -29162,7 +29372,7 @@
       <c r="N41" s="43">
         <v>0</v>
       </c>
-      <c r="O41" s="543"/>
+      <c r="O41" s="541"/>
       <c r="P41" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -29175,16 +29385,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31"/>
       <c r="B42" s="32">
         <v>45138</v>
       </c>
-      <c r="C42" s="567">
+      <c r="C42" s="565">
         <v>11424</v>
       </c>
-      <c r="D42" s="587" t="s">
-        <v>1081</v>
+      <c r="D42" s="585" t="s">
+        <v>1079</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
@@ -29216,17 +29426,20 @@
       <c r="R42" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31"/>
       <c r="B43" s="32">
         <v>45138</v>
       </c>
-      <c r="C43" s="588">
+      <c r="C43" s="586">
         <v>119367.11</v>
       </c>
-      <c r="D43" s="589" t="s">
-        <v>1083</v>
+      <c r="D43" s="587" t="s">
+        <v>1081</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
@@ -29259,7 +29472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31"/>
       <c r="B44" s="32">
         <v>45139</v>
@@ -29301,16 +29514,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31"/>
       <c r="B45" s="32">
         <v>45139</v>
       </c>
-      <c r="C45" s="582">
+      <c r="C45" s="580">
         <v>37120</v>
       </c>
-      <c r="D45" s="583" t="s">
-        <v>1080</v>
+      <c r="D45" s="581" t="s">
+        <v>1078</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
@@ -29343,7 +29556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31"/>
       <c r="B46" s="32">
         <v>45140</v>
@@ -29352,7 +29565,7 @@
         <v>28000</v>
       </c>
       <c r="D46" s="114" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
@@ -29385,7 +29598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31"/>
       <c r="B47" s="32">
         <v>45142</v>
@@ -29394,7 +29607,7 @@
         <v>150000</v>
       </c>
       <c r="D47" s="114" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
@@ -29405,7 +29618,7 @@
         <v>45171</v>
       </c>
       <c r="K47" s="349" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L47" s="49">
         <v>29446</v>
@@ -29427,16 +29640,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31"/>
       <c r="B48" s="32">
         <v>45145</v>
       </c>
-      <c r="C48" s="582">
+      <c r="C48" s="580">
         <v>801820</v>
       </c>
-      <c r="D48" s="584" t="s">
-        <v>1082</v>
+      <c r="D48" s="582" t="s">
+        <v>1080</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="105"/>
@@ -29477,21 +29690,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>5879880.54</v>
-      </c>
-      <c r="Q49" s="631">
+        <v>6121324.54</v>
+      </c>
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
-        <v>-242641.46</v>
+        <v>-1197.4599999999919</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -29517,15 +29730,15 @@
         <v>45139</v>
       </c>
       <c r="K50" s="343" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -29540,7 +29753,7 @@
         <v>2735.5</v>
       </c>
       <c r="D51" s="114" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="110"/>
@@ -29551,7 +29764,7 @@
         <v>32540</v>
       </c>
       <c r="K51" s="343" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L51" s="49">
         <v>14500</v>
@@ -29570,7 +29783,7 @@
         <v>5762.7</v>
       </c>
       <c r="D52" s="114" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
@@ -29581,7 +29794,7 @@
         <v>45141</v>
       </c>
       <c r="K52" s="349" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="L52" s="55">
         <v>850</v>
@@ -29600,7 +29813,7 @@
         <v>100000</v>
       </c>
       <c r="D53" s="114" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="110"/>
@@ -29611,16 +29824,16 @@
         <v>45141</v>
       </c>
       <c r="K53" s="343" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -29633,7 +29846,7 @@
         <v>9682.81</v>
       </c>
       <c r="D54" s="114" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="110"/>
@@ -29644,7 +29857,7 @@
         <v>45145</v>
       </c>
       <c r="K54" s="343" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="L54" s="49">
         <v>4908.49</v>
@@ -29656,14 +29869,14 @@
     </row>
     <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31"/>
-      <c r="B55" s="573">
+      <c r="B55" s="571">
         <v>45153</v>
       </c>
       <c r="C55" s="93">
         <v>8912.9500000000007</v>
       </c>
       <c r="D55" s="135" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="110"/>
@@ -29686,7 +29899,7 @@
     </row>
     <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31"/>
-      <c r="B56" s="573">
+      <c r="B56" s="571">
         <v>45156</v>
       </c>
       <c r="C56" s="93">
@@ -29704,7 +29917,7 @@
         <v>45147</v>
       </c>
       <c r="K56" s="349" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L56" s="84">
         <v>522</v>
@@ -29716,14 +29929,14 @@
     </row>
     <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31"/>
-      <c r="B57" s="573">
+      <c r="B57" s="571">
         <v>45156</v>
       </c>
       <c r="C57" s="93">
         <v>13081</v>
       </c>
       <c r="D57" s="135" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E57" s="104"/>
       <c r="F57" s="110"/>
@@ -29734,7 +29947,7 @@
         <v>45147</v>
       </c>
       <c r="K57" s="343" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="L57" s="84">
         <v>1087.5</v>
@@ -29764,7 +29977,7 @@
         <v>45149</v>
       </c>
       <c r="K58" s="343" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="L58" s="84">
         <v>13000</v>
@@ -29854,7 +30067,7 @@
         <v>45155</v>
       </c>
       <c r="K61" s="349" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="L61" s="84">
         <v>6081.3</v>
@@ -29912,7 +30125,7 @@
         <v>45160</v>
       </c>
       <c r="K63" s="125" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="L63" s="84">
         <v>2571.7199999999998</v>
@@ -29956,11 +30169,11 @@
       <c r="B65" s="134">
         <v>45159</v>
       </c>
-      <c r="C65" s="585">
+      <c r="C65" s="583">
         <v>732290</v>
       </c>
-      <c r="D65" s="586" t="s">
-        <v>1079</v>
+      <c r="D65" s="584" t="s">
+        <v>1077</v>
       </c>
       <c r="E65" s="136"/>
       <c r="F65" s="44"/>
@@ -29970,7 +30183,7 @@
         <v>45167</v>
       </c>
       <c r="K65" s="125" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="L65" s="84">
         <v>6824.86</v>
@@ -29989,7 +30202,7 @@
         <v>40608.1</v>
       </c>
       <c r="D66" s="135" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E66" s="136"/>
       <c r="F66" s="44"/>
@@ -29999,7 +30212,7 @@
         <v>45167</v>
       </c>
       <c r="K66" s="125" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L66" s="84">
         <v>1298.04</v>
@@ -30018,7 +30231,7 @@
         <v>12424</v>
       </c>
       <c r="D67" s="135" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E67" s="136"/>
       <c r="F67" s="44"/>
@@ -30027,8 +30240,8 @@
       <c r="J67" s="133">
         <v>45169</v>
       </c>
-      <c r="K67" s="570" t="s">
-        <v>1074</v>
+      <c r="K67" s="568" t="s">
+        <v>1072</v>
       </c>
       <c r="L67" s="84">
         <v>1160</v>
@@ -30047,7 +30260,7 @@
         <v>28000</v>
       </c>
       <c r="D68" s="135" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E68" s="136"/>
       <c r="F68" s="44"/>
@@ -30093,7 +30306,7 @@
         <v>37120</v>
       </c>
       <c r="D70" s="135" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E70" s="136"/>
       <c r="F70" s="44"/>
@@ -30116,7 +30329,7 @@
         <v>12424</v>
       </c>
       <c r="D71" s="135" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E71" s="136"/>
       <c r="F71" s="44"/>
@@ -30162,7 +30375,7 @@
         <v>104110.55</v>
       </c>
       <c r="D73" s="135" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E73" s="136"/>
       <c r="F73" s="44"/>
@@ -30185,7 +30398,7 @@
         <v>37120</v>
       </c>
       <c r="D74" s="135" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E74" s="136"/>
       <c r="F74" s="44"/>
@@ -30204,11 +30417,11 @@
       <c r="B75" s="134">
         <v>45170</v>
       </c>
-      <c r="C75" s="571">
+      <c r="C75" s="569">
         <v>19516.2</v>
       </c>
-      <c r="D75" s="572" t="s">
-        <v>1062</v>
+      <c r="D75" s="570" t="s">
+        <v>1060</v>
       </c>
       <c r="E75" s="136"/>
       <c r="F75" s="44"/>
@@ -30317,7 +30530,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>435381.37</v>
+        <v>676825.37000000011</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -30335,50 +30548,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="627" t="s">
+      <c r="H81" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="628"/>
+      <c r="I81" s="615"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="629">
+      <c r="K81" s="616">
         <f>I79+L79</f>
-        <v>537501.87</v>
-      </c>
-      <c r="L81" s="630"/>
+        <v>778945.87000000011</v>
+      </c>
+      <c r="L81" s="617"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="621" t="s">
+      <c r="D82" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="621"/>
+      <c r="E82" s="608"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-995190.8499999987</v>
+        <v>-1236634.8499999987</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="622" t="s">
+      <c r="D83" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="622"/>
+      <c r="E83" s="609"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="623" t="s">
+      <c r="I83" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="624"/>
-      <c r="K83" s="625">
+      <c r="J83" s="611"/>
+      <c r="K83" s="612">
         <f>F85+F86+F87</f>
-        <v>794214.9000000013</v>
-      </c>
-      <c r="L83" s="625"/>
+        <v>552770.9000000013</v>
+      </c>
+      <c r="L83" s="612"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30412,18 +30625,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-2471678.7599999988</v>
+        <v>-2713122.7599999988</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="626">
+      <c r="K85" s="613">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="625"/>
+      <c r="L85" s="612"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30441,22 +30654,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="614" t="s">
+      <c r="D87" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="615"/>
+      <c r="E87" s="602"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="616" t="s">
+      <c r="I87" s="603" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="617"/>
-      <c r="K87" s="618">
+      <c r="J87" s="604"/>
+      <c r="K87" s="605">
         <f>K83+K85</f>
-        <v>-2026336.4099999988</v>
-      </c>
-      <c r="L87" s="618"/>
+        <v>-2267780.4099999988</v>
+      </c>
+      <c r="L87" s="605"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -30604,6 +30817,12 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30620,12 +30839,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -30640,8 +30853,8 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30655,8 +30868,8 @@
     <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="554" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="561" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="552" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="559" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="274" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -30676,8 +30889,8 @@
       <c r="I1" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="545"/>
-      <c r="K1" s="555"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="553"/>
       <c r="L1" s="202"/>
       <c r="M1" s="201"/>
       <c r="N1" s="203" t="s">
@@ -30735,27 +30948,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="287" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J3" s="544">
+        <v>1022</v>
+      </c>
+      <c r="J3" s="542">
         <v>13035</v>
       </c>
       <c r="K3" s="289">
         <v>12283.8</v>
       </c>
-      <c r="L3" s="218"/>
-      <c r="M3" s="237"/>
+      <c r="L3" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M3" s="410">
+        <v>12283.8</v>
+      </c>
       <c r="N3" s="221">
         <f>K3-M3</f>
-        <v>12283.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="235" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="461" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D4" s="237">
         <v>107803.18</v>
@@ -30768,7 +30985,7 @@
       </c>
       <c r="H4" s="226"/>
       <c r="I4" s="228" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J4" s="229">
         <v>13045</v>
@@ -30776,19 +30993,23 @@
       <c r="K4" s="230">
         <v>6682</v>
       </c>
-      <c r="L4" s="218"/>
-      <c r="M4" s="237"/>
+      <c r="L4" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M4" s="412">
+        <v>6682</v>
+      </c>
       <c r="N4" s="227">
         <f>N3+K4-M4</f>
-        <v>18965.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="235" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C5" s="461" t="s">
         <v>1024</v>
-      </c>
-      <c r="C5" s="461" t="s">
-        <v>1026</v>
       </c>
       <c r="D5" s="237">
         <v>14304</v>
@@ -30800,27 +31021,31 @@
         <v>14304</v>
       </c>
       <c r="I5" s="287" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J5" s="544">
+        <v>1026</v>
+      </c>
+      <c r="J5" s="542">
         <v>13050</v>
       </c>
       <c r="K5" s="289">
         <v>360</v>
       </c>
-      <c r="L5" s="218"/>
-      <c r="M5" s="237"/>
+      <c r="L5" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M5" s="410">
+        <v>360</v>
+      </c>
       <c r="N5" s="227">
         <f t="shared" ref="N5:N63" si="1">N4+K5-M5</f>
-        <v>19325.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="235" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C6" s="461" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D6" s="237">
         <v>6325.8</v>
@@ -30832,7 +31057,7 @@
         <v>6325.8</v>
       </c>
       <c r="I6" s="228" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J6" s="229">
         <v>13058</v>
@@ -30840,19 +31065,23 @@
       <c r="K6" s="230">
         <v>600</v>
       </c>
-      <c r="L6" s="218"/>
-      <c r="M6" s="237"/>
+      <c r="L6" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M6" s="412">
+        <v>600</v>
+      </c>
       <c r="N6" s="227">
         <f t="shared" si="1"/>
-        <v>19925.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="235" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="461" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D7" s="237">
         <v>8751.6</v>
@@ -30864,27 +31093,31 @@
         <v>8751.6</v>
       </c>
       <c r="I7" s="287" t="s">
-        <v>944</v>
-      </c>
-      <c r="J7" s="544">
+        <v>942</v>
+      </c>
+      <c r="J7" s="542">
         <v>13066</v>
       </c>
       <c r="K7" s="289">
         <v>3961</v>
       </c>
-      <c r="L7" s="218"/>
-      <c r="M7" s="237"/>
+      <c r="L7" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M7" s="410">
+        <v>3961</v>
+      </c>
       <c r="N7" s="227">
         <f t="shared" si="1"/>
-        <v>23886.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="235" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C8" s="461" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D8" s="237">
         <v>23712</v>
@@ -30897,7 +31130,7 @@
       </c>
       <c r="H8" s="226"/>
       <c r="I8" s="228" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J8" s="229">
         <v>13069</v>
@@ -30905,19 +31138,23 @@
       <c r="K8" s="230">
         <v>4160</v>
       </c>
-      <c r="L8" s="218"/>
-      <c r="M8" s="237"/>
+      <c r="L8" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M8" s="412">
+        <v>4160</v>
+      </c>
       <c r="N8" s="227">
         <f t="shared" si="1"/>
-        <v>28046.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="235" t="s">
+        <v>937</v>
+      </c>
+      <c r="C9" s="461" t="s">
         <v>939</v>
-      </c>
-      <c r="C9" s="461" t="s">
-        <v>941</v>
       </c>
       <c r="D9" s="237">
         <v>0</v>
@@ -30929,27 +31166,31 @@
         <v>0</v>
       </c>
       <c r="I9" s="287" t="s">
-        <v>948</v>
-      </c>
-      <c r="J9" s="544">
+        <v>946</v>
+      </c>
+      <c r="J9" s="542">
         <v>13077</v>
       </c>
       <c r="K9" s="289">
         <v>600</v>
       </c>
-      <c r="L9" s="218"/>
-      <c r="M9" s="237"/>
+      <c r="L9" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M9" s="410">
+        <v>600</v>
+      </c>
       <c r="N9" s="227">
         <f t="shared" si="1"/>
-        <v>28646.799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="235" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C10" s="461" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D10" s="237">
         <v>0</v>
@@ -30961,27 +31202,31 @@
         <v>0</v>
       </c>
       <c r="I10" s="287" t="s">
-        <v>950</v>
-      </c>
-      <c r="J10" s="544">
+        <v>948</v>
+      </c>
+      <c r="J10" s="542">
         <v>13080</v>
       </c>
       <c r="K10" s="289">
         <v>3521</v>
       </c>
-      <c r="L10" s="218"/>
-      <c r="M10" s="237"/>
+      <c r="L10" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M10" s="410">
+        <v>3521</v>
+      </c>
       <c r="N10" s="227">
         <f t="shared" si="1"/>
-        <v>32167.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="235" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C11" s="461" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D11" s="237">
         <v>0</v>
@@ -30993,27 +31238,31 @@
         <v>0</v>
       </c>
       <c r="I11" s="287" t="s">
-        <v>950</v>
-      </c>
-      <c r="J11" s="544">
+        <v>948</v>
+      </c>
+      <c r="J11" s="542">
         <v>13084</v>
       </c>
       <c r="K11" s="289">
         <v>600</v>
       </c>
-      <c r="L11" s="218"/>
-      <c r="M11" s="237"/>
+      <c r="L11" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M11" s="410">
+        <v>600</v>
+      </c>
       <c r="N11" s="227">
         <f t="shared" si="1"/>
-        <v>32767.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="235" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C12" s="461" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D12" s="237">
         <v>19595.22</v>
@@ -31025,27 +31274,31 @@
         <v>19595.22</v>
       </c>
       <c r="I12" s="287" t="s">
-        <v>954</v>
-      </c>
-      <c r="J12" s="544">
+        <v>952</v>
+      </c>
+      <c r="J12" s="542">
         <v>13094</v>
       </c>
       <c r="K12" s="289">
         <v>13574.4</v>
       </c>
-      <c r="L12" s="218"/>
-      <c r="M12" s="237"/>
+      <c r="L12" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M12" s="410">
+        <v>13574.4</v>
+      </c>
       <c r="N12" s="227">
         <f t="shared" si="1"/>
-        <v>46342.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="235" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C13" s="461" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D13" s="237">
         <v>26903.66</v>
@@ -31057,27 +31310,31 @@
         <v>26903.66</v>
       </c>
       <c r="I13" s="287" t="s">
-        <v>956</v>
-      </c>
-      <c r="J13" s="544">
+        <v>954</v>
+      </c>
+      <c r="J13" s="542">
         <v>13097</v>
       </c>
       <c r="K13" s="289">
         <v>17782.400000000001</v>
       </c>
-      <c r="L13" s="218"/>
-      <c r="M13" s="237"/>
+      <c r="L13" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M13" s="410">
+        <v>17782.400000000001</v>
+      </c>
       <c r="N13" s="227">
         <f t="shared" si="1"/>
-        <v>64124.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="235" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C14" s="461" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D14" s="237">
         <v>11502.64</v>
@@ -31089,27 +31346,31 @@
         <v>11502.64</v>
       </c>
       <c r="I14" s="287" t="s">
-        <v>956</v>
-      </c>
-      <c r="J14" s="544">
+        <v>954</v>
+      </c>
+      <c r="J14" s="542">
         <v>13098</v>
       </c>
       <c r="K14" s="289">
         <v>1537.4</v>
       </c>
-      <c r="L14" s="218"/>
-      <c r="M14" s="237"/>
+      <c r="L14" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M14" s="410">
+        <v>1537.4</v>
+      </c>
       <c r="N14" s="227">
         <f t="shared" si="1"/>
-        <v>65662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="235" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C15" s="461" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D15" s="237">
         <v>0</v>
@@ -31121,7 +31382,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="228" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J15" s="229">
         <v>13103</v>
@@ -31129,19 +31390,23 @@
       <c r="K15" s="230">
         <v>360</v>
       </c>
-      <c r="L15" s="218"/>
-      <c r="M15" s="237"/>
+      <c r="L15" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M15" s="412">
+        <v>360</v>
+      </c>
       <c r="N15" s="227">
         <f t="shared" si="1"/>
-        <v>66022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="235" t="s">
+        <v>948</v>
+      </c>
+      <c r="C16" s="461" t="s">
         <v>950</v>
-      </c>
-      <c r="C16" s="461" t="s">
-        <v>952</v>
       </c>
       <c r="D16" s="237">
         <v>32750.2</v>
@@ -31153,27 +31418,31 @@
         <v>32750.2</v>
       </c>
       <c r="I16" s="287" t="s">
-        <v>961</v>
-      </c>
-      <c r="J16" s="544">
+        <v>959</v>
+      </c>
+      <c r="J16" s="542">
         <v>13110</v>
       </c>
       <c r="K16" s="289">
         <v>600</v>
       </c>
-      <c r="L16" s="218"/>
-      <c r="M16" s="237"/>
+      <c r="L16" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M16" s="410">
+        <v>600</v>
+      </c>
       <c r="N16" s="227">
         <f t="shared" si="1"/>
-        <v>66622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="235" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C17" s="461" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D17" s="237">
         <v>201266.08</v>
@@ -31185,7 +31454,7 @@
         <v>201266.08</v>
       </c>
       <c r="I17" s="228" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J17" s="229">
         <v>13117</v>
@@ -31193,19 +31462,23 @@
       <c r="K17" s="230">
         <v>12986.6</v>
       </c>
-      <c r="L17" s="218"/>
-      <c r="M17" s="237"/>
+      <c r="L17" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M17" s="412">
+        <v>12986.6</v>
+      </c>
       <c r="N17" s="227">
         <f t="shared" si="1"/>
-        <v>79608.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="235" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C18" s="461" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D18" s="237">
         <v>13337.6</v>
@@ -31217,7 +31490,7 @@
         <v>13337.6</v>
       </c>
       <c r="I18" s="228" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J18" s="229">
         <v>13122</v>
@@ -31225,19 +31498,23 @@
       <c r="K18" s="230">
         <v>960</v>
       </c>
-      <c r="L18" s="218"/>
-      <c r="M18" s="237"/>
+      <c r="L18" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M18" s="412">
+        <v>960</v>
+      </c>
       <c r="N18" s="227">
         <f t="shared" si="1"/>
-        <v>80568.600000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="235" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C19" s="461" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D19" s="237">
         <v>27507.7</v>
@@ -31249,7 +31526,7 @@
         <v>27507.7</v>
       </c>
       <c r="I19" s="228" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J19" s="229">
         <v>13133</v>
@@ -31257,19 +31534,23 @@
       <c r="K19" s="230">
         <v>4712</v>
       </c>
-      <c r="L19" s="218"/>
-      <c r="M19" s="237"/>
+      <c r="L19" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M19" s="412">
+        <v>4712</v>
+      </c>
       <c r="N19" s="227">
         <f t="shared" si="1"/>
-        <v>85280.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="235" t="s">
+        <v>954</v>
+      </c>
+      <c r="C20" s="461" t="s">
         <v>956</v>
-      </c>
-      <c r="C20" s="461" t="s">
-        <v>958</v>
       </c>
       <c r="D20" s="237">
         <v>5092</v>
@@ -31282,7 +31563,7 @@
       </c>
       <c r="H20" s="232"/>
       <c r="I20" s="228" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J20" s="229">
         <v>13139</v>
@@ -31290,19 +31571,23 @@
       <c r="K20" s="230">
         <v>3680</v>
       </c>
-      <c r="L20" s="218"/>
-      <c r="M20" s="237"/>
+      <c r="L20" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M20" s="412">
+        <v>3680</v>
+      </c>
       <c r="N20" s="227">
         <f t="shared" si="1"/>
-        <v>88960.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="235" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C21" s="461" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D21" s="237">
         <v>53907.5</v>
@@ -31315,27 +31600,31 @@
       </c>
       <c r="H21" s="233"/>
       <c r="I21" s="287" t="s">
-        <v>974</v>
-      </c>
-      <c r="J21" s="544">
+        <v>972</v>
+      </c>
+      <c r="J21" s="542">
         <v>13140</v>
       </c>
       <c r="K21" s="289">
         <v>2053</v>
       </c>
-      <c r="L21" s="218"/>
-      <c r="M21" s="237"/>
+      <c r="L21" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M21" s="410">
+        <v>2053</v>
+      </c>
       <c r="N21" s="227">
         <f t="shared" si="1"/>
-        <v>91013.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="235" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C22" s="461" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D22" s="237">
         <v>30250.06</v>
@@ -31348,7 +31637,7 @@
       </c>
       <c r="H22" s="233"/>
       <c r="I22" s="228" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J22" s="229">
         <v>13145</v>
@@ -31356,19 +31645,23 @@
       <c r="K22" s="230">
         <v>360</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="237"/>
+      <c r="L22" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M22" s="412">
+        <v>360</v>
+      </c>
       <c r="N22" s="227">
         <f t="shared" si="1"/>
-        <v>91373.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="235" t="s">
+        <v>959</v>
+      </c>
+      <c r="C23" s="461" t="s">
         <v>961</v>
-      </c>
-      <c r="C23" s="461" t="s">
-        <v>963</v>
       </c>
       <c r="D23" s="237">
         <v>0</v>
@@ -31381,7 +31674,7 @@
       </c>
       <c r="H23" s="234"/>
       <c r="I23" s="228" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J23" s="229">
         <v>13153</v>
@@ -31389,19 +31682,23 @@
       <c r="K23" s="230">
         <v>360</v>
       </c>
-      <c r="L23" s="218"/>
-      <c r="M23" s="237"/>
+      <c r="L23" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M23" s="412">
+        <v>360</v>
+      </c>
       <c r="N23" s="227">
         <f t="shared" si="1"/>
-        <v>91733.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="235" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C24" s="461" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D24" s="237">
         <v>2259</v>
@@ -31414,7 +31711,7 @@
       </c>
       <c r="H24" s="234"/>
       <c r="I24" s="228" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J24" s="229">
         <v>13163</v>
@@ -31422,19 +31719,23 @@
       <c r="K24" s="230">
         <v>3161</v>
       </c>
-      <c r="L24" s="218"/>
-      <c r="M24" s="237"/>
+      <c r="L24" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M24" s="412">
+        <v>3161</v>
+      </c>
       <c r="N24" s="227">
         <f t="shared" si="1"/>
-        <v>94894.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="235" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C25" s="461" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D25" s="237">
         <v>3361.1</v>
@@ -31447,27 +31748,31 @@
       </c>
       <c r="H25" s="234"/>
       <c r="I25" s="287" t="s">
-        <v>988</v>
-      </c>
-      <c r="J25" s="544">
+        <v>986</v>
+      </c>
+      <c r="J25" s="542">
         <v>13172</v>
       </c>
       <c r="K25" s="289">
         <v>1200</v>
       </c>
-      <c r="L25" s="218"/>
-      <c r="M25" s="237"/>
+      <c r="L25" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M25" s="410">
+        <v>1200</v>
+      </c>
       <c r="N25" s="227">
         <f t="shared" si="1"/>
-        <v>96094.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="235" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C26" s="461" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D26" s="237">
         <v>1734</v>
@@ -31480,7 +31785,7 @@
       </c>
       <c r="H26" s="234"/>
       <c r="I26" s="228" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J26" s="229">
         <v>13173</v>
@@ -31488,19 +31793,23 @@
       <c r="K26" s="230">
         <v>6807</v>
       </c>
-      <c r="L26" s="218"/>
-      <c r="M26" s="237"/>
+      <c r="L26" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M26" s="412">
+        <v>6807</v>
+      </c>
       <c r="N26" s="227">
         <f t="shared" si="1"/>
-        <v>102901.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="235" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C27" s="461" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D27" s="237">
         <v>55851.18</v>
@@ -31513,28 +31822,32 @@
       </c>
       <c r="H27" s="234"/>
       <c r="I27" s="287" t="s">
-        <v>990</v>
-      </c>
-      <c r="J27" s="544">
+        <v>988</v>
+      </c>
+      <c r="J27" s="542">
         <v>13188</v>
       </c>
       <c r="K27" s="289">
         <v>20610.8</v>
       </c>
-      <c r="L27" s="218"/>
-      <c r="M27" s="237"/>
+      <c r="L27" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M27" s="410">
+        <v>20610.8</v>
+      </c>
       <c r="N27" s="227">
         <f t="shared" si="1"/>
-        <v>123512.40000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="235" t="s">
+        <v>965</v>
+      </c>
+      <c r="C28" s="461" t="s">
         <v>967</v>
-      </c>
-      <c r="C28" s="461" t="s">
-        <v>969</v>
       </c>
       <c r="D28" s="237">
         <v>6180</v>
@@ -31547,27 +31860,31 @@
       </c>
       <c r="H28" s="234"/>
       <c r="I28" s="287" t="s">
-        <v>994</v>
-      </c>
-      <c r="J28" s="544">
+        <v>992</v>
+      </c>
+      <c r="J28" s="542">
         <v>13194</v>
       </c>
       <c r="K28" s="289">
         <v>8058</v>
       </c>
-      <c r="L28" s="224"/>
-      <c r="M28" s="101"/>
+      <c r="L28" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M28" s="410">
+        <v>8058</v>
+      </c>
       <c r="N28" s="227">
         <f t="shared" si="1"/>
-        <v>131570.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="235" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C29" s="461" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D29" s="237">
         <v>1564</v>
@@ -31580,27 +31897,31 @@
       </c>
       <c r="H29" s="233"/>
       <c r="I29" s="287" t="s">
-        <v>996</v>
-      </c>
-      <c r="J29" s="544">
+        <v>994</v>
+      </c>
+      <c r="J29" s="542">
         <v>13202</v>
       </c>
       <c r="K29" s="289">
         <v>6742</v>
       </c>
-      <c r="L29" s="224"/>
-      <c r="M29" s="101"/>
+      <c r="L29" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M29" s="410">
+        <v>6742</v>
+      </c>
       <c r="N29" s="227">
         <f t="shared" si="1"/>
-        <v>138312.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="235" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C30" s="461" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D30" s="237">
         <v>5874</v>
@@ -31613,7 +31934,7 @@
       </c>
       <c r="H30" s="233"/>
       <c r="I30" s="228" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J30" s="229">
         <v>13211</v>
@@ -31621,19 +31942,23 @@
       <c r="K30" s="230">
         <v>480</v>
       </c>
-      <c r="L30" s="224"/>
-      <c r="M30" s="101"/>
+      <c r="L30" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M30" s="412">
+        <v>480</v>
+      </c>
       <c r="N30" s="227">
         <f t="shared" si="1"/>
-        <v>138792.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="235" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C31" s="461" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D31" s="237">
         <v>3500.4</v>
@@ -31645,7 +31970,7 @@
         <v>3500.4</v>
       </c>
       <c r="I31" s="228" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="J31" s="229">
         <v>13221</v>
@@ -31653,19 +31978,23 @@
       <c r="K31" s="230">
         <v>6061</v>
       </c>
-      <c r="L31" s="224"/>
-      <c r="M31" s="101"/>
+      <c r="L31" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M31" s="412">
+        <v>6061</v>
+      </c>
       <c r="N31" s="227">
         <f t="shared" si="1"/>
-        <v>144853.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="235" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C32" s="461" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D32" s="237">
         <v>0</v>
@@ -31677,27 +32006,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="287" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="544">
+        <v>998</v>
+      </c>
+      <c r="J32" s="542">
         <v>13222</v>
       </c>
       <c r="K32" s="289">
         <v>0</v>
       </c>
-      <c r="L32" s="224"/>
-      <c r="M32" s="101"/>
+      <c r="L32" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M32" s="410">
+        <v>0</v>
+      </c>
       <c r="N32" s="227">
         <f t="shared" si="1"/>
-        <v>144853.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="235" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C33" s="461" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D33" s="237">
         <v>54429.4</v>
@@ -31709,7 +32042,7 @@
         <v>54429.4</v>
       </c>
       <c r="I33" s="228" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="J33" s="229">
         <v>13223</v>
@@ -31717,19 +32050,23 @@
       <c r="K33" s="230">
         <v>0</v>
       </c>
-      <c r="L33" s="489"/>
-      <c r="M33" s="101"/>
+      <c r="L33" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M33" s="412">
+        <v>0</v>
+      </c>
       <c r="N33" s="227">
         <f t="shared" si="1"/>
-        <v>144853.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="235" t="s">
+        <v>974</v>
+      </c>
+      <c r="C34" s="461" t="s">
         <v>976</v>
-      </c>
-      <c r="C34" s="461" t="s">
-        <v>978</v>
       </c>
       <c r="D34" s="237">
         <v>12342</v>
@@ -31741,27 +32078,31 @@
         <v>12342</v>
       </c>
       <c r="I34" s="287" t="s">
-        <v>1000</v>
-      </c>
-      <c r="J34" s="544">
+        <v>998</v>
+      </c>
+      <c r="J34" s="542">
         <v>13224</v>
       </c>
       <c r="K34" s="289">
         <v>7002</v>
       </c>
-      <c r="L34" s="491"/>
-      <c r="M34" s="101"/>
+      <c r="L34" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M34" s="410">
+        <v>7002</v>
+      </c>
       <c r="N34" s="227">
         <f t="shared" si="1"/>
-        <v>151855.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="235" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C35" s="461" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D35" s="237">
         <v>0</v>
@@ -31773,7 +32114,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="228" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J35" s="229">
         <v>13228</v>
@@ -31781,19 +32122,23 @@
       <c r="K35" s="230">
         <v>600</v>
       </c>
-      <c r="L35" s="491"/>
-      <c r="M35" s="101"/>
+      <c r="L35" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M35" s="412">
+        <v>600</v>
+      </c>
       <c r="N35" s="227">
         <f t="shared" si="1"/>
-        <v>152455.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="235" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C36" s="461" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D36" s="237">
         <v>0</v>
@@ -31805,27 +32150,31 @@
         <v>0</v>
       </c>
       <c r="I36" s="287" t="s">
-        <v>1005</v>
-      </c>
-      <c r="J36" s="544">
+        <v>1003</v>
+      </c>
+      <c r="J36" s="542">
         <v>13229</v>
       </c>
       <c r="K36" s="289">
         <v>1584</v>
       </c>
-      <c r="L36" s="218"/>
-      <c r="M36" s="101"/>
+      <c r="L36" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M36" s="410">
+        <v>1584</v>
+      </c>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
-        <v>154039.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="235" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C37" s="461" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D37" s="237">
         <v>9132</v>
@@ -31837,7 +32186,7 @@
         <v>9132</v>
       </c>
       <c r="I37" s="228" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="J37" s="229">
         <v>13230</v>
@@ -31845,19 +32194,23 @@
       <c r="K37" s="230">
         <v>2505.8000000000002</v>
       </c>
-      <c r="L37" s="238"/>
-      <c r="M37" s="84"/>
+      <c r="L37" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M37" s="412">
+        <v>2505.8000000000002</v>
+      </c>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
-        <v>156545.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="235" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C38" s="461" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D38" s="237">
         <v>0</v>
@@ -31869,7 +32222,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="228" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J38" s="229">
         <v>13238</v>
@@ -31877,19 +32230,23 @@
       <c r="K38" s="230">
         <v>600</v>
       </c>
-      <c r="L38" s="238"/>
-      <c r="M38" s="84"/>
+      <c r="L38" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M38" s="412">
+        <v>600</v>
+      </c>
       <c r="N38" s="227">
         <f t="shared" si="1"/>
-        <v>157145.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="235" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C39" s="461" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D39" s="237">
         <v>20773.2</v>
@@ -31901,27 +32258,31 @@
         <v>20773.2</v>
       </c>
       <c r="I39" s="287" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J39" s="544">
+        <v>1007</v>
+      </c>
+      <c r="J39" s="542">
         <v>13239</v>
       </c>
       <c r="K39" s="289">
         <v>10729.2</v>
       </c>
-      <c r="L39" s="238"/>
-      <c r="M39" s="84"/>
+      <c r="L39" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M39" s="410">
+        <v>10729.2</v>
+      </c>
       <c r="N39" s="227">
         <f t="shared" si="1"/>
-        <v>167874.40000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="235" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C40" s="461" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D40" s="237">
         <v>26133.16</v>
@@ -31933,27 +32294,31 @@
         <v>26133.16</v>
       </c>
       <c r="I40" s="287" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J40" s="544">
+        <v>1011</v>
+      </c>
+      <c r="J40" s="542">
         <v>13252</v>
       </c>
       <c r="K40" s="289">
         <v>20923.599999999999</v>
       </c>
-      <c r="L40" s="238"/>
-      <c r="M40" s="84"/>
+      <c r="L40" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M40" s="410">
+        <v>20923.599999999999</v>
+      </c>
       <c r="N40" s="227">
         <f t="shared" si="1"/>
-        <v>188798.00000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="235" t="s">
+        <v>983</v>
+      </c>
+      <c r="C41" s="461" t="s">
         <v>985</v>
-      </c>
-      <c r="C41" s="461" t="s">
-        <v>987</v>
       </c>
       <c r="D41" s="237">
         <v>14070</v>
@@ -31965,27 +32330,31 @@
         <v>14070</v>
       </c>
       <c r="I41" s="287" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J41" s="544">
+        <v>1016</v>
+      </c>
+      <c r="J41" s="542">
         <v>13254</v>
       </c>
       <c r="K41" s="289">
         <v>7619</v>
       </c>
-      <c r="L41" s="238"/>
-      <c r="M41" s="84"/>
+      <c r="L41" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M41" s="410">
+        <v>7619</v>
+      </c>
       <c r="N41" s="227">
         <f t="shared" si="1"/>
-        <v>196417.00000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="235" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C42" s="461" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D42" s="237">
         <v>32862.800000000003</v>
@@ -31997,7 +32366,7 @@
         <v>32862.800000000003</v>
       </c>
       <c r="I42" s="228" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J42" s="229">
         <v>13264</v>
@@ -32005,19 +32374,23 @@
       <c r="K42" s="230">
         <v>23661.599999999999</v>
       </c>
-      <c r="L42" s="238"/>
-      <c r="M42" s="84"/>
+      <c r="L42" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M42" s="412">
+        <v>23661.599999999999</v>
+      </c>
       <c r="N42" s="227">
         <f t="shared" si="1"/>
-        <v>220078.60000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="235" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C43" s="461" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D43" s="237">
         <v>0</v>
@@ -32029,27 +32402,31 @@
         <v>0</v>
       </c>
       <c r="I43" s="287" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J43" s="544">
+        <v>1029</v>
+      </c>
+      <c r="J43" s="542">
         <v>13272</v>
       </c>
       <c r="K43" s="289">
         <v>3440</v>
       </c>
-      <c r="L43" s="238"/>
-      <c r="M43" s="84"/>
+      <c r="L43" s="409">
+        <v>45173</v>
+      </c>
+      <c r="M43" s="410">
+        <v>3440</v>
+      </c>
       <c r="N43" s="227">
         <f t="shared" si="1"/>
-        <v>223518.60000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="235" t="s">
+        <v>988</v>
+      </c>
+      <c r="C44" s="461" t="s">
         <v>990</v>
-      </c>
-      <c r="C44" s="461" t="s">
-        <v>992</v>
       </c>
       <c r="D44" s="237">
         <v>4038</v>
@@ -32061,7 +32438,7 @@
         <v>4038</v>
       </c>
       <c r="I44" s="228" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J44" s="229">
         <v>13283</v>
@@ -32073,15 +32450,15 @@
       <c r="M44" s="84"/>
       <c r="N44" s="227">
         <f t="shared" si="1"/>
-        <v>224478.60000000003</v>
+        <v>960</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="235" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C45" s="461" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D45" s="237">
         <v>101222.46</v>
@@ -32093,7 +32470,7 @@
         <v>101222.46</v>
       </c>
       <c r="I45" s="228" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J45" s="229">
         <v>13285</v>
@@ -32105,15 +32482,15 @@
       <c r="M45" s="84"/>
       <c r="N45" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="235" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C46" s="461" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D46" s="237">
         <v>22549.200000000001</v>
@@ -32125,21 +32502,21 @@
         <v>22549.200000000001</v>
       </c>
       <c r="I46" s="406"/>
-      <c r="J46" s="546"/>
+      <c r="J46" s="544"/>
       <c r="K46" s="101"/>
       <c r="L46" s="238"/>
       <c r="M46" s="84"/>
       <c r="N46" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="235" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C47" s="461" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D47" s="237">
         <v>22185.9</v>
@@ -32151,21 +32528,21 @@
         <v>22185.9</v>
       </c>
       <c r="I47" s="239"/>
-      <c r="J47" s="546"/>
+      <c r="J47" s="544"/>
       <c r="K47" s="101"/>
       <c r="L47" s="238"/>
       <c r="M47" s="84"/>
       <c r="N47" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="235" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C48" s="461" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D48" s="237">
         <v>83481</v>
@@ -32177,21 +32554,21 @@
         <v>83481</v>
       </c>
       <c r="I48" s="251"/>
-      <c r="J48" s="547"/>
+      <c r="J48" s="545"/>
       <c r="K48" s="108"/>
       <c r="L48" s="177"/>
       <c r="M48" s="44"/>
       <c r="N48" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="235" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C49" s="461" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D49" s="237">
         <v>11880</v>
@@ -32202,24 +32579,24 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="636" t="s">
+      <c r="I49" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="637"/>
+      <c r="J49" s="635"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
       <c r="N49" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="235" t="s">
+        <v>998</v>
+      </c>
+      <c r="C50" s="461" t="s">
         <v>1000</v>
-      </c>
-      <c r="C50" s="461" t="s">
-        <v>1002</v>
       </c>
       <c r="D50" s="237">
         <v>0</v>
@@ -32230,22 +32607,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="638"/>
-      <c r="J50" s="639"/>
+      <c r="I50" s="636"/>
+      <c r="J50" s="637"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
       <c r="N50" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="235" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C51" s="461" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D51" s="237">
         <v>0</v>
@@ -32256,22 +32633,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="640"/>
-      <c r="J51" s="641"/>
+      <c r="I51" s="638"/>
+      <c r="J51" s="639"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
       <c r="N51" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="235" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C52" s="461" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D52" s="237">
         <v>2850</v>
@@ -32283,21 +32660,21 @@
         <v>2850</v>
       </c>
       <c r="I52" s="251"/>
-      <c r="J52" s="547"/>
+      <c r="J52" s="545"/>
       <c r="K52" s="108"/>
       <c r="L52" s="177"/>
       <c r="M52" s="44"/>
       <c r="N52" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="235" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C53" s="461" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D53" s="237">
         <v>14514.2</v>
@@ -32309,21 +32686,21 @@
         <v>14514.2</v>
       </c>
       <c r="I53" s="251"/>
-      <c r="J53" s="547"/>
+      <c r="J53" s="545"/>
       <c r="K53" s="108"/>
       <c r="L53" s="177"/>
       <c r="M53" s="44"/>
       <c r="N53" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="235" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C54" s="461" t="s">
         <v>1005</v>
-      </c>
-      <c r="C54" s="461" t="s">
-        <v>1007</v>
       </c>
       <c r="D54" s="237">
         <v>4540</v>
@@ -32335,21 +32712,21 @@
         <v>4540</v>
       </c>
       <c r="I54" s="239"/>
-      <c r="J54" s="546"/>
+      <c r="J54" s="544"/>
       <c r="K54" s="101"/>
       <c r="L54" s="250"/>
       <c r="M54" s="84"/>
       <c r="N54" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="235" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C55" s="461" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D55" s="237">
         <v>7697.63</v>
@@ -32361,21 +32738,21 @@
         <v>7697.63</v>
       </c>
       <c r="I55" s="239"/>
-      <c r="J55" s="546"/>
+      <c r="J55" s="544"/>
       <c r="K55" s="101"/>
       <c r="L55" s="250"/>
       <c r="M55" s="84"/>
       <c r="N55" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="235" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C56" s="461" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D56" s="237">
         <v>138440.76</v>
@@ -32387,21 +32764,21 @@
         <v>138440.76</v>
       </c>
       <c r="I56" s="239"/>
-      <c r="J56" s="546"/>
+      <c r="J56" s="544"/>
       <c r="K56" s="101"/>
       <c r="L56" s="250"/>
       <c r="M56" s="84"/>
       <c r="N56" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="235" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C57" s="461" t="s">
         <v>1009</v>
-      </c>
-      <c r="C57" s="461" t="s">
-        <v>1011</v>
       </c>
       <c r="D57" s="237">
         <v>0</v>
@@ -32413,21 +32790,21 @@
         <v>0</v>
       </c>
       <c r="I57" s="239"/>
-      <c r="J57" s="546"/>
+      <c r="J57" s="544"/>
       <c r="K57" s="101"/>
       <c r="L57" s="250"/>
       <c r="M57" s="84"/>
       <c r="N57" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="235" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C58" s="461" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D58" s="237">
         <v>2442</v>
@@ -32439,21 +32816,21 @@
         <v>2442</v>
       </c>
       <c r="I58" s="239"/>
-      <c r="J58" s="546"/>
+      <c r="J58" s="544"/>
       <c r="K58" s="101"/>
       <c r="L58" s="250"/>
       <c r="M58" s="84"/>
       <c r="N58" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="235" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C59" s="461" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D59" s="237">
         <v>2960.6</v>
@@ -32465,21 +32842,21 @@
         <v>2960.6</v>
       </c>
       <c r="I59" s="239"/>
-      <c r="J59" s="546"/>
+      <c r="J59" s="544"/>
       <c r="K59" s="101"/>
       <c r="L59" s="250"/>
       <c r="M59" s="84"/>
       <c r="N59" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="235" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C60" s="461" t="s">
         <v>1013</v>
-      </c>
-      <c r="C60" s="461" t="s">
-        <v>1015</v>
       </c>
       <c r="D60" s="237">
         <v>0</v>
@@ -32491,21 +32868,21 @@
         <v>0</v>
       </c>
       <c r="I60" s="239"/>
-      <c r="J60" s="546"/>
+      <c r="J60" s="544"/>
       <c r="K60" s="101"/>
       <c r="L60" s="250"/>
       <c r="M60" s="84"/>
       <c r="N60" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="235" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C61" s="461" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D61" s="237">
         <v>79545.600000000006</v>
@@ -32517,21 +32894,21 @@
         <v>79545.600000000006</v>
       </c>
       <c r="I61" s="239"/>
-      <c r="J61" s="546"/>
+      <c r="J61" s="544"/>
       <c r="K61" s="101"/>
       <c r="L61" s="250"/>
       <c r="M61" s="84"/>
       <c r="N61" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="235" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C62" s="461" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D62" s="237">
         <v>1835.2</v>
@@ -32543,21 +32920,21 @@
         <v>1835.2</v>
       </c>
       <c r="I62" s="239"/>
-      <c r="J62" s="546"/>
+      <c r="J62" s="544"/>
       <c r="K62" s="101"/>
       <c r="L62" s="250"/>
       <c r="M62" s="84"/>
       <c r="N62" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="235" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C63" s="461" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D63" s="237">
         <v>1813</v>
@@ -32569,21 +32946,21 @@
         <v>1813</v>
       </c>
       <c r="I63" s="239"/>
-      <c r="J63" s="546"/>
+      <c r="J63" s="544"/>
       <c r="K63" s="101"/>
       <c r="L63" s="250"/>
       <c r="M63" s="84"/>
       <c r="N63" s="227">
         <f t="shared" si="1"/>
-        <v>226585.60000000003</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="235" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C64" s="461" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D64" s="237">
         <v>25349.7</v>
@@ -32595,8 +32972,8 @@
         <v>25349.7</v>
       </c>
       <c r="I64" s="253"/>
-      <c r="J64" s="548"/>
-      <c r="K64" s="556">
+      <c r="J64" s="546"/>
+      <c r="K64" s="554">
         <v>0</v>
       </c>
       <c r="L64" s="255"/>
@@ -32605,11 +32982,11 @@
     </row>
     <row r="65" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B65" s="235" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C65" s="461" t="s">
         <v>1020</v>
       </c>
-      <c r="C65" s="461" t="s">
-        <v>1022</v>
-      </c>
       <c r="D65" s="237">
         <v>0</v>
       </c>
@@ -32617,18 +32994,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="642" t="s">
+      <c r="I65" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="643"/>
-      <c r="K65" s="562">
+      <c r="J65" s="641"/>
+      <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
       </c>
       <c r="L65" s="265"/>
       <c r="M65" s="266">
         <f>SUM(M3:M64)</f>
-        <v>0</v>
+        <v>223518.60000000003</v>
       </c>
       <c r="N65" s="263">
         <f>N64</f>
@@ -32637,10 +33014,10 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="235" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C66" s="461" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D66" s="237">
         <v>0</v>
@@ -32649,19 +33026,19 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="651"/>
-      <c r="J66" s="652"/>
+      <c r="I66" s="649"/>
+      <c r="J66" s="650"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="565">
+      <c r="B67" s="563">
         <v>45170</v>
       </c>
-      <c r="C67" s="564" t="s">
-        <v>1033</v>
+      <c r="C67" s="562" t="s">
+        <v>1031</v>
       </c>
       <c r="D67" s="150">
         <v>6732.16</v>
@@ -32671,18 +33048,18 @@
         <v>6732.16</v>
       </c>
       <c r="I67" s="293"/>
-      <c r="J67" s="549"/>
-      <c r="K67" s="557"/>
+      <c r="J67" s="547"/>
+      <c r="K67" s="555"/>
       <c r="L67" s="296"/>
       <c r="M67" s="187"/>
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="566">
+      <c r="B68" s="564">
         <v>45171</v>
       </c>
-      <c r="C68" s="563" t="s">
-        <v>1034</v>
+      <c r="C68" s="561" t="s">
+        <v>1032</v>
       </c>
       <c r="D68" s="108">
         <v>11182.4</v>
@@ -32693,8 +33070,8 @@
         <v>11182.4</v>
       </c>
       <c r="I68" s="300"/>
-      <c r="J68" s="550"/>
-      <c r="K68" s="558"/>
+      <c r="J68" s="548"/>
+      <c r="K68" s="556"/>
       <c r="L68" s="302"/>
       <c r="M68" s="299"/>
     </row>
@@ -32716,8 +33093,8 @@
       </c>
       <c r="H69" s="233"/>
       <c r="I69" s="300"/>
-      <c r="J69" s="550"/>
-      <c r="K69" s="558"/>
+      <c r="J69" s="548"/>
+      <c r="K69" s="556"/>
       <c r="L69" s="302"/>
       <c r="M69" s="299"/>
     </row>
@@ -32726,13 +33103,13 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="646" t="s">
+      <c r="G70" s="644" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
       <c r="I70" s="303"/>
-      <c r="J70" s="551"/>
-      <c r="K70" s="558"/>
+      <c r="J70" s="549"/>
+      <c r="K70" s="556"/>
       <c r="L70" s="304"/>
       <c r="M70" s="299"/>
       <c r="N70"/>
@@ -32742,11 +33119,11 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="647"/>
+      <c r="G71" s="645"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
-      <c r="J71" s="552"/>
-      <c r="K71" s="558"/>
+      <c r="J71" s="550"/>
+      <c r="K71" s="556"/>
       <c r="L71" s="304"/>
       <c r="M71" s="299"/>
       <c r="N71"/>
@@ -32758,7 +33135,7 @@
       <c r="F72"/>
       <c r="H72" s="233"/>
       <c r="I72" s="191"/>
-      <c r="J72" s="552"/>
+      <c r="J72" s="550"/>
       <c r="K72" s="108"/>
       <c r="L72" s="304"/>
       <c r="M72" s="299"/>
@@ -32770,7 +33147,7 @@
       <c r="E73" s="276"/>
       <c r="H73" s="233"/>
       <c r="I73" s="191"/>
-      <c r="J73" s="551"/>
+      <c r="J73" s="549"/>
       <c r="K73" s="108"/>
       <c r="L73" s="304"/>
       <c r="M73" s="299"/>
@@ -32782,7 +33159,7 @@
       <c r="E74" s="276"/>
       <c r="H74" s="233"/>
       <c r="I74" s="188"/>
-      <c r="J74" s="551"/>
+      <c r="J74" s="549"/>
       <c r="K74" s="108"/>
       <c r="L74" s="304"/>
       <c r="M74" s="299"/>
@@ -32793,7 +33170,7 @@
       <c r="D75" s="108"/>
       <c r="E75" s="276"/>
       <c r="I75" s="188"/>
-      <c r="J75" s="551"/>
+      <c r="J75" s="549"/>
       <c r="K75" s="108"/>
       <c r="L75" s="493"/>
       <c r="M75" s="299"/>
@@ -32804,7 +33181,7 @@
       <c r="D76" s="108"/>
       <c r="E76" s="276"/>
       <c r="I76" s="188"/>
-      <c r="J76" s="551"/>
+      <c r="J76" s="549"/>
       <c r="K76" s="108"/>
       <c r="L76" s="302"/>
       <c r="M76" s="299"/>
@@ -32815,7 +33192,7 @@
       <c r="D77" s="108"/>
       <c r="E77" s="276"/>
       <c r="I77" s="188"/>
-      <c r="J77" s="551"/>
+      <c r="J77" s="549"/>
       <c r="K77" s="108"/>
       <c r="L77" s="302"/>
       <c r="M77" s="299"/>
@@ -32826,8 +33203,8 @@
       <c r="D78" s="108"/>
       <c r="E78" s="276"/>
       <c r="I78" s="188"/>
-      <c r="J78" s="551"/>
-      <c r="K78" s="559"/>
+      <c r="J78" s="549"/>
+      <c r="K78" s="557"/>
       <c r="L78" s="302"/>
       <c r="M78"/>
       <c r="N78"/>
@@ -32837,8 +33214,8 @@
       <c r="D79" s="108"/>
       <c r="E79" s="276"/>
       <c r="I79"/>
-      <c r="J79" s="553"/>
-      <c r="K79" s="560"/>
+      <c r="J79" s="551"/>
+      <c r="K79" s="558"/>
       <c r="M79"/>
       <c r="N79"/>
     </row>
@@ -32847,8 +33224,8 @@
       <c r="D80" s="108"/>
       <c r="E80" s="276"/>
       <c r="I80"/>
-      <c r="J80" s="553"/>
-      <c r="K80" s="560"/>
+      <c r="J80" s="551"/>
+      <c r="K80" s="558"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
@@ -32857,8 +33234,8 @@
       <c r="D81" s="108"/>
       <c r="E81" s="276"/>
       <c r="I81"/>
-      <c r="J81" s="553"/>
-      <c r="K81" s="560"/>
+      <c r="J81" s="551"/>
+      <c r="K81" s="558"/>
       <c r="M81"/>
       <c r="N81"/>
     </row>
@@ -32867,8 +33244,8 @@
       <c r="D82" s="108"/>
       <c r="E82" s="276"/>
       <c r="I82"/>
-      <c r="J82" s="553"/>
-      <c r="K82" s="560"/>
+      <c r="J82" s="551"/>
+      <c r="K82" s="558"/>
       <c r="M82"/>
       <c r="N82"/>
     </row>
@@ -32877,8 +33254,8 @@
       <c r="D83" s="108"/>
       <c r="E83" s="276"/>
       <c r="I83"/>
-      <c r="J83" s="553"/>
-      <c r="K83" s="560"/>
+      <c r="J83" s="551"/>
+      <c r="K83" s="558"/>
       <c r="M83"/>
       <c r="N83"/>
     </row>
@@ -32887,8 +33264,8 @@
       <c r="D84" s="108"/>
       <c r="E84" s="276"/>
       <c r="I84"/>
-      <c r="J84" s="553"/>
-      <c r="K84" s="560"/>
+      <c r="J84" s="551"/>
+      <c r="K84" s="558"/>
       <c r="M84"/>
       <c r="N84"/>
     </row>
@@ -32897,8 +33274,8 @@
       <c r="D85" s="108"/>
       <c r="E85" s="276"/>
       <c r="I85"/>
-      <c r="J85" s="553"/>
-      <c r="K85" s="560"/>
+      <c r="J85" s="551"/>
+      <c r="K85" s="558"/>
       <c r="M85"/>
       <c r="N85"/>
     </row>
@@ -32907,8 +33284,8 @@
       <c r="D86" s="108"/>
       <c r="E86" s="276"/>
       <c r="I86"/>
-      <c r="J86" s="553"/>
-      <c r="K86" s="560"/>
+      <c r="J86" s="551"/>
+      <c r="K86" s="558"/>
       <c r="M86"/>
       <c r="N86"/>
     </row>
@@ -32917,8 +33294,8 @@
       <c r="D87" s="108"/>
       <c r="E87" s="276"/>
       <c r="I87"/>
-      <c r="J87" s="553"/>
-      <c r="K87" s="560"/>
+      <c r="J87" s="551"/>
+      <c r="K87" s="558"/>
       <c r="M87"/>
       <c r="N87"/>
     </row>
@@ -32927,8 +33304,8 @@
       <c r="D88" s="108"/>
       <c r="E88" s="276"/>
       <c r="I88"/>
-      <c r="J88" s="553"/>
-      <c r="K88" s="560"/>
+      <c r="J88" s="551"/>
+      <c r="K88" s="558"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
@@ -32937,8 +33314,8 @@
       <c r="D89" s="108"/>
       <c r="E89" s="276"/>
       <c r="I89"/>
-      <c r="J89" s="553"/>
-      <c r="K89" s="560"/>
+      <c r="J89" s="551"/>
+      <c r="K89" s="558"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
@@ -32947,8 +33324,8 @@
       <c r="D90" s="108"/>
       <c r="E90" s="276"/>
       <c r="I90"/>
-      <c r="J90" s="553"/>
-      <c r="K90" s="560"/>
+      <c r="J90" s="551"/>
+      <c r="K90" s="558"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
@@ -32957,8 +33334,8 @@
       <c r="D91" s="108"/>
       <c r="E91" s="276"/>
       <c r="I91"/>
-      <c r="J91" s="553"/>
-      <c r="K91" s="560"/>
+      <c r="J91" s="551"/>
+      <c r="K91" s="558"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
@@ -32967,8 +33344,8 @@
       <c r="D92" s="108"/>
       <c r="E92" s="276"/>
       <c r="I92"/>
-      <c r="J92" s="553"/>
-      <c r="K92" s="560"/>
+      <c r="J92" s="551"/>
+      <c r="K92" s="558"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
@@ -32977,8 +33354,8 @@
       <c r="D93" s="108"/>
       <c r="E93" s="276"/>
       <c r="I93"/>
-      <c r="J93" s="553"/>
-      <c r="K93" s="560"/>
+      <c r="J93" s="551"/>
+      <c r="K93" s="558"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
@@ -32987,8 +33364,8 @@
       <c r="D94" s="108"/>
       <c r="E94" s="276"/>
       <c r="I94"/>
-      <c r="J94" s="553"/>
-      <c r="K94" s="560"/>
+      <c r="J94" s="551"/>
+      <c r="K94" s="558"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
@@ -32997,8 +33374,8 @@
       <c r="D95" s="189"/>
       <c r="E95" s="276"/>
       <c r="I95"/>
-      <c r="J95" s="553"/>
-      <c r="K95" s="560"/>
+      <c r="J95" s="551"/>
+      <c r="K95" s="558"/>
       <c r="M95"/>
       <c r="N95"/>
     </row>
@@ -33007,8 +33384,8 @@
       <c r="D96" s="189"/>
       <c r="E96" s="276"/>
       <c r="I96"/>
-      <c r="J96" s="553"/>
-      <c r="K96" s="560"/>
+      <c r="J96" s="551"/>
+      <c r="K96" s="558"/>
       <c r="M96"/>
       <c r="N96"/>
     </row>
@@ -33017,8 +33394,8 @@
       <c r="D97" s="189"/>
       <c r="E97" s="276"/>
       <c r="I97"/>
-      <c r="J97" s="553"/>
-      <c r="K97" s="560"/>
+      <c r="J97" s="551"/>
+      <c r="K97" s="558"/>
       <c r="M97"/>
       <c r="N97"/>
     </row>
@@ -33027,8 +33404,8 @@
       <c r="D98" s="189"/>
       <c r="E98" s="276"/>
       <c r="I98"/>
-      <c r="J98" s="553"/>
-      <c r="K98" s="560"/>
+      <c r="J98" s="551"/>
+      <c r="K98" s="558"/>
       <c r="M98"/>
       <c r="N98"/>
     </row>
@@ -33037,8 +33414,8 @@
       <c r="D99" s="189"/>
       <c r="E99" s="276"/>
       <c r="I99"/>
-      <c r="J99" s="553"/>
-      <c r="K99" s="560"/>
+      <c r="J99" s="551"/>
+      <c r="K99" s="558"/>
       <c r="M99"/>
       <c r="N99"/>
     </row>
@@ -33046,8 +33423,8 @@
       <c r="C100" s="271"/>
       <c r="E100" s="276"/>
       <c r="I100"/>
-      <c r="J100" s="553"/>
-      <c r="K100" s="560"/>
+      <c r="J100" s="551"/>
+      <c r="K100" s="558"/>
       <c r="M100"/>
       <c r="N100"/>
     </row>
@@ -33055,8 +33432,8 @@
       <c r="C101" s="271"/>
       <c r="E101" s="276"/>
       <c r="I101"/>
-      <c r="J101" s="553"/>
-      <c r="K101" s="560"/>
+      <c r="J101" s="551"/>
+      <c r="K101" s="558"/>
       <c r="M101"/>
       <c r="N101"/>
     </row>
@@ -33064,8 +33441,8 @@
       <c r="C102" s="271"/>
       <c r="E102" s="276"/>
       <c r="I102"/>
-      <c r="J102" s="553"/>
-      <c r="K102" s="560"/>
+      <c r="J102" s="551"/>
+      <c r="K102" s="558"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
@@ -33073,8 +33450,8 @@
       <c r="C103" s="271"/>
       <c r="E103" s="276"/>
       <c r="I103"/>
-      <c r="J103" s="553"/>
-      <c r="K103" s="560"/>
+      <c r="J103" s="551"/>
+      <c r="K103" s="558"/>
       <c r="M103"/>
       <c r="N103"/>
     </row>
@@ -33082,8 +33459,8 @@
       <c r="C104" s="271"/>
       <c r="E104" s="276"/>
       <c r="I104"/>
-      <c r="J104" s="553"/>
-      <c r="K104" s="560"/>
+      <c r="J104" s="551"/>
+      <c r="K104" s="558"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
@@ -33091,8 +33468,8 @@
       <c r="C105" s="271"/>
       <c r="E105" s="276"/>
       <c r="I105"/>
-      <c r="J105" s="553"/>
-      <c r="K105" s="560"/>
+      <c r="J105" s="551"/>
+      <c r="K105" s="558"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
@@ -33100,8 +33477,8 @@
       <c r="C106" s="271"/>
       <c r="E106" s="276"/>
       <c r="I106"/>
-      <c r="J106" s="553"/>
-      <c r="K106" s="560"/>
+      <c r="J106" s="551"/>
+      <c r="K106" s="558"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
@@ -33109,8 +33486,8 @@
       <c r="C107" s="271"/>
       <c r="E107" s="276"/>
       <c r="I107"/>
-      <c r="J107" s="553"/>
-      <c r="K107" s="560"/>
+      <c r="J107" s="551"/>
+      <c r="K107" s="558"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
@@ -33118,8 +33495,8 @@
       <c r="C108" s="271"/>
       <c r="E108" s="276"/>
       <c r="I108"/>
-      <c r="J108" s="553"/>
-      <c r="K108" s="560"/>
+      <c r="J108" s="551"/>
+      <c r="K108" s="558"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
@@ -33127,8 +33504,8 @@
       <c r="C109" s="271"/>
       <c r="E109" s="276"/>
       <c r="I109"/>
-      <c r="J109" s="553"/>
-      <c r="K109" s="560"/>
+      <c r="J109" s="551"/>
+      <c r="K109" s="558"/>
       <c r="M109"/>
       <c r="N109"/>
     </row>
@@ -33136,8 +33513,8 @@
       <c r="C110" s="271"/>
       <c r="E110" s="276"/>
       <c r="I110"/>
-      <c r="J110" s="553"/>
-      <c r="K110" s="560"/>
+      <c r="J110" s="551"/>
+      <c r="K110" s="558"/>
       <c r="M110"/>
       <c r="N110"/>
     </row>
@@ -33145,8 +33522,8 @@
       <c r="C111" s="271"/>
       <c r="E111" s="276"/>
       <c r="I111"/>
-      <c r="J111" s="553"/>
-      <c r="K111" s="560"/>
+      <c r="J111" s="551"/>
+      <c r="K111" s="558"/>
       <c r="M111"/>
       <c r="N111"/>
     </row>
@@ -33154,8 +33531,8 @@
       <c r="C112" s="271"/>
       <c r="E112" s="276"/>
       <c r="I112"/>
-      <c r="J112" s="553"/>
-      <c r="K112" s="560"/>
+      <c r="J112" s="551"/>
+      <c r="K112" s="558"/>
       <c r="M112"/>
       <c r="N112"/>
     </row>
@@ -33163,8 +33540,8 @@
       <c r="C113" s="271"/>
       <c r="E113" s="276"/>
       <c r="I113"/>
-      <c r="J113" s="553"/>
-      <c r="K113" s="560"/>
+      <c r="J113" s="551"/>
+      <c r="K113" s="558"/>
       <c r="M113"/>
       <c r="N113"/>
     </row>
@@ -33172,8 +33549,8 @@
       <c r="C114" s="271"/>
       <c r="E114" s="276"/>
       <c r="I114"/>
-      <c r="J114" s="553"/>
-      <c r="K114" s="560"/>
+      <c r="J114" s="551"/>
+      <c r="K114" s="558"/>
       <c r="M114"/>
       <c r="N114"/>
     </row>
@@ -33181,8 +33558,8 @@
       <c r="C115" s="271"/>
       <c r="E115" s="276"/>
       <c r="I115"/>
-      <c r="J115" s="553"/>
-      <c r="K115" s="560"/>
+      <c r="J115" s="551"/>
+      <c r="K115" s="558"/>
       <c r="M115"/>
       <c r="N115"/>
     </row>
@@ -33190,8 +33567,8 @@
       <c r="C116" s="271"/>
       <c r="E116" s="276"/>
       <c r="I116"/>
-      <c r="J116" s="553"/>
-      <c r="K116" s="560"/>
+      <c r="J116" s="551"/>
+      <c r="K116" s="558"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
@@ -33199,8 +33576,8 @@
       <c r="C117" s="271"/>
       <c r="E117" s="276"/>
       <c r="I117"/>
-      <c r="J117" s="553"/>
-      <c r="K117" s="560"/>
+      <c r="J117" s="551"/>
+      <c r="K117" s="558"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
@@ -33208,8 +33585,8 @@
       <c r="C118" s="271"/>
       <c r="E118" s="276"/>
       <c r="I118"/>
-      <c r="J118" s="553"/>
-      <c r="K118" s="560"/>
+      <c r="J118" s="551"/>
+      <c r="K118" s="558"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
@@ -33217,8 +33594,8 @@
       <c r="C119" s="271"/>
       <c r="E119" s="276"/>
       <c r="I119"/>
-      <c r="J119" s="553"/>
-      <c r="K119" s="560"/>
+      <c r="J119" s="551"/>
+      <c r="K119" s="558"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -33226,8 +33603,8 @@
       <c r="C120" s="271"/>
       <c r="E120" s="276"/>
       <c r="I120"/>
-      <c r="J120" s="553"/>
-      <c r="K120" s="560"/>
+      <c r="J120" s="551"/>
+      <c r="K120" s="558"/>
       <c r="M120"/>
       <c r="N120"/>
     </row>
@@ -33235,8 +33612,8 @@
       <c r="C121" s="271"/>
       <c r="E121" s="276"/>
       <c r="I121"/>
-      <c r="J121" s="553"/>
-      <c r="K121" s="560"/>
+      <c r="J121" s="551"/>
+      <c r="K121" s="558"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
@@ -33258,10 +33635,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33287,23 +33664,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33313,25 +33690,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33346,14 +33723,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33363,11 +33740,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -33376,117 +33753,158 @@
       <c r="B5" s="32">
         <v>45172</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="C5" s="33">
+        <v>7138</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>1103</v>
+      </c>
       <c r="E5" s="35">
         <v>45172</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="36">
+        <v>181650</v>
+      </c>
       <c r="G5" s="37"/>
       <c r="H5" s="38">
         <v>45172</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="39">
+        <v>7050</v>
+      </c>
       <c r="J5" s="40"/>
       <c r="K5" s="532"/>
       <c r="L5" s="13"/>
       <c r="M5" s="42">
-        <v>0</v>
+        <f>120284+985</f>
+        <v>121269</v>
       </c>
       <c r="N5" s="43">
-        <v>0</v>
+        <v>46194</v>
       </c>
       <c r="P5" s="44">
         <f t="shared" ref="P5:P41" si="0">N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>181651</v>
       </c>
       <c r="Q5" s="45">
         <f>P5-F5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="390">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="504" t="s">
         <v>651</v>
       </c>
       <c r="B6" s="32">
         <v>45173</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="33">
+        <v>37120</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1106</v>
+      </c>
       <c r="E6" s="35">
         <v>45173</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="F6" s="36">
+        <v>143594</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>10</v>
+      </c>
       <c r="H6" s="38">
         <v>45173</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="39">
+        <v>2967.5</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="65"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="42">
-        <v>0</v>
+      <c r="M6" s="663">
+        <v>2641</v>
       </c>
       <c r="N6" s="43">
-        <v>0</v>
+        <v>57667</v>
+      </c>
+      <c r="O6" s="659" t="s">
+        <v>1107</v>
       </c>
       <c r="P6" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="R6" s="46">
-        <v>0</v>
+        <v>100395.5</v>
+      </c>
+      <c r="Q6" s="664">
+        <f>P6-F6-21904</f>
+        <v>-65102.5</v>
+      </c>
+      <c r="R6" s="282">
+        <v>21904</v>
       </c>
       <c r="S6" s="535"/>
       <c r="T6" s="233"/>
       <c r="U6" s="233"/>
       <c r="V6" s="233"/>
     </row>
-    <row r="7" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="504" t="s">
         <v>652</v>
       </c>
       <c r="B7" s="32">
         <v>45174</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="33">
+        <v>34645</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>1112</v>
+      </c>
       <c r="E7" s="35">
         <v>45174</v>
       </c>
-      <c r="F7" s="36"/>
+      <c r="F7" s="36">
+        <v>141635</v>
+      </c>
       <c r="G7" s="37"/>
       <c r="H7" s="38">
         <v>45174</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="49"/>
+      <c r="I7" s="39">
+        <v>3148</v>
+      </c>
+      <c r="J7" s="40">
+        <v>45174</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="49">
+        <v>10264</v>
+      </c>
       <c r="M7" s="42">
-        <v>0</v>
+        <f>9588</f>
+        <v>9588</v>
       </c>
       <c r="N7" s="43">
-        <v>0</v>
+        <v>53307</v>
+      </c>
+      <c r="O7" s="659" t="s">
+        <v>1113</v>
       </c>
       <c r="P7" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="45">
-        <f t="shared" ref="Q7:Q47" si="1">P7-F7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="46">
-        <v>0</v>
+        <v>110952</v>
+      </c>
+      <c r="Q7" s="664">
+        <f>P7-F7-4827</f>
+        <v>-35510</v>
+      </c>
+      <c r="R7" s="282">
+        <v>4827</v>
       </c>
       <c r="S7" s="233"/>
       <c r="T7" s="233"/>
@@ -33500,35 +33918,45 @@
       <c r="B8" s="32">
         <v>45175</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="33">
+        <v>10631</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>431</v>
+      </c>
       <c r="E8" s="35">
         <v>45175</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="36">
+        <v>180179</v>
+      </c>
       <c r="G8" s="37"/>
       <c r="H8" s="38">
         <v>45175</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="39">
+        <v>2159</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="342"/>
       <c r="L8" s="49"/>
       <c r="M8" s="42">
-        <v>0</v>
+        <f>120000+612+1124+4726+6600+67442</f>
+        <v>200504</v>
       </c>
       <c r="N8" s="43">
-        <v>0</v>
+        <v>77330</v>
       </c>
       <c r="P8" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="45">
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
-        <v>0</v>
+        <v>290624</v>
+      </c>
+      <c r="Q8" s="665">
+        <f>P8-F8-9833</f>
+        <v>100612</v>
+      </c>
+      <c r="R8" s="282">
+        <v>9833</v>
       </c>
       <c r="S8" s="233"/>
       <c r="T8" s="233"/>
@@ -33567,6 +33995,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="45">
+        <f t="shared" ref="Q6:Q16" si="1">P9-F9</f>
         <v>0</v>
       </c>
       <c r="R9" s="46">
@@ -33916,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q7:Q47" si="2">P17-F17</f>
         <v>0</v>
       </c>
       <c r="R17" s="46">
@@ -33959,7 +34388,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18" s="46">
@@ -34003,7 +34432,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="46">
@@ -34046,7 +34475,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R20" s="46">
@@ -34089,7 +34518,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="46">
@@ -34129,7 +34558,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R22" s="46">
@@ -34169,7 +34598,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="46">
@@ -34209,7 +34638,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R24" s="46">
@@ -34249,7 +34678,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="46" t="s">
@@ -34292,7 +34721,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="46">
@@ -34334,7 +34763,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="46">
@@ -34374,7 +34803,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R28" s="46">
@@ -34414,7 +34843,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="46">
@@ -34454,7 +34883,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="46">
@@ -34494,7 +34923,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R31" s="46">
@@ -34529,7 +34958,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R32" s="46">
@@ -34560,7 +34989,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R33" s="46">
@@ -34591,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R34" s="46">
@@ -34610,7 +35039,7 @@
         <v>21963.3</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="36"/>
@@ -34637,7 +35066,7 @@
         <v>36463.300000000003</v>
       </c>
       <c r="Q35" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36463.300000000003</v>
       </c>
       <c r="R35" s="46">
@@ -34653,7 +35082,7 @@
         <v>67950</v>
       </c>
       <c r="D36" s="94" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
@@ -34664,7 +35093,7 @@
         <v>45175</v>
       </c>
       <c r="K36" s="373" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="L36" s="369">
         <v>850</v>
@@ -34680,7 +35109,7 @@
         <v>68800</v>
       </c>
       <c r="Q36" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68800</v>
       </c>
       <c r="R36" s="46">
@@ -34696,7 +35125,7 @@
         <v>100000</v>
       </c>
       <c r="D37" s="94" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E37" s="35"/>
       <c r="F37" s="36"/>
@@ -34706,8 +35135,8 @@
       <c r="J37" s="370">
         <v>45175</v>
       </c>
-      <c r="K37" s="591" t="s">
-        <v>1087</v>
+      <c r="K37" s="589" t="s">
+        <v>1085</v>
       </c>
       <c r="L37" s="369">
         <v>7189.18</v>
@@ -34723,7 +35152,7 @@
         <v>107189.18</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107189.18</v>
       </c>
       <c r="R37" s="46">
@@ -34739,7 +35168,7 @@
         <v>12424</v>
       </c>
       <c r="D38" s="94" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E38" s="35"/>
       <c r="F38" s="36"/>
@@ -34749,8 +35178,8 @@
       <c r="J38" s="370">
         <v>45176</v>
       </c>
-      <c r="K38" s="592" t="s">
-        <v>1088</v>
+      <c r="K38" s="590" t="s">
+        <v>1086</v>
       </c>
       <c r="L38" s="369">
         <v>4908.49</v>
@@ -34766,7 +35195,7 @@
         <v>17332.489999999998</v>
       </c>
       <c r="Q38" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17332.489999999998</v>
       </c>
       <c r="R38" s="46">
@@ -34782,7 +35211,7 @@
         <v>117470.55</v>
       </c>
       <c r="D39" s="94" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="97"/>
@@ -34792,8 +35221,8 @@
       <c r="J39" s="370">
         <v>45180</v>
       </c>
-      <c r="K39" s="592" t="s">
-        <v>1090</v>
+      <c r="K39" s="590" t="s">
+        <v>1088</v>
       </c>
       <c r="L39" s="369">
         <v>12062.52</v>
@@ -34809,7 +35238,7 @@
         <v>129533.07</v>
       </c>
       <c r="Q39" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129533.07</v>
       </c>
       <c r="R39" s="46">
@@ -34825,7 +35254,7 @@
         <v>37120</v>
       </c>
       <c r="D40" s="94" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="97"/>
@@ -34835,8 +35264,8 @@
       <c r="J40" s="370">
         <v>45182</v>
       </c>
-      <c r="K40" s="592" t="s">
-        <v>1094</v>
+      <c r="K40" s="590" t="s">
+        <v>1092</v>
       </c>
       <c r="L40" s="369">
         <v>25895.52</v>
@@ -34852,7 +35281,7 @@
         <v>63015.520000000004</v>
       </c>
       <c r="Q40" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63015.520000000004</v>
       </c>
       <c r="R40" s="46">
@@ -34868,7 +35297,7 @@
         <v>28000</v>
       </c>
       <c r="D41" s="102" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="97"/>
@@ -34878,8 +35307,8 @@
       <c r="J41" s="370">
         <v>45183</v>
       </c>
-      <c r="K41" s="593" t="s">
-        <v>1087</v>
+      <c r="K41" s="591" t="s">
+        <v>1085</v>
       </c>
       <c r="L41" s="369">
         <v>9973.0499999999993</v>
@@ -34890,13 +35319,13 @@
       <c r="N41" s="43">
         <v>0</v>
       </c>
-      <c r="O41" s="543"/>
+      <c r="O41" s="541"/>
       <c r="P41" s="69">
         <f t="shared" si="0"/>
         <v>37973.050000000003</v>
       </c>
       <c r="Q41" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37973.050000000003</v>
       </c>
       <c r="R41" s="46">
@@ -34912,7 +35341,7 @@
         <v>100000</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E42" s="35"/>
       <c r="F42" s="97"/>
@@ -34922,8 +35351,8 @@
       <c r="J42" s="367">
         <v>45187</v>
       </c>
-      <c r="K42" s="596" t="s">
-        <v>1098</v>
+      <c r="K42" s="594" t="s">
+        <v>1096</v>
       </c>
       <c r="L42" s="369">
         <v>2552</v>
@@ -34938,7 +35367,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R42" s="46">
@@ -34954,7 +35383,7 @@
         <v>16933.400000000001</v>
       </c>
       <c r="D43" s="474" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E43" s="35"/>
       <c r="F43" s="97"/>
@@ -34964,7 +35393,7 @@
       <c r="J43" s="370">
         <v>45187</v>
       </c>
-      <c r="K43" s="592" t="s">
+      <c r="K43" s="590" t="s">
         <v>225</v>
       </c>
       <c r="L43" s="369">
@@ -34980,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R43" s="46">
@@ -34996,7 +35425,7 @@
         <v>14543.6</v>
       </c>
       <c r="D44" s="102" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="97"/>
@@ -35006,8 +35435,8 @@
       <c r="J44" s="370">
         <v>45188</v>
       </c>
-      <c r="K44" s="594" t="s">
-        <v>1087</v>
+      <c r="K44" s="592" t="s">
+        <v>1085</v>
       </c>
       <c r="L44" s="369">
         <v>8488</v>
@@ -35022,7 +35451,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="46">
@@ -35038,7 +35467,7 @@
         <v>736805</v>
       </c>
       <c r="D45" s="114" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="97"/>
@@ -35048,7 +35477,7 @@
       <c r="J45" s="370">
         <v>45194</v>
       </c>
-      <c r="K45" s="592" t="s">
+      <c r="K45" s="590" t="s">
         <v>331</v>
       </c>
       <c r="L45" s="369">
@@ -35064,7 +35493,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R45" s="46">
@@ -35080,7 +35509,7 @@
         <v>146335.29999999999</v>
       </c>
       <c r="D46" s="114" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="97"/>
@@ -35090,7 +35519,7 @@
       <c r="J46" s="370">
         <v>45194</v>
       </c>
-      <c r="K46" s="592" t="s">
+      <c r="K46" s="590" t="s">
         <v>704</v>
       </c>
       <c r="L46" s="369">
@@ -35106,7 +35535,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R46" s="46">
@@ -35122,7 +35551,7 @@
         <v>150000</v>
       </c>
       <c r="D47" s="114" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="105"/>
@@ -35132,7 +35561,7 @@
       <c r="J47" s="370">
         <v>45196</v>
       </c>
-      <c r="K47" s="595" t="s">
+      <c r="K47" s="593" t="s">
         <v>228</v>
       </c>
       <c r="L47" s="369">
@@ -35148,7 +35577,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R47" s="46">
@@ -35163,7 +35592,7 @@
       <c r="C48" s="93">
         <v>3344.9</v>
       </c>
-      <c r="D48" s="590" t="s">
+      <c r="D48" s="588" t="s">
         <v>613</v>
       </c>
       <c r="E48" s="104"/>
@@ -35172,7 +35601,7 @@
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
       <c r="J48" s="370"/>
-      <c r="K48" s="595"/>
+      <c r="K48" s="593"/>
       <c r="L48" s="369"/>
       <c r="M48" s="107"/>
       <c r="N48" s="44"/>
@@ -35195,7 +35624,7 @@
         <v>11424</v>
       </c>
       <c r="D49" s="114" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E49" s="104"/>
       <c r="F49" s="110"/>
@@ -35205,21 +35634,21 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="619">
+        <v>334002</v>
+      </c>
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>234498</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>422333.56</v>
-      </c>
-      <c r="Q49" s="631">
+        <v>1105956.06</v>
+      </c>
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
-        <v>422333.56</v>
+        <v>422334.06</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -35234,7 +35663,7 @@
         <v>37120</v>
       </c>
       <c r="D50" s="114" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="110"/>
@@ -35244,13 +35673,13 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>0</v>
+        <v>36564</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35286,7 +35715,7 @@
         <v>28000</v>
       </c>
       <c r="D52" s="114" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="110"/>
@@ -35310,7 +35739,7 @@
         <v>100000</v>
       </c>
       <c r="D53" s="114" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="110"/>
@@ -35320,11 +35749,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="598"/>
+        <v>568500</v>
+      </c>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -35337,7 +35766,7 @@
         <v>123116.24</v>
       </c>
       <c r="D54" s="114" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="110"/>
@@ -35579,7 +36008,7 @@
       <c r="H67" s="106"/>
       <c r="I67" s="44"/>
       <c r="J67" s="133"/>
-      <c r="K67" s="570"/>
+      <c r="K67" s="568"/>
       <c r="L67" s="84"/>
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
@@ -35791,7 +36220,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5060798.8500000006</v>
+        <v>5150332.8500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -35799,7 +36228,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>0</v>
+        <v>647058</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -35807,7 +36236,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>0</v>
+        <v>15324.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -35815,7 +36244,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>102882.8</v>
+        <v>113146.8</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -35833,50 +36262,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="627" t="s">
+      <c r="H81" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="628"/>
+      <c r="I81" s="615"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="629">
+      <c r="K81" s="616">
         <f>I79+L79</f>
-        <v>102882.8</v>
-      </c>
-      <c r="L81" s="630"/>
+        <v>128471.3</v>
+      </c>
+      <c r="L81" s="617"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="621" t="s">
+      <c r="D82" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="621"/>
+      <c r="E82" s="608"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-5163681.6500000004</v>
+        <v>-4631746.1500000004</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="622" t="s">
+      <c r="D83" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="622"/>
+      <c r="E83" s="609"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="623" t="s">
+      <c r="I83" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="624"/>
-      <c r="K83" s="625">
+      <c r="J83" s="611"/>
+      <c r="K83" s="612">
         <f>F85+F86+F87</f>
-        <v>-5163681.6500000004</v>
-      </c>
-      <c r="L83" s="625"/>
+        <v>-4631746.1500000004</v>
+      </c>
+      <c r="L83" s="612"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -35910,18 +36339,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-5163681.6500000004</v>
+        <v>-4631746.1500000004</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="626">
+      <c r="K85" s="613">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="625"/>
+      <c r="L85" s="612"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -35937,22 +36366,22 @@
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="172"/>
-      <c r="D87" s="614" t="s">
+      <c r="D87" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="615"/>
+      <c r="E87" s="602"/>
       <c r="F87" s="173">
         <v>0</v>
       </c>
-      <c r="I87" s="616" t="s">
+      <c r="I87" s="603" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="617"/>
-      <c r="K87" s="618">
+      <c r="J87" s="604"/>
+      <c r="K87" s="605">
         <f>K83+K85</f>
-        <v>-8310142.3100000005</v>
-      </c>
-      <c r="L87" s="618"/>
+        <v>-7778206.8100000005</v>
+      </c>
+      <c r="L87" s="605"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36097,6 +36526,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="K87:L87"/>
@@ -36109,16 +36548,6 @@
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36133,7 +36562,7 @@
   </sheetPr>
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -36148,8 +36577,8 @@
     <col min="7" max="7" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="152" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="554" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="561" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="552" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="559" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="274" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -36169,8 +36598,8 @@
       <c r="I1" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="545"/>
-      <c r="K1" s="555"/>
+      <c r="J1" s="543"/>
+      <c r="K1" s="553"/>
       <c r="L1" s="202"/>
       <c r="M1" s="201"/>
       <c r="N1" s="203" t="s">
@@ -37102,7 +37531,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="406"/>
-      <c r="J46" s="546"/>
+      <c r="J46" s="544"/>
       <c r="K46" s="101"/>
       <c r="L46" s="238"/>
       <c r="M46" s="84"/>
@@ -37122,7 +37551,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="239"/>
-      <c r="J47" s="546"/>
+      <c r="J47" s="544"/>
       <c r="K47" s="101"/>
       <c r="L47" s="238"/>
       <c r="M47" s="84"/>
@@ -37142,7 +37571,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="251"/>
-      <c r="J48" s="547"/>
+      <c r="J48" s="545"/>
       <c r="K48" s="108"/>
       <c r="L48" s="177"/>
       <c r="M48" s="44"/>
@@ -37161,10 +37590,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="636" t="s">
+      <c r="I49" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="637"/>
+      <c r="J49" s="635"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -37183,8 +37612,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="638"/>
-      <c r="J50" s="639"/>
+      <c r="I50" s="636"/>
+      <c r="J50" s="637"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -37203,8 +37632,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="640"/>
-      <c r="J51" s="641"/>
+      <c r="I51" s="638"/>
+      <c r="J51" s="639"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -37224,7 +37653,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="251"/>
-      <c r="J52" s="547"/>
+      <c r="J52" s="545"/>
       <c r="K52" s="108"/>
       <c r="L52" s="177"/>
       <c r="M52" s="44"/>
@@ -37244,7 +37673,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="251"/>
-      <c r="J53" s="547"/>
+      <c r="J53" s="545"/>
       <c r="K53" s="108"/>
       <c r="L53" s="177"/>
       <c r="M53" s="44"/>
@@ -37264,7 +37693,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="239"/>
-      <c r="J54" s="546"/>
+      <c r="J54" s="544"/>
       <c r="K54" s="101"/>
       <c r="L54" s="250"/>
       <c r="M54" s="84"/>
@@ -37284,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="239"/>
-      <c r="J55" s="546"/>
+      <c r="J55" s="544"/>
       <c r="K55" s="101"/>
       <c r="L55" s="250"/>
       <c r="M55" s="84"/>
@@ -37304,7 +37733,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="239"/>
-      <c r="J56" s="546"/>
+      <c r="J56" s="544"/>
       <c r="K56" s="101"/>
       <c r="L56" s="250"/>
       <c r="M56" s="84"/>
@@ -37324,7 +37753,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="239"/>
-      <c r="J57" s="546"/>
+      <c r="J57" s="544"/>
       <c r="K57" s="101"/>
       <c r="L57" s="250"/>
       <c r="M57" s="84"/>
@@ -37344,7 +37773,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="239"/>
-      <c r="J58" s="546"/>
+      <c r="J58" s="544"/>
       <c r="K58" s="101"/>
       <c r="L58" s="250"/>
       <c r="M58" s="84"/>
@@ -37364,7 +37793,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="239"/>
-      <c r="J59" s="546"/>
+      <c r="J59" s="544"/>
       <c r="K59" s="101"/>
       <c r="L59" s="250"/>
       <c r="M59" s="84"/>
@@ -37384,7 +37813,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="239"/>
-      <c r="J60" s="546"/>
+      <c r="J60" s="544"/>
       <c r="K60" s="101"/>
       <c r="L60" s="250"/>
       <c r="M60" s="84"/>
@@ -37404,7 +37833,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="239"/>
-      <c r="J61" s="546"/>
+      <c r="J61" s="544"/>
       <c r="K61" s="101"/>
       <c r="L61" s="250"/>
       <c r="M61" s="84"/>
@@ -37424,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="239"/>
-      <c r="J62" s="546"/>
+      <c r="J62" s="544"/>
       <c r="K62" s="101"/>
       <c r="L62" s="250"/>
       <c r="M62" s="84"/>
@@ -37444,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="239"/>
-      <c r="J63" s="546"/>
+      <c r="J63" s="544"/>
       <c r="K63" s="101"/>
       <c r="L63" s="250"/>
       <c r="M63" s="84"/>
@@ -37464,8 +37893,8 @@
         <v>0</v>
       </c>
       <c r="I64" s="253"/>
-      <c r="J64" s="548"/>
-      <c r="K64" s="556">
+      <c r="J64" s="546"/>
+      <c r="K64" s="554">
         <v>0</v>
       </c>
       <c r="L64" s="255"/>
@@ -37480,11 +37909,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="642" t="s">
+      <c r="I65" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="643"/>
-      <c r="K65" s="562">
+      <c r="J65" s="641"/>
+      <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
       </c>
@@ -37506,31 +37935,31 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="651"/>
-      <c r="J66" s="652"/>
+      <c r="I66" s="649"/>
+      <c r="J66" s="650"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="565"/>
-      <c r="C67" s="564"/>
+      <c r="B67" s="563"/>
+      <c r="C67" s="562"/>
       <c r="D67" s="150"/>
       <c r="G67" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I67" s="293"/>
-      <c r="J67" s="549"/>
-      <c r="K67" s="557"/>
+      <c r="J67" s="547"/>
+      <c r="K67" s="555"/>
       <c r="L67" s="296"/>
       <c r="M67" s="187"/>
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="566"/>
-      <c r="C68" s="563"/>
+      <c r="B68" s="564"/>
+      <c r="C68" s="561"/>
       <c r="D68" s="108"/>
       <c r="F68"/>
       <c r="G68" s="101">
@@ -37538,8 +37967,8 @@
         <v>0</v>
       </c>
       <c r="I68" s="300"/>
-      <c r="J68" s="550"/>
-      <c r="K68" s="558"/>
+      <c r="J68" s="548"/>
+      <c r="K68" s="556"/>
       <c r="L68" s="302"/>
       <c r="M68" s="299"/>
     </row>
@@ -37561,8 +37990,8 @@
       </c>
       <c r="H69" s="233"/>
       <c r="I69" s="300"/>
-      <c r="J69" s="550"/>
-      <c r="K69" s="558"/>
+      <c r="J69" s="548"/>
+      <c r="K69" s="556"/>
       <c r="L69" s="302"/>
       <c r="M69" s="299"/>
     </row>
@@ -37571,13 +38000,13 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="646" t="s">
+      <c r="G70" s="644" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
       <c r="I70" s="303"/>
-      <c r="J70" s="551"/>
-      <c r="K70" s="558"/>
+      <c r="J70" s="549"/>
+      <c r="K70" s="556"/>
       <c r="L70" s="304"/>
       <c r="M70" s="299"/>
       <c r="N70"/>
@@ -37587,11 +38016,11 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="647"/>
+      <c r="G71" s="645"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
-      <c r="J71" s="552"/>
-      <c r="K71" s="558"/>
+      <c r="J71" s="550"/>
+      <c r="K71" s="556"/>
       <c r="L71" s="304"/>
       <c r="M71" s="299"/>
       <c r="N71"/>
@@ -37603,7 +38032,7 @@
       <c r="F72"/>
       <c r="H72" s="233"/>
       <c r="I72" s="191"/>
-      <c r="J72" s="552"/>
+      <c r="J72" s="550"/>
       <c r="K72" s="108"/>
       <c r="L72" s="304"/>
       <c r="M72" s="299"/>
@@ -37615,7 +38044,7 @@
       <c r="E73" s="276"/>
       <c r="H73" s="233"/>
       <c r="I73" s="191"/>
-      <c r="J73" s="551"/>
+      <c r="J73" s="549"/>
       <c r="K73" s="108"/>
       <c r="L73" s="304"/>
       <c r="M73" s="299"/>
@@ -37627,7 +38056,7 @@
       <c r="E74" s="276"/>
       <c r="H74" s="233"/>
       <c r="I74" s="188"/>
-      <c r="J74" s="551"/>
+      <c r="J74" s="549"/>
       <c r="K74" s="108"/>
       <c r="L74" s="304"/>
       <c r="M74" s="299"/>
@@ -37638,7 +38067,7 @@
       <c r="D75" s="108"/>
       <c r="E75" s="276"/>
       <c r="I75" s="188"/>
-      <c r="J75" s="551"/>
+      <c r="J75" s="549"/>
       <c r="K75" s="108"/>
       <c r="L75" s="493"/>
       <c r="M75" s="299"/>
@@ -37649,7 +38078,7 @@
       <c r="D76" s="108"/>
       <c r="E76" s="276"/>
       <c r="I76" s="188"/>
-      <c r="J76" s="551"/>
+      <c r="J76" s="549"/>
       <c r="K76" s="108"/>
       <c r="L76" s="302"/>
       <c r="M76" s="299"/>
@@ -37660,7 +38089,7 @@
       <c r="D77" s="108"/>
       <c r="E77" s="276"/>
       <c r="I77" s="188"/>
-      <c r="J77" s="551"/>
+      <c r="J77" s="549"/>
       <c r="K77" s="108"/>
       <c r="L77" s="302"/>
       <c r="M77" s="299"/>
@@ -37671,8 +38100,8 @@
       <c r="D78" s="108"/>
       <c r="E78" s="276"/>
       <c r="I78" s="188"/>
-      <c r="J78" s="551"/>
-      <c r="K78" s="559"/>
+      <c r="J78" s="549"/>
+      <c r="K78" s="557"/>
       <c r="L78" s="302"/>
       <c r="M78"/>
       <c r="N78"/>
@@ -37682,8 +38111,8 @@
       <c r="D79" s="108"/>
       <c r="E79" s="276"/>
       <c r="I79"/>
-      <c r="J79" s="553"/>
-      <c r="K79" s="560"/>
+      <c r="J79" s="551"/>
+      <c r="K79" s="558"/>
       <c r="M79"/>
       <c r="N79"/>
     </row>
@@ -37692,8 +38121,8 @@
       <c r="D80" s="108"/>
       <c r="E80" s="276"/>
       <c r="I80"/>
-      <c r="J80" s="553"/>
-      <c r="K80" s="560"/>
+      <c r="J80" s="551"/>
+      <c r="K80" s="558"/>
       <c r="M80"/>
       <c r="N80"/>
     </row>
@@ -37702,8 +38131,8 @@
       <c r="D81" s="108"/>
       <c r="E81" s="276"/>
       <c r="I81"/>
-      <c r="J81" s="553"/>
-      <c r="K81" s="560"/>
+      <c r="J81" s="551"/>
+      <c r="K81" s="558"/>
       <c r="M81"/>
       <c r="N81"/>
     </row>
@@ -37712,8 +38141,8 @@
       <c r="D82" s="108"/>
       <c r="E82" s="276"/>
       <c r="I82"/>
-      <c r="J82" s="553"/>
-      <c r="K82" s="560"/>
+      <c r="J82" s="551"/>
+      <c r="K82" s="558"/>
       <c r="M82"/>
       <c r="N82"/>
     </row>
@@ -37722,8 +38151,8 @@
       <c r="D83" s="108"/>
       <c r="E83" s="276"/>
       <c r="I83"/>
-      <c r="J83" s="553"/>
-      <c r="K83" s="560"/>
+      <c r="J83" s="551"/>
+      <c r="K83" s="558"/>
       <c r="M83"/>
       <c r="N83"/>
     </row>
@@ -37732,8 +38161,8 @@
       <c r="D84" s="108"/>
       <c r="E84" s="276"/>
       <c r="I84"/>
-      <c r="J84" s="553"/>
-      <c r="K84" s="560"/>
+      <c r="J84" s="551"/>
+      <c r="K84" s="558"/>
       <c r="M84"/>
       <c r="N84"/>
     </row>
@@ -37742,8 +38171,8 @@
       <c r="D85" s="108"/>
       <c r="E85" s="276"/>
       <c r="I85"/>
-      <c r="J85" s="553"/>
-      <c r="K85" s="560"/>
+      <c r="J85" s="551"/>
+      <c r="K85" s="558"/>
       <c r="M85"/>
       <c r="N85"/>
     </row>
@@ -37752,8 +38181,8 @@
       <c r="D86" s="108"/>
       <c r="E86" s="276"/>
       <c r="I86"/>
-      <c r="J86" s="553"/>
-      <c r="K86" s="560"/>
+      <c r="J86" s="551"/>
+      <c r="K86" s="558"/>
       <c r="M86"/>
       <c r="N86"/>
     </row>
@@ -37762,8 +38191,8 @@
       <c r="D87" s="108"/>
       <c r="E87" s="276"/>
       <c r="I87"/>
-      <c r="J87" s="553"/>
-      <c r="K87" s="560"/>
+      <c r="J87" s="551"/>
+      <c r="K87" s="558"/>
       <c r="M87"/>
       <c r="N87"/>
     </row>
@@ -37772,8 +38201,8 @@
       <c r="D88" s="108"/>
       <c r="E88" s="276"/>
       <c r="I88"/>
-      <c r="J88" s="553"/>
-      <c r="K88" s="560"/>
+      <c r="J88" s="551"/>
+      <c r="K88" s="558"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
@@ -37782,8 +38211,8 @@
       <c r="D89" s="108"/>
       <c r="E89" s="276"/>
       <c r="I89"/>
-      <c r="J89" s="553"/>
-      <c r="K89" s="560"/>
+      <c r="J89" s="551"/>
+      <c r="K89" s="558"/>
       <c r="M89"/>
       <c r="N89"/>
     </row>
@@ -37792,8 +38221,8 @@
       <c r="D90" s="108"/>
       <c r="E90" s="276"/>
       <c r="I90"/>
-      <c r="J90" s="553"/>
-      <c r="K90" s="560"/>
+      <c r="J90" s="551"/>
+      <c r="K90" s="558"/>
       <c r="M90"/>
       <c r="N90"/>
     </row>
@@ -37802,8 +38231,8 @@
       <c r="D91" s="108"/>
       <c r="E91" s="276"/>
       <c r="I91"/>
-      <c r="J91" s="553"/>
-      <c r="K91" s="560"/>
+      <c r="J91" s="551"/>
+      <c r="K91" s="558"/>
       <c r="M91"/>
       <c r="N91"/>
     </row>
@@ -37812,8 +38241,8 @@
       <c r="D92" s="108"/>
       <c r="E92" s="276"/>
       <c r="I92"/>
-      <c r="J92" s="553"/>
-      <c r="K92" s="560"/>
+      <c r="J92" s="551"/>
+      <c r="K92" s="558"/>
       <c r="M92"/>
       <c r="N92"/>
     </row>
@@ -37822,8 +38251,8 @@
       <c r="D93" s="108"/>
       <c r="E93" s="276"/>
       <c r="I93"/>
-      <c r="J93" s="553"/>
-      <c r="K93" s="560"/>
+      <c r="J93" s="551"/>
+      <c r="K93" s="558"/>
       <c r="M93"/>
       <c r="N93"/>
     </row>
@@ -37832,8 +38261,8 @@
       <c r="D94" s="108"/>
       <c r="E94" s="276"/>
       <c r="I94"/>
-      <c r="J94" s="553"/>
-      <c r="K94" s="560"/>
+      <c r="J94" s="551"/>
+      <c r="K94" s="558"/>
       <c r="M94"/>
       <c r="N94"/>
     </row>
@@ -37842,8 +38271,8 @@
       <c r="D95" s="189"/>
       <c r="E95" s="276"/>
       <c r="I95"/>
-      <c r="J95" s="553"/>
-      <c r="K95" s="560"/>
+      <c r="J95" s="551"/>
+      <c r="K95" s="558"/>
       <c r="M95"/>
       <c r="N95"/>
     </row>
@@ -37852,8 +38281,8 @@
       <c r="D96" s="189"/>
       <c r="E96" s="276"/>
       <c r="I96"/>
-      <c r="J96" s="553"/>
-      <c r="K96" s="560"/>
+      <c r="J96" s="551"/>
+      <c r="K96" s="558"/>
       <c r="M96"/>
       <c r="N96"/>
     </row>
@@ -37862,8 +38291,8 @@
       <c r="D97" s="189"/>
       <c r="E97" s="276"/>
       <c r="I97"/>
-      <c r="J97" s="553"/>
-      <c r="K97" s="560"/>
+      <c r="J97" s="551"/>
+      <c r="K97" s="558"/>
       <c r="M97"/>
       <c r="N97"/>
     </row>
@@ -37872,8 +38301,8 @@
       <c r="D98" s="189"/>
       <c r="E98" s="276"/>
       <c r="I98"/>
-      <c r="J98" s="553"/>
-      <c r="K98" s="560"/>
+      <c r="J98" s="551"/>
+      <c r="K98" s="558"/>
       <c r="M98"/>
       <c r="N98"/>
     </row>
@@ -37882,8 +38311,8 @@
       <c r="D99" s="189"/>
       <c r="E99" s="276"/>
       <c r="I99"/>
-      <c r="J99" s="553"/>
-      <c r="K99" s="560"/>
+      <c r="J99" s="551"/>
+      <c r="K99" s="558"/>
       <c r="M99"/>
       <c r="N99"/>
     </row>
@@ -37891,8 +38320,8 @@
       <c r="C100" s="271"/>
       <c r="E100" s="276"/>
       <c r="I100"/>
-      <c r="J100" s="553"/>
-      <c r="K100" s="560"/>
+      <c r="J100" s="551"/>
+      <c r="K100" s="558"/>
       <c r="M100"/>
       <c r="N100"/>
     </row>
@@ -37900,8 +38329,8 @@
       <c r="C101" s="271"/>
       <c r="E101" s="276"/>
       <c r="I101"/>
-      <c r="J101" s="553"/>
-      <c r="K101" s="560"/>
+      <c r="J101" s="551"/>
+      <c r="K101" s="558"/>
       <c r="M101"/>
       <c r="N101"/>
     </row>
@@ -37909,8 +38338,8 @@
       <c r="C102" s="271"/>
       <c r="E102" s="276"/>
       <c r="I102"/>
-      <c r="J102" s="553"/>
-      <c r="K102" s="560"/>
+      <c r="J102" s="551"/>
+      <c r="K102" s="558"/>
       <c r="M102"/>
       <c r="N102"/>
     </row>
@@ -37918,8 +38347,8 @@
       <c r="C103" s="271"/>
       <c r="E103" s="276"/>
       <c r="I103"/>
-      <c r="J103" s="553"/>
-      <c r="K103" s="560"/>
+      <c r="J103" s="551"/>
+      <c r="K103" s="558"/>
       <c r="M103"/>
       <c r="N103"/>
     </row>
@@ -37927,8 +38356,8 @@
       <c r="C104" s="271"/>
       <c r="E104" s="276"/>
       <c r="I104"/>
-      <c r="J104" s="553"/>
-      <c r="K104" s="560"/>
+      <c r="J104" s="551"/>
+      <c r="K104" s="558"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
@@ -37936,8 +38365,8 @@
       <c r="C105" s="271"/>
       <c r="E105" s="276"/>
       <c r="I105"/>
-      <c r="J105" s="553"/>
-      <c r="K105" s="560"/>
+      <c r="J105" s="551"/>
+      <c r="K105" s="558"/>
       <c r="M105"/>
       <c r="N105"/>
     </row>
@@ -37945,8 +38374,8 @@
       <c r="C106" s="271"/>
       <c r="E106" s="276"/>
       <c r="I106"/>
-      <c r="J106" s="553"/>
-      <c r="K106" s="560"/>
+      <c r="J106" s="551"/>
+      <c r="K106" s="558"/>
       <c r="M106"/>
       <c r="N106"/>
     </row>
@@ -37954,8 +38383,8 @@
       <c r="C107" s="271"/>
       <c r="E107" s="276"/>
       <c r="I107"/>
-      <c r="J107" s="553"/>
-      <c r="K107" s="560"/>
+      <c r="J107" s="551"/>
+      <c r="K107" s="558"/>
       <c r="M107"/>
       <c r="N107"/>
     </row>
@@ -37963,8 +38392,8 @@
       <c r="C108" s="271"/>
       <c r="E108" s="276"/>
       <c r="I108"/>
-      <c r="J108" s="553"/>
-      <c r="K108" s="560"/>
+      <c r="J108" s="551"/>
+      <c r="K108" s="558"/>
       <c r="M108"/>
       <c r="N108"/>
     </row>
@@ -37972,8 +38401,8 @@
       <c r="C109" s="271"/>
       <c r="E109" s="276"/>
       <c r="I109"/>
-      <c r="J109" s="553"/>
-      <c r="K109" s="560"/>
+      <c r="J109" s="551"/>
+      <c r="K109" s="558"/>
       <c r="M109"/>
       <c r="N109"/>
     </row>
@@ -37981,8 +38410,8 @@
       <c r="C110" s="271"/>
       <c r="E110" s="276"/>
       <c r="I110"/>
-      <c r="J110" s="553"/>
-      <c r="K110" s="560"/>
+      <c r="J110" s="551"/>
+      <c r="K110" s="558"/>
       <c r="M110"/>
       <c r="N110"/>
     </row>
@@ -37990,8 +38419,8 @@
       <c r="C111" s="271"/>
       <c r="E111" s="276"/>
       <c r="I111"/>
-      <c r="J111" s="553"/>
-      <c r="K111" s="560"/>
+      <c r="J111" s="551"/>
+      <c r="K111" s="558"/>
       <c r="M111"/>
       <c r="N111"/>
     </row>
@@ -37999,8 +38428,8 @@
       <c r="C112" s="271"/>
       <c r="E112" s="276"/>
       <c r="I112"/>
-      <c r="J112" s="553"/>
-      <c r="K112" s="560"/>
+      <c r="J112" s="551"/>
+      <c r="K112" s="558"/>
       <c r="M112"/>
       <c r="N112"/>
     </row>
@@ -38008,8 +38437,8 @@
       <c r="C113" s="271"/>
       <c r="E113" s="276"/>
       <c r="I113"/>
-      <c r="J113" s="553"/>
-      <c r="K113" s="560"/>
+      <c r="J113" s="551"/>
+      <c r="K113" s="558"/>
       <c r="M113"/>
       <c r="N113"/>
     </row>
@@ -38017,8 +38446,8 @@
       <c r="C114" s="271"/>
       <c r="E114" s="276"/>
       <c r="I114"/>
-      <c r="J114" s="553"/>
-      <c r="K114" s="560"/>
+      <c r="J114" s="551"/>
+      <c r="K114" s="558"/>
       <c r="M114"/>
       <c r="N114"/>
     </row>
@@ -38026,8 +38455,8 @@
       <c r="C115" s="271"/>
       <c r="E115" s="276"/>
       <c r="I115"/>
-      <c r="J115" s="553"/>
-      <c r="K115" s="560"/>
+      <c r="J115" s="551"/>
+      <c r="K115" s="558"/>
       <c r="M115"/>
       <c r="N115"/>
     </row>
@@ -38035,8 +38464,8 @@
       <c r="C116" s="271"/>
       <c r="E116" s="276"/>
       <c r="I116"/>
-      <c r="J116" s="553"/>
-      <c r="K116" s="560"/>
+      <c r="J116" s="551"/>
+      <c r="K116" s="558"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
@@ -38044,8 +38473,8 @@
       <c r="C117" s="271"/>
       <c r="E117" s="276"/>
       <c r="I117"/>
-      <c r="J117" s="553"/>
-      <c r="K117" s="560"/>
+      <c r="J117" s="551"/>
+      <c r="K117" s="558"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
@@ -38053,8 +38482,8 @@
       <c r="C118" s="271"/>
       <c r="E118" s="276"/>
       <c r="I118"/>
-      <c r="J118" s="553"/>
-      <c r="K118" s="560"/>
+      <c r="J118" s="551"/>
+      <c r="K118" s="558"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
@@ -38062,8 +38491,8 @@
       <c r="C119" s="271"/>
       <c r="E119" s="276"/>
       <c r="I119"/>
-      <c r="J119" s="553"/>
-      <c r="K119" s="560"/>
+      <c r="J119" s="551"/>
+      <c r="K119" s="558"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
@@ -38071,8 +38500,8 @@
       <c r="C120" s="271"/>
       <c r="E120" s="276"/>
       <c r="I120"/>
-      <c r="J120" s="553"/>
-      <c r="K120" s="560"/>
+      <c r="J120" s="551"/>
+      <c r="K120" s="558"/>
       <c r="M120"/>
       <c r="N120"/>
     </row>
@@ -38080,8 +38509,8 @@
       <c r="C121" s="271"/>
       <c r="E121" s="276"/>
       <c r="I121"/>
-      <c r="J121" s="553"/>
-      <c r="K121" s="560"/>
+      <c r="J121" s="551"/>
+      <c r="K121" s="558"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
@@ -39476,10 +39905,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="633"/>
-      <c r="J36" s="634"/>
-      <c r="K36" s="634"/>
-      <c r="L36" s="635"/>
+      <c r="I36" s="631"/>
+      <c r="J36" s="632"/>
+      <c r="K36" s="632"/>
+      <c r="L36" s="633"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -39506,10 +39935,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="633"/>
-      <c r="J37" s="634"/>
-      <c r="K37" s="634"/>
-      <c r="L37" s="635"/>
+      <c r="I37" s="631"/>
+      <c r="J37" s="632"/>
+      <c r="K37" s="632"/>
+      <c r="L37" s="633"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -39566,10 +39995,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="636" t="s">
+      <c r="I40" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="637"/>
+      <c r="J40" s="635"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -39588,8 +40017,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="638"/>
-      <c r="J41" s="639"/>
+      <c r="I41" s="636"/>
+      <c r="J41" s="637"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -39608,8 +40037,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="640"/>
-      <c r="J42" s="641"/>
+      <c r="I42" s="638"/>
+      <c r="J42" s="639"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -40113,10 +40542,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="642" t="s">
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -40136,11 +40565,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="644"/>
-      <c r="J68" s="645"/>
+      <c r="I68" s="642"/>
+      <c r="J68" s="643"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -40151,7 +40580,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -40794,23 +41223,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -40820,24 +41249,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="608" t="s">
+      <c r="R3" s="595" t="s">
         <v>3</v>
       </c>
     </row>
@@ -40852,14 +41281,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -40869,11 +41298,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="609"/>
+      <c r="R4" s="596"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -42849,11 +43278,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -42861,7 +43290,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -42894,10 +43323,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -42988,11 +43417,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -43551,26 +43980,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="615"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="616">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="617"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="608"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -43579,22 +44008,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="609"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="611"/>
+      <c r="K79" s="612">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="612"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -43635,11 +44064,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="613">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="612"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -43656,22 +44085,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="602"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="648" t="s">
+      <c r="I83" s="646" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="649"/>
-      <c r="K83" s="650">
+      <c r="J83" s="647"/>
+      <c r="K83" s="648">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="650"/>
+      <c r="L83" s="648"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -43818,12 +44247,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -43840,6 +44263,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45251,10 +45680,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="633"/>
-      <c r="J36" s="634"/>
-      <c r="K36" s="634"/>
-      <c r="L36" s="635"/>
+      <c r="I36" s="631"/>
+      <c r="J36" s="632"/>
+      <c r="K36" s="632"/>
+      <c r="L36" s="633"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -45281,10 +45710,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="633"/>
-      <c r="J37" s="634"/>
-      <c r="K37" s="634"/>
-      <c r="L37" s="635"/>
+      <c r="I37" s="631"/>
+      <c r="J37" s="632"/>
+      <c r="K37" s="632"/>
+      <c r="L37" s="633"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -45351,10 +45780,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="636" t="s">
+      <c r="I40" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="637"/>
+      <c r="J40" s="635"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -45373,8 +45802,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="638"/>
-      <c r="J41" s="639"/>
+      <c r="I41" s="636"/>
+      <c r="J41" s="637"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -45393,8 +45822,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="640"/>
-      <c r="J42" s="641"/>
+      <c r="I42" s="638"/>
+      <c r="J42" s="639"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -45898,10 +46327,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="642" t="s">
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -45921,11 +46350,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="651"/>
-      <c r="J68" s="652"/>
+      <c r="I68" s="649"/>
+      <c r="J68" s="650"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -45936,7 +46365,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -46551,23 +46980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -46577,24 +47006,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -46609,14 +47038,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -46626,11 +47055,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -48611,11 +49040,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -48623,7 +49052,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -48656,10 +49085,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -48750,11 +49179,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49233,26 +49662,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="615"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="616">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="617"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="608"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -49261,22 +49690,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="609"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="611"/>
+      <c r="K79" s="612">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="612"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -49317,11 +49746,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="613">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="612"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -49338,22 +49767,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="602"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="616" t="s">
+      <c r="I83" s="603" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="617"/>
-      <c r="K83" s="618">
+      <c r="J83" s="604"/>
+      <c r="K83" s="605">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="618"/>
+      <c r="L83" s="605"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -49500,6 +49929,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49516,12 +49951,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50824,10 +51253,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="633"/>
-      <c r="J36" s="634"/>
-      <c r="K36" s="634"/>
-      <c r="L36" s="635"/>
+      <c r="I36" s="631"/>
+      <c r="J36" s="632"/>
+      <c r="K36" s="632"/>
+      <c r="L36" s="633"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -50844,10 +51273,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="633"/>
-      <c r="J37" s="634"/>
-      <c r="K37" s="634"/>
-      <c r="L37" s="635"/>
+      <c r="I37" s="631"/>
+      <c r="J37" s="632"/>
+      <c r="K37" s="632"/>
+      <c r="L37" s="633"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -50904,10 +51333,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="636" t="s">
+      <c r="I40" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="637"/>
+      <c r="J40" s="635"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -50926,8 +51355,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="638"/>
-      <c r="J41" s="639"/>
+      <c r="I41" s="636"/>
+      <c r="J41" s="637"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -50946,8 +51375,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="640"/>
-      <c r="J42" s="641"/>
+      <c r="I42" s="638"/>
+      <c r="J42" s="639"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -51451,10 +51880,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="642" t="s">
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -51474,11 +51903,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="651"/>
-      <c r="J68" s="652"/>
+      <c r="I68" s="649"/>
+      <c r="J68" s="650"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -51489,7 +51918,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -52095,23 +52524,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52121,24 +52550,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -52153,14 +52582,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52170,11 +52599,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -54195,11 +54624,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -54207,7 +54636,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -54234,10 +54663,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -54311,11 +54740,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -54944,26 +55373,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="627" t="s">
+      <c r="H79" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="628"/>
+      <c r="I79" s="615"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="629">
+      <c r="K79" s="616">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="630"/>
+      <c r="L79" s="617"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="621" t="s">
+      <c r="D80" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="621"/>
+      <c r="E80" s="608"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -54972,22 +55401,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="622" t="s">
+      <c r="D81" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="622"/>
+      <c r="E81" s="609"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="623" t="s">
+      <c r="I81" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="624"/>
-      <c r="K81" s="625">
+      <c r="J81" s="611"/>
+      <c r="K81" s="612">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="612"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55028,11 +55457,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="626">
+      <c r="K83" s="613">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="625"/>
+      <c r="L83" s="612"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55049,22 +55478,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="614" t="s">
+      <c r="D85" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="615"/>
+      <c r="E85" s="602"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="616" t="s">
+      <c r="I85" s="603" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="617"/>
-      <c r="K85" s="618">
+      <c r="J85" s="604"/>
+      <c r="K85" s="605">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="618"/>
+      <c r="L85" s="605"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -55212,12 +55641,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -55234,6 +55657,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55253,7 +55682,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56553,10 +56982,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="633"/>
-      <c r="J36" s="634"/>
-      <c r="K36" s="634"/>
-      <c r="L36" s="635"/>
+      <c r="I36" s="631"/>
+      <c r="J36" s="632"/>
+      <c r="K36" s="632"/>
+      <c r="L36" s="633"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -56579,10 +57008,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="633"/>
-      <c r="J37" s="634"/>
-      <c r="K37" s="634"/>
-      <c r="L37" s="635"/>
+      <c r="I37" s="631"/>
+      <c r="J37" s="632"/>
+      <c r="K37" s="632"/>
+      <c r="L37" s="633"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -56657,10 +57086,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="636" t="s">
+      <c r="I40" s="634" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="637"/>
+      <c r="J40" s="635"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -56685,8 +57114,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="638"/>
-      <c r="J41" s="639"/>
+      <c r="I41" s="636"/>
+      <c r="J41" s="637"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -56711,8 +57140,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="640"/>
-      <c r="J42" s="641"/>
+      <c r="I42" s="638"/>
+      <c r="J42" s="639"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -57234,10 +57663,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="642" t="s">
+      <c r="I67" s="640" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="643"/>
+      <c r="J67" s="641"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -57257,11 +57686,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="646" t="s">
+      <c r="G68" s="644" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="651"/>
-      <c r="J68" s="652"/>
+      <c r="I68" s="649"/>
+      <c r="J68" s="650"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -57272,7 +57701,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="647"/>
+      <c r="G69" s="645"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -57861,7 +58290,7 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="F31" workbookViewId="0">
       <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -57888,23 +58317,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="601"/>
-      <c r="C1" s="603" t="s">
+      <c r="B1" s="624"/>
+      <c r="C1" s="626" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="604"/>
-      <c r="E1" s="604"/>
-      <c r="F1" s="604"/>
-      <c r="G1" s="604"/>
-      <c r="H1" s="604"/>
-      <c r="I1" s="604"/>
-      <c r="J1" s="604"/>
-      <c r="K1" s="604"/>
-      <c r="L1" s="604"/>
-      <c r="M1" s="604"/>
+      <c r="D1" s="627"/>
+      <c r="E1" s="627"/>
+      <c r="F1" s="627"/>
+      <c r="G1" s="627"/>
+      <c r="H1" s="627"/>
+      <c r="I1" s="627"/>
+      <c r="J1" s="627"/>
+      <c r="K1" s="627"/>
+      <c r="L1" s="627"/>
+      <c r="M1" s="627"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="602"/>
+      <c r="B2" s="625"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -57914,27 +58343,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="605" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="606"/>
+      <c r="B3" s="628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="629"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="607" t="s">
+      <c r="H3" s="630" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="607"/>
+      <c r="I3" s="630"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="599" t="s">
+      <c r="P3" s="622" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="653" t="s">
+      <c r="R3" s="651" t="s">
         <v>3</v>
       </c>
     </row>
@@ -57949,14 +58378,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="597" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="598"/>
+      <c r="H4" s="599" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="600"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -57966,11 +58395,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="600"/>
+      <c r="P4" s="623"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="654"/>
+      <c r="R4" s="652"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -59973,11 +60402,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="606">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="606">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -59985,7 +60414,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="618">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60018,10 +60447,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="607"/>
+      <c r="N50" s="607"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="619"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60100,11 +60529,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="597">
+      <c r="M53" s="620">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="598"/>
+      <c r="N53" s="621"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -60583,26 +61012,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="614" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="615"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="616">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="617"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="608" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="608"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -60611,22 +61040,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="609" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="609"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="611"/>
+      <c r="K79" s="612">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="612"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -60667,11 +61096,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="613">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="612"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -60688,22 +61117,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="601" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="602"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="648" t="s">
+      <c r="I83" s="646" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="649"/>
-      <c r="K83" s="650">
+      <c r="J83" s="647"/>
+      <c r="K83" s="648">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="650"/>
+      <c r="L83" s="648"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -60851,6 +61280,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -60867,12 +61302,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -6898,6 +6898,64 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="19" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6973,39 +7031,6 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7072,33 +7097,8 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="19" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="51" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="51" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7108,8 +7108,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF00FFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFFCC00"/>
@@ -11384,23 +11384,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11410,24 +11410,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="595" t="s">
+      <c r="R3" s="617" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11442,14 +11442,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11459,11 +11459,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="596"/>
+      <c r="R4" s="618"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13298,11 +13298,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13310,7 +13310,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13331,10 +13331,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13389,11 +13389,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13818,26 +13818,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="614" t="s">
+      <c r="H77" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="615"/>
+      <c r="I77" s="637"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="616">
+      <c r="K77" s="638">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="617"/>
+      <c r="L77" s="639"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="608" t="s">
+      <c r="D78" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="608"/>
+      <c r="E78" s="630"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -13846,22 +13846,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="609" t="s">
+      <c r="D79" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="609"/>
+      <c r="E79" s="631"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="610" t="s">
+      <c r="I79" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="611"/>
-      <c r="K79" s="612">
+      <c r="J79" s="633"/>
+      <c r="K79" s="634">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="612"/>
+      <c r="L79" s="634"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13902,11 +13902,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="613">
+      <c r="K81" s="635">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="612"/>
+      <c r="L81" s="634"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13923,22 +13923,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="601" t="s">
+      <c r="D83" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="602"/>
+      <c r="E83" s="624"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="603" t="s">
+      <c r="I83" s="625" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="604"/>
-      <c r="K83" s="605">
+      <c r="J83" s="626"/>
+      <c r="K83" s="627">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="605"/>
+      <c r="L83" s="627"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14085,12 +14085,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14107,6 +14101,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15276,10 +15276,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="634" t="s">
+      <c r="I37" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="635"/>
+      <c r="J37" s="646"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -15298,8 +15298,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="636"/>
-      <c r="J38" s="637"/>
+      <c r="I38" s="647"/>
+      <c r="J38" s="648"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -15318,8 +15318,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="638"/>
-      <c r="J39" s="639"/>
+      <c r="I39" s="649"/>
+      <c r="J39" s="650"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -15877,10 +15877,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="649"/>
-      <c r="J68" s="650"/>
+      <c r="I68" s="660"/>
+      <c r="J68" s="661"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15917,7 +15917,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -16505,23 +16505,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16531,27 +16531,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16566,14 +16566,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16583,11 +16583,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -18643,11 +18643,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18655,7 +18655,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18688,10 +18688,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18776,11 +18776,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19109,26 +19109,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="614" t="s">
+      <c r="H69" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="615"/>
+      <c r="I69" s="637"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="616">
+      <c r="K69" s="638">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="617"/>
+      <c r="L69" s="639"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="608" t="s">
+      <c r="D70" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="608"/>
+      <c r="E70" s="630"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19137,23 +19137,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="609" t="s">
+      <c r="D71" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="609"/>
+      <c r="E71" s="631"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="610" t="s">
+      <c r="I71" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="611"/>
-      <c r="K71" s="612">
+      <c r="J71" s="633"/>
+      <c r="K71" s="634">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="612"/>
+      <c r="L71" s="634"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19195,11 +19195,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="613">
+      <c r="K73" s="635">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="612"/>
+      <c r="L73" s="634"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19216,22 +19216,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="601" t="s">
+      <c r="D75" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="602"/>
+      <c r="E75" s="624"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="603" t="s">
+      <c r="I75" s="625" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="604"/>
-      <c r="K75" s="605">
+      <c r="J75" s="626"/>
+      <c r="K75" s="627">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="605"/>
+      <c r="L75" s="627"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19379,6 +19379,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19395,12 +19401,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20570,10 +20570,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="634" t="s">
+      <c r="I37" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="635"/>
+      <c r="J37" s="646"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -20592,8 +20592,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="636"/>
-      <c r="J38" s="637"/>
+      <c r="I38" s="647"/>
+      <c r="J38" s="648"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -20612,8 +20612,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="638"/>
-      <c r="J39" s="639"/>
+      <c r="I39" s="649"/>
+      <c r="J39" s="650"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -21171,10 +21171,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -21196,11 +21196,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="649"/>
-      <c r="J68" s="650"/>
+      <c r="I68" s="660"/>
+      <c r="J68" s="661"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -21211,7 +21211,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -21800,23 +21800,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21826,25 +21826,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -21859,14 +21859,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -21876,11 +21876,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -22493,10 +22493,10 @@
       <c r="J16" s="40">
         <v>45119</v>
       </c>
-      <c r="K16" s="661" t="s">
+      <c r="K16" s="603" t="s">
         <v>784</v>
       </c>
-      <c r="L16" s="662">
+      <c r="L16" s="604">
         <v>293293</v>
       </c>
       <c r="M16" s="42">
@@ -24009,11 +24009,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24021,7 +24021,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24054,10 +24054,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24148,11 +24148,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24529,26 +24529,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="614" t="s">
+      <c r="H69" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="615"/>
+      <c r="I69" s="637"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="616">
+      <c r="K69" s="638">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="617"/>
+      <c r="L69" s="639"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="608" t="s">
+      <c r="D70" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="608"/>
+      <c r="E70" s="630"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24557,22 +24557,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="609" t="s">
+      <c r="D71" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="609"/>
+      <c r="E71" s="631"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="610" t="s">
+      <c r="I71" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="611"/>
-      <c r="K71" s="612">
+      <c r="J71" s="633"/>
+      <c r="K71" s="634">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="612"/>
+      <c r="L71" s="634"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24617,11 +24617,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="613">
+      <c r="K73" s="635">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="612"/>
+      <c r="L73" s="634"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24642,22 +24642,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="601" t="s">
+      <c r="D75" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="602"/>
+      <c r="E75" s="624"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="603" t="s">
+      <c r="I75" s="625" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="604"/>
-      <c r="K75" s="605">
+      <c r="J75" s="626"/>
+      <c r="K75" s="627">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="605"/>
+      <c r="L75" s="627"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24805,6 +24805,12 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24821,12 +24827,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26094,10 +26094,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="634" t="s">
+      <c r="I37" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="635"/>
+      <c r="J37" s="646"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -26122,8 +26122,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="636"/>
-      <c r="J38" s="637"/>
+      <c r="I38" s="647"/>
+      <c r="J38" s="648"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -26148,8 +26148,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="638"/>
-      <c r="J39" s="639"/>
+      <c r="I39" s="649"/>
+      <c r="J39" s="650"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -26755,10 +26755,10 @@
         <f>SUM(G3:G66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -26780,11 +26780,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="649"/>
-      <c r="J68" s="650"/>
+      <c r="I68" s="660"/>
+      <c r="J68" s="661"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26795,7 +26795,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -27383,23 +27383,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27409,25 +27409,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27442,14 +27442,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27459,11 +27459,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -29049,7 +29049,7 @@
       <c r="J35" s="374">
         <v>45166</v>
       </c>
-      <c r="K35" s="660" t="s">
+      <c r="K35" s="602" t="s">
         <v>925</v>
       </c>
       <c r="L35" s="375">
@@ -29181,7 +29181,7 @@
         <f>11722</f>
         <v>11722</v>
       </c>
-      <c r="D38" s="658" t="s">
+      <c r="D38" s="600" t="s">
         <v>1110</v>
       </c>
       <c r="E38" s="35">
@@ -29197,13 +29197,13 @@
       <c r="I38" s="39">
         <v>2648</v>
       </c>
-      <c r="J38" s="653">
+      <c r="J38" s="595">
         <v>45169</v>
       </c>
-      <c r="K38" s="654" t="s">
+      <c r="K38" s="596" t="s">
         <v>1108</v>
       </c>
-      <c r="L38" s="655">
+      <c r="L38" s="597">
         <v>170327</v>
       </c>
       <c r="M38" s="42">
@@ -29238,7 +29238,7 @@
         <f>3458</f>
         <v>3458</v>
       </c>
-      <c r="D39" s="658" t="s">
+      <c r="D39" s="600" t="s">
         <v>1109</v>
       </c>
       <c r="E39" s="35">
@@ -29254,13 +29254,13 @@
       <c r="I39" s="98">
         <v>3080.5</v>
       </c>
-      <c r="J39" s="653">
+      <c r="J39" s="595">
         <v>45170</v>
       </c>
-      <c r="K39" s="654" t="s">
+      <c r="K39" s="596" t="s">
         <v>1108</v>
       </c>
-      <c r="L39" s="655">
+      <c r="L39" s="597">
         <v>61389.5</v>
       </c>
       <c r="M39" s="42">
@@ -29284,13 +29284,13 @@
       <c r="R39" s="46">
         <v>0</v>
       </c>
-      <c r="T39" s="656" t="s">
+      <c r="T39" s="598" t="s">
         <v>1104</v>
       </c>
-      <c r="U39" s="657"/>
-      <c r="V39" s="657"/>
-      <c r="W39" s="657"/>
-      <c r="X39" s="657"/>
+      <c r="U39" s="599"/>
+      <c r="V39" s="599"/>
+      <c r="W39" s="599"/>
+      <c r="X39" s="599"/>
     </row>
     <row r="40" spans="1:24" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="504" t="s">
@@ -29303,7 +29303,7 @@
         <f>10199</f>
         <v>10199</v>
       </c>
-      <c r="D40" s="658" t="s">
+      <c r="D40" s="600" t="s">
         <v>1105</v>
       </c>
       <c r="E40" s="35">
@@ -29319,13 +29319,13 @@
       <c r="I40" s="98">
         <v>2094</v>
       </c>
-      <c r="J40" s="653">
+      <c r="J40" s="595">
         <v>45171</v>
       </c>
-      <c r="K40" s="654" t="s">
+      <c r="K40" s="596" t="s">
         <v>1111</v>
       </c>
-      <c r="L40" s="655">
+      <c r="L40" s="597">
         <f>22683+300+71117</f>
         <v>94100</v>
       </c>
@@ -29690,11 +29690,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -29702,7 +29702,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -29735,10 +29735,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -29829,11 +29829,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30548,26 +30548,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="614" t="s">
+      <c r="H81" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="615"/>
+      <c r="I81" s="637"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="616">
+      <c r="K81" s="638">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="617"/>
+      <c r="L81" s="639"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="608" t="s">
+      <c r="D82" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="608"/>
+      <c r="E82" s="630"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-1236634.8499999987</v>
@@ -30576,22 +30576,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="609" t="s">
+      <c r="D83" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="609"/>
+      <c r="E83" s="631"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="610" t="s">
+      <c r="I83" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="611"/>
-      <c r="K83" s="612">
+      <c r="J83" s="633"/>
+      <c r="K83" s="634">
         <f>F85+F86+F87</f>
         <v>552770.9000000013</v>
       </c>
-      <c r="L83" s="612"/>
+      <c r="L83" s="634"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30632,11 +30632,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="613">
+      <c r="K85" s="635">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="612"/>
+      <c r="L85" s="634"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30654,22 +30654,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="601" t="s">
+      <c r="D87" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="602"/>
+      <c r="E87" s="624"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="603" t="s">
+      <c r="I87" s="625" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="604"/>
-      <c r="K87" s="605">
+      <c r="J87" s="626"/>
+      <c r="K87" s="627">
         <f>K83+K85</f>
         <v>-2267780.4099999988</v>
       </c>
-      <c r="L87" s="605"/>
+      <c r="L87" s="627"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -30817,12 +30817,6 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30839,6 +30833,12 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32579,10 +32579,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="634" t="s">
+      <c r="I49" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="635"/>
+      <c r="J49" s="646"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -32607,8 +32607,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="636"/>
-      <c r="J50" s="637"/>
+      <c r="I50" s="647"/>
+      <c r="J50" s="648"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -32633,8 +32633,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="638"/>
-      <c r="J51" s="639"/>
+      <c r="I51" s="649"/>
+      <c r="J51" s="650"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -32994,10 +32994,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="640" t="s">
+      <c r="I65" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="641"/>
+      <c r="J65" s="652"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -33026,8 +33026,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="649"/>
-      <c r="J66" s="650"/>
+      <c r="I66" s="660"/>
+      <c r="J66" s="661"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -33103,7 +33103,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="644" t="s">
+      <c r="G70" s="655" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -33119,7 +33119,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="645"/>
+      <c r="G71" s="656"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -33638,7 +33638,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33664,23 +33664,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33690,25 +33690,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33723,14 +33723,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33740,11 +33740,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -33825,13 +33825,13 @@
       <c r="J6" s="40"/>
       <c r="K6" s="65"/>
       <c r="L6" s="49"/>
-      <c r="M6" s="663">
+      <c r="M6" s="605">
         <v>2641</v>
       </c>
       <c r="N6" s="43">
         <v>57667</v>
       </c>
-      <c r="O6" s="659" t="s">
+      <c r="O6" s="601" t="s">
         <v>1107</v>
       </c>
       <c r="P6" s="49">
@@ -33892,7 +33892,7 @@
       <c r="N7" s="43">
         <v>53307</v>
       </c>
-      <c r="O7" s="659" t="s">
+      <c r="O7" s="601" t="s">
         <v>1113</v>
       </c>
       <c r="P7" s="49">
@@ -33995,7 +33995,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="45">
-        <f t="shared" ref="Q6:Q16" si="1">P9-F9</f>
+        <f t="shared" ref="Q9:Q16" si="1">P9-F9</f>
         <v>0</v>
       </c>
       <c r="R9" s="46">
@@ -34345,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="45">
-        <f t="shared" ref="Q7:Q47" si="2">P17-F17</f>
+        <f t="shared" ref="Q17:Q47" si="2">P17-F17</f>
         <v>0</v>
       </c>
       <c r="R17" s="46">
@@ -35634,11 +35634,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>334002</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>234498</v>
       </c>
@@ -35646,7 +35646,7 @@
         <f>SUM(P5:P40)</f>
         <v>1105956.06</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>422334.06</v>
       </c>
@@ -35673,10 +35673,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>36564</v>
@@ -35749,11 +35749,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>568500</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36262,26 +36262,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="614" t="s">
+      <c r="H81" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="615"/>
+      <c r="I81" s="637"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="616">
+      <c r="K81" s="638">
         <f>I79+L79</f>
         <v>128471.3</v>
       </c>
-      <c r="L81" s="617"/>
+      <c r="L81" s="639"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="608" t="s">
+      <c r="D82" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="608"/>
+      <c r="E82" s="630"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-4631746.1500000004</v>
@@ -36290,22 +36290,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="609" t="s">
+      <c r="D83" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="609"/>
+      <c r="E83" s="631"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="610" t="s">
+      <c r="I83" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="611"/>
-      <c r="K83" s="612">
+      <c r="J83" s="633"/>
+      <c r="K83" s="634">
         <f>F85+F86+F87</f>
         <v>-4631746.1500000004</v>
       </c>
-      <c r="L83" s="612"/>
+      <c r="L83" s="634"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -36346,11 +36346,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="613">
+      <c r="K85" s="635">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="612"/>
+      <c r="L85" s="634"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36366,22 +36366,22 @@
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="172"/>
-      <c r="D87" s="601" t="s">
+      <c r="D87" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="602"/>
+      <c r="E87" s="624"/>
       <c r="F87" s="173">
         <v>0</v>
       </c>
-      <c r="I87" s="603" t="s">
+      <c r="I87" s="625" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="604"/>
-      <c r="K87" s="605">
+      <c r="J87" s="626"/>
+      <c r="K87" s="627">
         <f>K83+K85</f>
         <v>-7778206.8100000005</v>
       </c>
-      <c r="L87" s="605"/>
+      <c r="L87" s="627"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36526,13 +36526,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36548,6 +36541,13 @@
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37590,10 +37590,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="634" t="s">
+      <c r="I49" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="635"/>
+      <c r="J49" s="646"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -37612,8 +37612,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="636"/>
-      <c r="J50" s="637"/>
+      <c r="I50" s="647"/>
+      <c r="J50" s="648"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -37632,8 +37632,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="638"/>
-      <c r="J51" s="639"/>
+      <c r="I51" s="649"/>
+      <c r="J51" s="650"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -37909,10 +37909,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="640" t="s">
+      <c r="I65" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="641"/>
+      <c r="J65" s="652"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -37935,8 +37935,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="649"/>
-      <c r="J66" s="650"/>
+      <c r="I66" s="660"/>
+      <c r="J66" s="661"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -38000,7 +38000,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="644" t="s">
+      <c r="G70" s="655" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -38016,7 +38016,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="645"/>
+      <c r="G71" s="656"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -39905,10 +39905,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="631"/>
-      <c r="J36" s="632"/>
-      <c r="K36" s="632"/>
-      <c r="L36" s="633"/>
+      <c r="I36" s="642"/>
+      <c r="J36" s="643"/>
+      <c r="K36" s="643"/>
+      <c r="L36" s="644"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -39935,10 +39935,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="631"/>
-      <c r="J37" s="632"/>
-      <c r="K37" s="632"/>
-      <c r="L37" s="633"/>
+      <c r="I37" s="642"/>
+      <c r="J37" s="643"/>
+      <c r="K37" s="643"/>
+      <c r="L37" s="644"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -39995,10 +39995,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="634" t="s">
+      <c r="I40" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="635"/>
+      <c r="J40" s="646"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -40017,8 +40017,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="636"/>
-      <c r="J41" s="637"/>
+      <c r="I41" s="647"/>
+      <c r="J41" s="648"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -40037,8 +40037,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="638"/>
-      <c r="J42" s="639"/>
+      <c r="I42" s="649"/>
+      <c r="J42" s="650"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -40542,10 +40542,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -40565,11 +40565,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="642"/>
-      <c r="J68" s="643"/>
+      <c r="I68" s="653"/>
+      <c r="J68" s="654"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -40580,7 +40580,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -41223,23 +41223,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41249,24 +41249,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="595" t="s">
+      <c r="R3" s="617" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41281,14 +41281,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41298,11 +41298,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="596"/>
+      <c r="R4" s="618"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43278,11 +43278,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -43290,7 +43290,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -43323,10 +43323,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -43417,11 +43417,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -43980,26 +43980,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="614" t="s">
+      <c r="H77" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="615"/>
+      <c r="I77" s="637"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="616">
+      <c r="K77" s="638">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="617"/>
+      <c r="L77" s="639"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="608" t="s">
+      <c r="D78" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="608"/>
+      <c r="E78" s="630"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -44008,22 +44008,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="609" t="s">
+      <c r="D79" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="609"/>
+      <c r="E79" s="631"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="610" t="s">
+      <c r="I79" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="611"/>
-      <c r="K79" s="612">
+      <c r="J79" s="633"/>
+      <c r="K79" s="634">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="612"/>
+      <c r="L79" s="634"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -44064,11 +44064,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="613">
+      <c r="K81" s="635">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="612"/>
+      <c r="L81" s="634"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -44085,22 +44085,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="601" t="s">
+      <c r="D83" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="602"/>
+      <c r="E83" s="624"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="646" t="s">
+      <c r="I83" s="657" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="647"/>
-      <c r="K83" s="648">
+      <c r="J83" s="658"/>
+      <c r="K83" s="659">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="648"/>
+      <c r="L83" s="659"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -44247,6 +44247,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44263,12 +44269,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45680,10 +45680,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="631"/>
-      <c r="J36" s="632"/>
-      <c r="K36" s="632"/>
-      <c r="L36" s="633"/>
+      <c r="I36" s="642"/>
+      <c r="J36" s="643"/>
+      <c r="K36" s="643"/>
+      <c r="L36" s="644"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -45710,10 +45710,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="631"/>
-      <c r="J37" s="632"/>
-      <c r="K37" s="632"/>
-      <c r="L37" s="633"/>
+      <c r="I37" s="642"/>
+      <c r="J37" s="643"/>
+      <c r="K37" s="643"/>
+      <c r="L37" s="644"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -45780,10 +45780,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="634" t="s">
+      <c r="I40" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="635"/>
+      <c r="J40" s="646"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -45802,8 +45802,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="636"/>
-      <c r="J41" s="637"/>
+      <c r="I41" s="647"/>
+      <c r="J41" s="648"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -45822,8 +45822,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="638"/>
-      <c r="J42" s="639"/>
+      <c r="I42" s="649"/>
+      <c r="J42" s="650"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -46327,10 +46327,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -46350,11 +46350,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="649"/>
-      <c r="J68" s="650"/>
+      <c r="I68" s="660"/>
+      <c r="J68" s="661"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -46365,7 +46365,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -46980,23 +46980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47006,24 +47006,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -47038,14 +47038,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47055,11 +47055,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -49040,11 +49040,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -49052,7 +49052,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -49085,10 +49085,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -49179,11 +49179,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49662,26 +49662,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="614" t="s">
+      <c r="H77" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="615"/>
+      <c r="I77" s="637"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="616">
+      <c r="K77" s="638">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="617"/>
+      <c r="L77" s="639"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="608" t="s">
+      <c r="D78" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="608"/>
+      <c r="E78" s="630"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -49690,22 +49690,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="609" t="s">
+      <c r="D79" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="609"/>
+      <c r="E79" s="631"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="610" t="s">
+      <c r="I79" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="611"/>
-      <c r="K79" s="612">
+      <c r="J79" s="633"/>
+      <c r="K79" s="634">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="612"/>
+      <c r="L79" s="634"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -49746,11 +49746,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="613">
+      <c r="K81" s="635">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="612"/>
+      <c r="L81" s="634"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -49767,22 +49767,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="601" t="s">
+      <c r="D83" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="602"/>
+      <c r="E83" s="624"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="603" t="s">
+      <c r="I83" s="625" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="604"/>
-      <c r="K83" s="605">
+      <c r="J83" s="626"/>
+      <c r="K83" s="627">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="605"/>
+      <c r="L83" s="627"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -49929,12 +49929,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49951,6 +49945,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51253,10 +51253,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="631"/>
-      <c r="J36" s="632"/>
-      <c r="K36" s="632"/>
-      <c r="L36" s="633"/>
+      <c r="I36" s="642"/>
+      <c r="J36" s="643"/>
+      <c r="K36" s="643"/>
+      <c r="L36" s="644"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -51273,10 +51273,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="631"/>
-      <c r="J37" s="632"/>
-      <c r="K37" s="632"/>
-      <c r="L37" s="633"/>
+      <c r="I37" s="642"/>
+      <c r="J37" s="643"/>
+      <c r="K37" s="643"/>
+      <c r="L37" s="644"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -51333,10 +51333,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="634" t="s">
+      <c r="I40" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="635"/>
+      <c r="J40" s="646"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -51355,8 +51355,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="636"/>
-      <c r="J41" s="637"/>
+      <c r="I41" s="647"/>
+      <c r="J41" s="648"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -51375,8 +51375,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="638"/>
-      <c r="J42" s="639"/>
+      <c r="I42" s="649"/>
+      <c r="J42" s="650"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -51880,10 +51880,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -51903,11 +51903,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="649"/>
-      <c r="J68" s="650"/>
+      <c r="I68" s="660"/>
+      <c r="J68" s="661"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -51918,7 +51918,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -52524,23 +52524,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52550,24 +52550,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -52582,14 +52582,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52599,11 +52599,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -54624,11 +54624,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -54636,7 +54636,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -54663,10 +54663,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -54740,11 +54740,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55373,26 +55373,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="614" t="s">
+      <c r="H79" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="615"/>
+      <c r="I79" s="637"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="616">
+      <c r="K79" s="638">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="617"/>
+      <c r="L79" s="639"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="608" t="s">
+      <c r="D80" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="608"/>
+      <c r="E80" s="630"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -55401,22 +55401,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="609" t="s">
+      <c r="D81" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="609"/>
+      <c r="E81" s="631"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="610" t="s">
+      <c r="I81" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="611"/>
-      <c r="K81" s="612">
+      <c r="J81" s="633"/>
+      <c r="K81" s="634">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="612"/>
+      <c r="L81" s="634"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55457,11 +55457,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="613">
+      <c r="K83" s="635">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="612"/>
+      <c r="L83" s="634"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55478,22 +55478,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="601" t="s">
+      <c r="D85" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="602"/>
+      <c r="E85" s="624"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="603" t="s">
+      <c r="I85" s="625" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="604"/>
-      <c r="K85" s="605">
+      <c r="J85" s="626"/>
+      <c r="K85" s="627">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="605"/>
+      <c r="L85" s="627"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -55641,6 +55641,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -55657,12 +55663,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56982,10 +56982,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="631"/>
-      <c r="J36" s="632"/>
-      <c r="K36" s="632"/>
-      <c r="L36" s="633"/>
+      <c r="I36" s="642"/>
+      <c r="J36" s="643"/>
+      <c r="K36" s="643"/>
+      <c r="L36" s="644"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -57008,10 +57008,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="631"/>
-      <c r="J37" s="632"/>
-      <c r="K37" s="632"/>
-      <c r="L37" s="633"/>
+      <c r="I37" s="642"/>
+      <c r="J37" s="643"/>
+      <c r="K37" s="643"/>
+      <c r="L37" s="644"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -57086,10 +57086,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="634" t="s">
+      <c r="I40" s="645" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="635"/>
+      <c r="J40" s="646"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -57114,8 +57114,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="636"/>
-      <c r="J41" s="637"/>
+      <c r="I41" s="647"/>
+      <c r="J41" s="648"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -57140,8 +57140,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="638"/>
-      <c r="J42" s="639"/>
+      <c r="I42" s="649"/>
+      <c r="J42" s="650"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -57663,10 +57663,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="640" t="s">
+      <c r="I67" s="651" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="641"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -57686,11 +57686,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="644" t="s">
+      <c r="G68" s="655" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="649"/>
-      <c r="J68" s="650"/>
+      <c r="I68" s="660"/>
+      <c r="J68" s="661"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -57701,7 +57701,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="645"/>
+      <c r="G69" s="656"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -58317,23 +58317,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="624"/>
-      <c r="C1" s="626" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="612" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="627"/>
-      <c r="E1" s="627"/>
-      <c r="F1" s="627"/>
-      <c r="G1" s="627"/>
-      <c r="H1" s="627"/>
-      <c r="I1" s="627"/>
-      <c r="J1" s="627"/>
-      <c r="K1" s="627"/>
-      <c r="L1" s="627"/>
-      <c r="M1" s="627"/>
+      <c r="D1" s="613"/>
+      <c r="E1" s="613"/>
+      <c r="F1" s="613"/>
+      <c r="G1" s="613"/>
+      <c r="H1" s="613"/>
+      <c r="I1" s="613"/>
+      <c r="J1" s="613"/>
+      <c r="K1" s="613"/>
+      <c r="L1" s="613"/>
+      <c r="M1" s="613"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="625"/>
+      <c r="B2" s="611"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58343,27 +58343,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="628" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="629"/>
+      <c r="B3" s="614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="615"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="630" t="s">
+      <c r="H3" s="616" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="630"/>
+      <c r="I3" s="616"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="622" t="s">
+      <c r="P3" s="608" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="662" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58378,14 +58378,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="619" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="598"/>
-      <c r="H4" s="599" t="s">
+      <c r="F4" s="620"/>
+      <c r="H4" s="621" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="600"/>
+      <c r="I4" s="622"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58395,11 +58395,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="623"/>
+      <c r="P4" s="609"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="652"/>
+      <c r="R4" s="663"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -60402,11 +60402,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="606">
+      <c r="M49" s="628">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="606">
+      <c r="N49" s="628">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -60414,7 +60414,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="618">
+      <c r="Q49" s="640">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60447,10 +60447,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="607"/>
-      <c r="N50" s="607"/>
+      <c r="M50" s="629"/>
+      <c r="N50" s="629"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="619"/>
+      <c r="Q50" s="641"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60529,11 +60529,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="620">
+      <c r="M53" s="606">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="621"/>
+      <c r="N53" s="607"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61012,26 +61012,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="614" t="s">
+      <c r="H77" s="636" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="615"/>
+      <c r="I77" s="637"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="616">
+      <c r="K77" s="638">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="617"/>
+      <c r="L77" s="639"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="608" t="s">
+      <c r="D78" s="630" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="608"/>
+      <c r="E78" s="630"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -61040,22 +61040,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="609" t="s">
+      <c r="D79" s="631" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="609"/>
+      <c r="E79" s="631"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="610" t="s">
+      <c r="I79" s="632" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="611"/>
-      <c r="K79" s="612">
+      <c r="J79" s="633"/>
+      <c r="K79" s="634">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="612"/>
+      <c r="L79" s="634"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -61096,11 +61096,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="613">
+      <c r="K81" s="635">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="612"/>
+      <c r="L81" s="634"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -61117,22 +61117,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="601" t="s">
+      <c r="D83" s="623" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="602"/>
+      <c r="E83" s="624"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="646" t="s">
+      <c r="I83" s="657" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="647"/>
-      <c r="K83" s="648">
+      <c r="J83" s="658"/>
+      <c r="K83" s="659">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="648"/>
+      <c r="L83" s="659"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -61280,12 +61280,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61302,6 +61296,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1117">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4051,6 +4051,15 @@
   </si>
   <si>
     <t>Aculumado 4-y---6</t>
+  </si>
+  <si>
+    <t>POSTRES-POLLO</t>
+  </si>
+  <si>
+    <t>PEREJIL-JAMON-POLLO-SALSAS-QUESOS-CEREAL-PASTOR-</t>
+  </si>
+  <si>
+    <t>NOMINA # 36</t>
   </si>
 </sst>
 </file>
@@ -5762,7 +5771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="666">
+  <cellXfs count="667">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6923,39 +6932,8 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="51" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7031,6 +7009,39 @@
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7097,8 +7108,9 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="16" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -11384,23 +11396,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11410,24 +11422,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="617" t="s">
+      <c r="R3" s="608" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11442,14 +11454,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11459,11 +11471,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="618"/>
+      <c r="R4" s="609"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13298,11 +13310,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13310,7 +13322,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13331,10 +13343,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13389,11 +13401,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13818,26 +13830,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="636" t="s">
+      <c r="H77" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="637"/>
+      <c r="I77" s="628"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="638">
+      <c r="K77" s="629">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="639"/>
+      <c r="L77" s="630"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="630" t="s">
+      <c r="D78" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="630"/>
+      <c r="E78" s="621"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -13846,22 +13858,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="631" t="s">
+      <c r="D79" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="631"/>
+      <c r="E79" s="622"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="632" t="s">
+      <c r="I79" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="633"/>
-      <c r="K79" s="634">
+      <c r="J79" s="624"/>
+      <c r="K79" s="625">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="634"/>
+      <c r="L79" s="625"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13902,11 +13914,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="635">
+      <c r="K81" s="626">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="634"/>
+      <c r="L81" s="625"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13923,22 +13935,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="623" t="s">
+      <c r="D83" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="624"/>
+      <c r="E83" s="615"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="625" t="s">
+      <c r="I83" s="616" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="626"/>
-      <c r="K83" s="627">
+      <c r="J83" s="617"/>
+      <c r="K83" s="618">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="627"/>
+      <c r="L83" s="618"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14085,6 +14097,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14101,12 +14119,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15276,10 +15288,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="645" t="s">
+      <c r="I37" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="646"/>
+      <c r="J37" s="648"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -15298,8 +15310,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="647"/>
-      <c r="J38" s="648"/>
+      <c r="I38" s="649"/>
+      <c r="J38" s="650"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -15318,8 +15330,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="649"/>
-      <c r="J39" s="650"/>
+      <c r="I39" s="651"/>
+      <c r="J39" s="652"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -15877,10 +15889,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -15902,11 +15914,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="660"/>
-      <c r="J68" s="661"/>
+      <c r="I68" s="662"/>
+      <c r="J68" s="663"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15917,7 +15929,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -16505,23 +16517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16531,27 +16543,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16566,14 +16578,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16583,11 +16595,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -18643,11 +18655,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18655,7 +18667,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18688,10 +18700,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18776,11 +18788,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19109,26 +19121,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="636" t="s">
+      <c r="H69" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="637"/>
+      <c r="I69" s="628"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="638">
+      <c r="K69" s="629">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="639"/>
+      <c r="L69" s="630"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="630" t="s">
+      <c r="D70" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="630"/>
+      <c r="E70" s="621"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19137,23 +19149,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="631" t="s">
+      <c r="D71" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="631"/>
+      <c r="E71" s="622"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="632" t="s">
+      <c r="I71" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="633"/>
-      <c r="K71" s="634">
+      <c r="J71" s="624"/>
+      <c r="K71" s="625">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="634"/>
+      <c r="L71" s="625"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19195,11 +19207,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="635">
+      <c r="K73" s="626">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="634"/>
+      <c r="L73" s="625"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19216,22 +19228,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="623" t="s">
+      <c r="D75" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="624"/>
+      <c r="E75" s="615"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="625" t="s">
+      <c r="I75" s="616" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="626"/>
-      <c r="K75" s="627">
+      <c r="J75" s="617"/>
+      <c r="K75" s="618">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="627"/>
+      <c r="L75" s="618"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19379,12 +19391,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19401,6 +19407,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20570,10 +20582,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="645" t="s">
+      <c r="I37" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="646"/>
+      <c r="J37" s="648"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -20592,8 +20604,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="647"/>
-      <c r="J38" s="648"/>
+      <c r="I38" s="649"/>
+      <c r="J38" s="650"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -20612,8 +20624,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="649"/>
-      <c r="J39" s="650"/>
+      <c r="I39" s="651"/>
+      <c r="J39" s="652"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -21171,10 +21183,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -21196,11 +21208,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="660"/>
-      <c r="J68" s="661"/>
+      <c r="I68" s="662"/>
+      <c r="J68" s="663"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -21211,7 +21223,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -21800,23 +21812,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21826,25 +21838,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -21859,14 +21871,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -21876,11 +21888,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -24009,11 +24021,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24021,7 +24033,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24054,10 +24066,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24148,11 +24160,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24529,26 +24541,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="636" t="s">
+      <c r="H69" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="637"/>
+      <c r="I69" s="628"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="638">
+      <c r="K69" s="629">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="639"/>
+      <c r="L69" s="630"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="630" t="s">
+      <c r="D70" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="630"/>
+      <c r="E70" s="621"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24557,22 +24569,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="631" t="s">
+      <c r="D71" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="631"/>
+      <c r="E71" s="622"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="632" t="s">
+      <c r="I71" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="633"/>
-      <c r="K71" s="634">
+      <c r="J71" s="624"/>
+      <c r="K71" s="625">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="634"/>
+      <c r="L71" s="625"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24617,11 +24629,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="635">
+      <c r="K73" s="626">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="634"/>
+      <c r="L73" s="625"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24642,22 +24654,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="623" t="s">
+      <c r="D75" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="624"/>
+      <c r="E75" s="615"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="625" t="s">
+      <c r="I75" s="616" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="626"/>
-      <c r="K75" s="627">
+      <c r="J75" s="617"/>
+      <c r="K75" s="618">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="627"/>
+      <c r="L75" s="618"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24805,12 +24817,6 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24827,6 +24833,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26094,10 +26106,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="645" t="s">
+      <c r="I37" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="646"/>
+      <c r="J37" s="648"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -26122,8 +26134,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="647"/>
-      <c r="J38" s="648"/>
+      <c r="I38" s="649"/>
+      <c r="J38" s="650"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -26148,8 +26160,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="649"/>
-      <c r="J39" s="650"/>
+      <c r="I39" s="651"/>
+      <c r="J39" s="652"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -26755,10 +26767,10 @@
         <f>SUM(G3:G66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -26780,11 +26792,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="660"/>
-      <c r="J68" s="661"/>
+      <c r="I68" s="662"/>
+      <c r="J68" s="663"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26795,7 +26807,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -27356,8 +27368,8 @@
   </sheetPr>
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27383,23 +27395,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27409,25 +27421,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27442,14 +27454,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27459,11 +27471,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -29292,7 +29304,7 @@
       <c r="W39" s="599"/>
       <c r="X39" s="599"/>
     </row>
-    <row r="40" spans="1:24" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="504" t="s">
         <v>656</v>
       </c>
@@ -29322,7 +29334,7 @@
       <c r="J40" s="595">
         <v>45171</v>
       </c>
-      <c r="K40" s="596" t="s">
+      <c r="K40" s="666" t="s">
         <v>1111</v>
       </c>
       <c r="L40" s="597">
@@ -29690,11 +29702,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -29702,7 +29714,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -29735,10 +29747,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -29829,11 +29841,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30548,26 +30560,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="636" t="s">
+      <c r="H81" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="637"/>
+      <c r="I81" s="628"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="638">
+      <c r="K81" s="629">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="639"/>
+      <c r="L81" s="630"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="630" t="s">
+      <c r="D82" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="630"/>
+      <c r="E82" s="621"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-1236634.8499999987</v>
@@ -30576,22 +30588,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="631" t="s">
+      <c r="D83" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="631"/>
+      <c r="E83" s="622"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="632" t="s">
+      <c r="I83" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="633"/>
-      <c r="K83" s="634">
+      <c r="J83" s="624"/>
+      <c r="K83" s="625">
         <f>F85+F86+F87</f>
         <v>552770.9000000013</v>
       </c>
-      <c r="L83" s="634"/>
+      <c r="L83" s="625"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30632,11 +30644,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="635">
+      <c r="K85" s="626">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="634"/>
+      <c r="L85" s="625"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30654,22 +30666,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="623" t="s">
+      <c r="D87" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="624"/>
+      <c r="E87" s="615"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="625" t="s">
+      <c r="I87" s="616" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="626"/>
-      <c r="K87" s="627">
+      <c r="J87" s="617"/>
+      <c r="K87" s="618">
         <f>K83+K85</f>
         <v>-2267780.4099999988</v>
       </c>
-      <c r="L87" s="627"/>
+      <c r="L87" s="618"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -30817,6 +30829,12 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30833,16 +30851,11 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -32579,10 +32592,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="645" t="s">
+      <c r="I49" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="646"/>
+      <c r="J49" s="648"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -32607,8 +32620,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="647"/>
-      <c r="J50" s="648"/>
+      <c r="I50" s="649"/>
+      <c r="J50" s="650"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -32633,8 +32646,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="649"/>
-      <c r="J51" s="650"/>
+      <c r="I51" s="651"/>
+      <c r="J51" s="652"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -32994,10 +33007,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="651" t="s">
+      <c r="I65" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="652"/>
+      <c r="J65" s="654"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -33026,8 +33039,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="660"/>
-      <c r="J66" s="661"/>
+      <c r="I66" s="662"/>
+      <c r="J66" s="663"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -33103,7 +33116,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="655" t="s">
+      <c r="G70" s="657" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -33119,7 +33132,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="656"/>
+      <c r="G71" s="658"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -33635,10 +33648,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33664,23 +33677,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33690,25 +33703,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33723,14 +33736,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33740,11 +33753,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -33838,7 +33851,7 @@
         <f t="shared" si="0"/>
         <v>100395.5</v>
       </c>
-      <c r="Q6" s="664">
+      <c r="Q6" s="606">
         <f>P6-F6-21904</f>
         <v>-65102.5</v>
       </c>
@@ -33899,7 +33912,7 @@
         <f t="shared" si="0"/>
         <v>110952</v>
       </c>
-      <c r="Q7" s="664">
+      <c r="Q7" s="606">
         <f>P7-F7-4827</f>
         <v>-35510</v>
       </c>
@@ -33951,7 +33964,7 @@
         <f t="shared" si="0"/>
         <v>290624</v>
       </c>
-      <c r="Q8" s="665">
+      <c r="Q8" s="607">
         <f>P8-F8-9833</f>
         <v>100612</v>
       </c>
@@ -33970,29 +33983,38 @@
       <c r="B9" s="32">
         <v>45176</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="33">
+        <v>5757</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>1114</v>
+      </c>
       <c r="E9" s="35">
         <v>45176</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="36">
+        <v>136059</v>
+      </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38">
         <v>45176</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="39">
+        <v>1516</v>
+      </c>
       <c r="J9" s="40"/>
       <c r="K9" s="348"/>
       <c r="L9" s="49"/>
       <c r="M9" s="42">
-        <v>0</v>
+        <f>73528</f>
+        <v>73528</v>
       </c>
       <c r="N9" s="43">
-        <v>0</v>
+        <v>55258</v>
       </c>
       <c r="P9" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136059</v>
       </c>
       <c r="Q9" s="45">
         <f t="shared" ref="Q9:Q16" si="1">P9-F9</f>
@@ -34013,33 +34035,42 @@
       <c r="B10" s="32">
         <v>45177</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="33">
+        <v>6148</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>88</v>
+      </c>
       <c r="E10" s="35">
         <v>45177</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="36">
+        <v>245361</v>
+      </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38">
         <v>45177</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="39">
+        <v>2471</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
       <c r="M10" s="42">
-        <v>0</v>
+        <f>165287+4814</f>
+        <v>170101</v>
       </c>
       <c r="N10" s="43">
-        <v>0</v>
+        <v>66642</v>
       </c>
       <c r="P10" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>245362</v>
       </c>
       <c r="Q10" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="46">
         <v>0</v>
@@ -34056,29 +34087,44 @@
       <c r="B11" s="32">
         <v>45178</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="33">
+        <v>16994</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>1115</v>
+      </c>
       <c r="E11" s="35">
         <v>45178</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="36">
+        <v>184673</v>
+      </c>
       <c r="G11" s="37"/>
       <c r="H11" s="38">
         <v>45178</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="49"/>
+      <c r="I11" s="39">
+        <v>4974</v>
+      </c>
+      <c r="J11" s="52">
+        <v>45178</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L11" s="49">
+        <v>22355</v>
+      </c>
       <c r="M11" s="42">
-        <v>0</v>
+        <f>60473+3531</f>
+        <v>64004</v>
       </c>
       <c r="N11" s="43">
-        <v>0</v>
+        <v>76346</v>
       </c>
       <c r="P11" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184673</v>
       </c>
       <c r="Q11" s="45">
         <f t="shared" si="1"/>
@@ -35006,9 +35052,15 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="534"/>
-      <c r="K34" s="373"/>
-      <c r="L34" s="369"/>
+      <c r="J34" s="370">
+        <v>45178</v>
+      </c>
+      <c r="K34" s="373" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L34" s="369">
+        <v>21173.34</v>
+      </c>
       <c r="M34" s="42">
         <v>0</v>
       </c>
@@ -35016,7 +35068,6 @@
         <v>0</v>
       </c>
       <c r="P34" s="69">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q34" s="45">
@@ -35046,15 +35097,9 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="374">
-        <v>45174</v>
-      </c>
-      <c r="K35" s="373" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" s="375">
-        <v>14500</v>
-      </c>
+      <c r="J35" s="374"/>
+      <c r="K35" s="373"/>
+      <c r="L35" s="375"/>
       <c r="M35" s="42">
         <v>0</v>
       </c>
@@ -35062,12 +35107,11 @@
         <v>0</v>
       </c>
       <c r="P35" s="69">
-        <f t="shared" si="0"/>
-        <v>36463.300000000003</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="45">
         <f t="shared" si="2"/>
-        <v>36463.300000000003</v>
+        <v>0</v>
       </c>
       <c r="R35" s="46">
         <v>0</v>
@@ -35089,15 +35133,9 @@
       <c r="G36" s="92"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="370">
-        <v>45175</v>
-      </c>
-      <c r="K36" s="373" t="s">
-        <v>1084</v>
-      </c>
-      <c r="L36" s="369">
-        <v>850</v>
-      </c>
+      <c r="J36" s="370"/>
+      <c r="K36" s="373"/>
+      <c r="L36" s="369"/>
       <c r="M36" s="42">
         <v>0</v>
       </c>
@@ -35105,12 +35143,11 @@
         <v>0</v>
       </c>
       <c r="P36" s="69">
-        <f t="shared" si="0"/>
-        <v>68800</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="45">
         <f t="shared" si="2"/>
-        <v>68800</v>
+        <v>0</v>
       </c>
       <c r="R36" s="46">
         <v>0</v>
@@ -35132,15 +35169,9 @@
       <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="370">
-        <v>45175</v>
-      </c>
-      <c r="K37" s="589" t="s">
-        <v>1085</v>
-      </c>
-      <c r="L37" s="369">
-        <v>7189.18</v>
-      </c>
+      <c r="J37" s="370"/>
+      <c r="K37" s="589"/>
+      <c r="L37" s="369"/>
       <c r="M37" s="42">
         <v>0</v>
       </c>
@@ -35148,12 +35179,11 @@
         <v>0</v>
       </c>
       <c r="P37" s="69">
-        <f t="shared" si="0"/>
-        <v>107189.18</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="45">
         <f t="shared" si="2"/>
-        <v>107189.18</v>
+        <v>0</v>
       </c>
       <c r="R37" s="46">
         <v>0</v>
@@ -35175,15 +35205,9 @@
       <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="370">
-        <v>45176</v>
-      </c>
-      <c r="K38" s="590" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L38" s="369">
-        <v>4908.49</v>
-      </c>
+      <c r="J38" s="370"/>
+      <c r="K38" s="590"/>
+      <c r="L38" s="369"/>
       <c r="M38" s="42">
         <v>0</v>
       </c>
@@ -35191,12 +35215,11 @@
         <v>0</v>
       </c>
       <c r="P38" s="69">
-        <f t="shared" si="0"/>
-        <v>17332.489999999998</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="45">
         <f t="shared" si="2"/>
-        <v>17332.489999999998</v>
+        <v>0</v>
       </c>
       <c r="R38" s="46">
         <v>0</v>
@@ -35218,15 +35241,9 @@
       <c r="G39" s="92"/>
       <c r="H39" s="38"/>
       <c r="I39" s="98"/>
-      <c r="J39" s="370">
-        <v>45180</v>
-      </c>
-      <c r="K39" s="590" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L39" s="369">
-        <v>12062.52</v>
-      </c>
+      <c r="J39" s="370"/>
+      <c r="K39" s="590"/>
+      <c r="L39" s="369"/>
       <c r="M39" s="42">
         <v>0</v>
       </c>
@@ -35234,12 +35251,11 @@
         <v>0</v>
       </c>
       <c r="P39" s="69">
-        <f t="shared" si="0"/>
-        <v>129533.07</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="45">
         <f t="shared" si="2"/>
-        <v>129533.07</v>
+        <v>0</v>
       </c>
       <c r="R39" s="46">
         <v>0</v>
@@ -35261,14 +35277,14 @@
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
       <c r="I40" s="98"/>
-      <c r="J40" s="370">
-        <v>45182</v>
-      </c>
-      <c r="K40" s="590" t="s">
-        <v>1092</v>
-      </c>
-      <c r="L40" s="369">
-        <v>25895.52</v>
+      <c r="J40" s="374">
+        <v>45174</v>
+      </c>
+      <c r="K40" s="373" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="375">
+        <v>14500</v>
       </c>
       <c r="M40" s="42">
         <v>0</v>
@@ -35277,12 +35293,11 @@
         <v>0</v>
       </c>
       <c r="P40" s="69">
-        <f t="shared" si="0"/>
-        <v>63015.520000000004</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="45">
         <f t="shared" si="2"/>
-        <v>63015.520000000004</v>
+        <v>0</v>
       </c>
       <c r="R40" s="46">
         <v>0</v>
@@ -35305,13 +35320,13 @@
       <c r="H41" s="38"/>
       <c r="I41" s="103"/>
       <c r="J41" s="370">
-        <v>45183</v>
-      </c>
-      <c r="K41" s="591" t="s">
-        <v>1085</v>
+        <v>45175</v>
+      </c>
+      <c r="K41" s="373" t="s">
+        <v>1084</v>
       </c>
       <c r="L41" s="369">
-        <v>9973.0499999999993</v>
+        <v>850</v>
       </c>
       <c r="M41" s="42">
         <v>0</v>
@@ -35321,12 +35336,11 @@
       </c>
       <c r="O41" s="541"/>
       <c r="P41" s="69">
-        <f t="shared" si="0"/>
-        <v>37973.050000000003</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="45">
         <f t="shared" si="2"/>
-        <v>37973.050000000003</v>
+        <v>0</v>
       </c>
       <c r="R41" s="46">
         <v>0</v>
@@ -35348,14 +35362,14 @@
       <c r="G42" s="37"/>
       <c r="H42" s="38"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="367">
-        <v>45187</v>
-      </c>
-      <c r="K42" s="594" t="s">
-        <v>1096</v>
+      <c r="J42" s="370">
+        <v>45175</v>
+      </c>
+      <c r="K42" s="589" t="s">
+        <v>1085</v>
       </c>
       <c r="L42" s="369">
-        <v>2552</v>
+        <v>7189.18</v>
       </c>
       <c r="M42" s="42">
         <v>0</v>
@@ -35391,13 +35405,13 @@
       <c r="H43" s="38"/>
       <c r="I43" s="103"/>
       <c r="J43" s="370">
-        <v>45187</v>
+        <v>45176</v>
       </c>
       <c r="K43" s="590" t="s">
-        <v>225</v>
+        <v>1086</v>
       </c>
       <c r="L43" s="369">
-        <v>550</v>
+        <v>4908.49</v>
       </c>
       <c r="M43" s="42">
         <v>0</v>
@@ -35433,13 +35447,13 @@
       <c r="H44" s="38"/>
       <c r="I44" s="103"/>
       <c r="J44" s="370">
-        <v>45188</v>
-      </c>
-      <c r="K44" s="592" t="s">
-        <v>1085</v>
+        <v>45180</v>
+      </c>
+      <c r="K44" s="590" t="s">
+        <v>1088</v>
       </c>
       <c r="L44" s="369">
-        <v>8488</v>
+        <v>12062.52</v>
       </c>
       <c r="M44" s="42">
         <v>0</v>
@@ -35475,13 +35489,13 @@
       <c r="H45" s="38"/>
       <c r="I45" s="103"/>
       <c r="J45" s="370">
-        <v>45194</v>
+        <v>45182</v>
       </c>
       <c r="K45" s="590" t="s">
-        <v>331</v>
+        <v>1092</v>
       </c>
       <c r="L45" s="369">
-        <v>1856</v>
+        <v>25895.52</v>
       </c>
       <c r="M45" s="42">
         <v>0</v>
@@ -35517,13 +35531,13 @@
       <c r="H46" s="38"/>
       <c r="I46" s="103"/>
       <c r="J46" s="370">
-        <v>45194</v>
-      </c>
-      <c r="K46" s="590" t="s">
-        <v>704</v>
+        <v>45183</v>
+      </c>
+      <c r="K46" s="591" t="s">
+        <v>1085</v>
       </c>
       <c r="L46" s="369">
-        <v>12760</v>
+        <v>9973.0499999999993</v>
       </c>
       <c r="M46" s="42">
         <v>0</v>
@@ -35558,14 +35572,14 @@
       <c r="G47" s="37"/>
       <c r="H47" s="106"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="370">
-        <v>45196</v>
-      </c>
-      <c r="K47" s="593" t="s">
-        <v>228</v>
+      <c r="J47" s="367">
+        <v>45187</v>
+      </c>
+      <c r="K47" s="594" t="s">
+        <v>1096</v>
       </c>
       <c r="L47" s="369">
-        <v>1298.04</v>
+        <v>2552</v>
       </c>
       <c r="M47" s="42">
         <v>0</v>
@@ -35600,9 +35614,15 @@
       <c r="G48" s="37"/>
       <c r="H48" s="106"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="370"/>
-      <c r="K48" s="593"/>
-      <c r="L48" s="369"/>
+      <c r="J48" s="370">
+        <v>45187</v>
+      </c>
+      <c r="K48" s="590" t="s">
+        <v>225</v>
+      </c>
+      <c r="L48" s="369">
+        <v>550</v>
+      </c>
       <c r="M48" s="107"/>
       <c r="N48" s="44"/>
       <c r="P48" s="44">
@@ -35631,24 +35651,30 @@
       <c r="G49" s="37"/>
       <c r="H49" s="106"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="338"/>
-      <c r="K49" s="349"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="628">
+      <c r="J49" s="370">
+        <v>45188</v>
+      </c>
+      <c r="K49" s="592" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L49" s="369">
+        <v>8488</v>
+      </c>
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
-        <v>334002</v>
-      </c>
-      <c r="N49" s="628">
+        <v>641635</v>
+      </c>
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
-        <v>234498</v>
+        <v>432744</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1105956.06</v>
-      </c>
-      <c r="Q49" s="640">
+        <v>1249716.5</v>
+      </c>
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
-        <v>422334.06</v>
+        <v>1.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -35670,13 +35696,19 @@
       <c r="G50" s="37"/>
       <c r="H50" s="106"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="343"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="J50" s="370">
+        <v>45194</v>
+      </c>
+      <c r="K50" s="590" t="s">
+        <v>331</v>
+      </c>
+      <c r="L50" s="369">
+        <v>1856</v>
+      </c>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>36564</v>
@@ -35698,9 +35730,15 @@
       <c r="G51" s="37"/>
       <c r="H51" s="106"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="338"/>
-      <c r="K51" s="343"/>
-      <c r="L51" s="49"/>
+      <c r="J51" s="370">
+        <v>45194</v>
+      </c>
+      <c r="K51" s="590" t="s">
+        <v>704</v>
+      </c>
+      <c r="L51" s="369">
+        <v>12760</v>
+      </c>
       <c r="M51" s="113"/>
       <c r="N51" s="113"/>
       <c r="P51" s="44"/>
@@ -35722,9 +35760,15 @@
       <c r="G52" s="37"/>
       <c r="H52" s="106"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="363"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="55"/>
+      <c r="J52" s="370">
+        <v>45196</v>
+      </c>
+      <c r="K52" s="593" t="s">
+        <v>228</v>
+      </c>
+      <c r="L52" s="369">
+        <v>1298.04</v>
+      </c>
       <c r="M52" s="113"/>
       <c r="N52" s="113"/>
       <c r="P52" s="44"/>
@@ -35749,11 +35793,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
-        <v>568500</v>
-      </c>
-      <c r="N53" s="607"/>
+        <v>1074379</v>
+      </c>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36220,7 +36264,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5150332.8500000006</v>
+        <v>5179231.8500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36228,7 +36272,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>647058</v>
+        <v>1213151</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36236,7 +36280,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>15324.5</v>
+        <v>24285.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36244,7 +36288,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>113146.8</v>
+        <v>156675.14000000001</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -36262,50 +36306,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="636" t="s">
+      <c r="H81" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="637"/>
+      <c r="I81" s="628"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="638">
+      <c r="K81" s="629">
         <f>I79+L79</f>
-        <v>128471.3</v>
-      </c>
-      <c r="L81" s="639"/>
+        <v>180960.64000000001</v>
+      </c>
+      <c r="L81" s="630"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="630" t="s">
+      <c r="D82" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="630"/>
+      <c r="E82" s="621"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-4631746.1500000004</v>
+        <v>-4147041.4900000007</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="631" t="s">
+      <c r="D83" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="631"/>
+      <c r="E83" s="622"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="632" t="s">
+      <c r="I83" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="633"/>
-      <c r="K83" s="634">
+      <c r="J83" s="624"/>
+      <c r="K83" s="625">
         <f>F85+F86+F87</f>
-        <v>-4631746.1500000004</v>
-      </c>
-      <c r="L83" s="634"/>
+        <v>-4147041.4900000007</v>
+      </c>
+      <c r="L83" s="625"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -36339,18 +36383,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-4631746.1500000004</v>
+        <v>-4147041.4900000007</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="635">
+      <c r="K85" s="626">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="634"/>
+      <c r="L85" s="625"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36366,22 +36410,22 @@
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="172"/>
-      <c r="D87" s="623" t="s">
+      <c r="D87" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="624"/>
+      <c r="E87" s="615"/>
       <c r="F87" s="173">
         <v>0</v>
       </c>
-      <c r="I87" s="625" t="s">
+      <c r="I87" s="616" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="626"/>
-      <c r="K87" s="627">
+      <c r="J87" s="617"/>
+      <c r="K87" s="618">
         <f>K83+K85</f>
-        <v>-7778206.8100000005</v>
-      </c>
-      <c r="L87" s="627"/>
+        <v>-7293502.1500000004</v>
+      </c>
+      <c r="L87" s="618"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36526,6 +36570,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36542,12 +36592,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37590,10 +37634,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="645" t="s">
+      <c r="I49" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="646"/>
+      <c r="J49" s="648"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -37612,8 +37656,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="647"/>
-      <c r="J50" s="648"/>
+      <c r="I50" s="649"/>
+      <c r="J50" s="650"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -37632,8 +37676,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="649"/>
-      <c r="J51" s="650"/>
+      <c r="I51" s="651"/>
+      <c r="J51" s="652"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -37909,10 +37953,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="651" t="s">
+      <c r="I65" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="652"/>
+      <c r="J65" s="654"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -37935,8 +37979,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="660"/>
-      <c r="J66" s="661"/>
+      <c r="I66" s="662"/>
+      <c r="J66" s="663"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -38000,7 +38044,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="655" t="s">
+      <c r="G70" s="657" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -38016,7 +38060,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="656"/>
+      <c r="G71" s="658"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -39905,10 +39949,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="642"/>
-      <c r="J36" s="643"/>
-      <c r="K36" s="643"/>
-      <c r="L36" s="644"/>
+      <c r="I36" s="644"/>
+      <c r="J36" s="645"/>
+      <c r="K36" s="645"/>
+      <c r="L36" s="646"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -39935,10 +39979,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="642"/>
-      <c r="J37" s="643"/>
-      <c r="K37" s="643"/>
-      <c r="L37" s="644"/>
+      <c r="I37" s="644"/>
+      <c r="J37" s="645"/>
+      <c r="K37" s="645"/>
+      <c r="L37" s="646"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -39995,10 +40039,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="645" t="s">
+      <c r="I40" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="646"/>
+      <c r="J40" s="648"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -40017,8 +40061,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="647"/>
-      <c r="J41" s="648"/>
+      <c r="I41" s="649"/>
+      <c r="J41" s="650"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -40037,8 +40081,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="649"/>
-      <c r="J42" s="650"/>
+      <c r="I42" s="651"/>
+      <c r="J42" s="652"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -40542,10 +40586,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -40565,11 +40609,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="653"/>
-      <c r="J68" s="654"/>
+      <c r="I68" s="655"/>
+      <c r="J68" s="656"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -40580,7 +40624,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -41223,23 +41267,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41249,24 +41293,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="617" t="s">
+      <c r="R3" s="608" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41281,14 +41325,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41298,11 +41342,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="618"/>
+      <c r="R4" s="609"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43278,11 +43322,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -43290,7 +43334,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -43323,10 +43367,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -43417,11 +43461,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -43980,26 +44024,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="636" t="s">
+      <c r="H77" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="637"/>
+      <c r="I77" s="628"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="638">
+      <c r="K77" s="629">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="639"/>
+      <c r="L77" s="630"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="630" t="s">
+      <c r="D78" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="630"/>
+      <c r="E78" s="621"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -44008,22 +44052,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="631" t="s">
+      <c r="D79" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="631"/>
+      <c r="E79" s="622"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="632" t="s">
+      <c r="I79" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="633"/>
-      <c r="K79" s="634">
+      <c r="J79" s="624"/>
+      <c r="K79" s="625">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="634"/>
+      <c r="L79" s="625"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -44064,11 +44108,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="635">
+      <c r="K81" s="626">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="634"/>
+      <c r="L81" s="625"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -44085,22 +44129,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="623" t="s">
+      <c r="D83" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="624"/>
+      <c r="E83" s="615"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="657" t="s">
+      <c r="I83" s="659" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="658"/>
-      <c r="K83" s="659">
+      <c r="J83" s="660"/>
+      <c r="K83" s="661">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="659"/>
+      <c r="L83" s="661"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -44247,12 +44291,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44269,6 +44307,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45680,10 +45724,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="642"/>
-      <c r="J36" s="643"/>
-      <c r="K36" s="643"/>
-      <c r="L36" s="644"/>
+      <c r="I36" s="644"/>
+      <c r="J36" s="645"/>
+      <c r="K36" s="645"/>
+      <c r="L36" s="646"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -45710,10 +45754,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="642"/>
-      <c r="J37" s="643"/>
-      <c r="K37" s="643"/>
-      <c r="L37" s="644"/>
+      <c r="I37" s="644"/>
+      <c r="J37" s="645"/>
+      <c r="K37" s="645"/>
+      <c r="L37" s="646"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -45780,10 +45824,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="645" t="s">
+      <c r="I40" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="646"/>
+      <c r="J40" s="648"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -45802,8 +45846,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="647"/>
-      <c r="J41" s="648"/>
+      <c r="I41" s="649"/>
+      <c r="J41" s="650"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -45822,8 +45866,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="649"/>
-      <c r="J42" s="650"/>
+      <c r="I42" s="651"/>
+      <c r="J42" s="652"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -46327,10 +46371,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -46350,11 +46394,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="660"/>
-      <c r="J68" s="661"/>
+      <c r="I68" s="662"/>
+      <c r="J68" s="663"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -46365,7 +46409,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -46980,23 +47024,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47006,24 +47050,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -47038,14 +47082,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47055,11 +47099,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -49040,11 +49084,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -49052,7 +49096,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -49085,10 +49129,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -49179,11 +49223,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49662,26 +49706,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="636" t="s">
+      <c r="H77" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="637"/>
+      <c r="I77" s="628"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="638">
+      <c r="K77" s="629">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="639"/>
+      <c r="L77" s="630"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="630" t="s">
+      <c r="D78" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="630"/>
+      <c r="E78" s="621"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -49690,22 +49734,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="631" t="s">
+      <c r="D79" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="631"/>
+      <c r="E79" s="622"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="632" t="s">
+      <c r="I79" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="633"/>
-      <c r="K79" s="634">
+      <c r="J79" s="624"/>
+      <c r="K79" s="625">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="634"/>
+      <c r="L79" s="625"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -49746,11 +49790,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="635">
+      <c r="K81" s="626">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="634"/>
+      <c r="L81" s="625"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -49767,22 +49811,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="623" t="s">
+      <c r="D83" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="624"/>
+      <c r="E83" s="615"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="625" t="s">
+      <c r="I83" s="616" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="626"/>
-      <c r="K83" s="627">
+      <c r="J83" s="617"/>
+      <c r="K83" s="618">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="627"/>
+      <c r="L83" s="618"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -49929,6 +49973,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -49945,12 +49995,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51253,10 +51297,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="642"/>
-      <c r="J36" s="643"/>
-      <c r="K36" s="643"/>
-      <c r="L36" s="644"/>
+      <c r="I36" s="644"/>
+      <c r="J36" s="645"/>
+      <c r="K36" s="645"/>
+      <c r="L36" s="646"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -51273,10 +51317,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="642"/>
-      <c r="J37" s="643"/>
-      <c r="K37" s="643"/>
-      <c r="L37" s="644"/>
+      <c r="I37" s="644"/>
+      <c r="J37" s="645"/>
+      <c r="K37" s="645"/>
+      <c r="L37" s="646"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -51333,10 +51377,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="645" t="s">
+      <c r="I40" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="646"/>
+      <c r="J40" s="648"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -51355,8 +51399,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="647"/>
-      <c r="J41" s="648"/>
+      <c r="I41" s="649"/>
+      <c r="J41" s="650"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -51375,8 +51419,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="649"/>
-      <c r="J42" s="650"/>
+      <c r="I42" s="651"/>
+      <c r="J42" s="652"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -51880,10 +51924,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -51903,11 +51947,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="660"/>
-      <c r="J68" s="661"/>
+      <c r="I68" s="662"/>
+      <c r="J68" s="663"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -51918,7 +51962,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -52524,23 +52568,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52550,24 +52594,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -52582,14 +52626,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52599,11 +52643,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -54624,11 +54668,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -54636,7 +54680,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -54663,10 +54707,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -54740,11 +54784,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55373,26 +55417,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="636" t="s">
+      <c r="H79" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="637"/>
+      <c r="I79" s="628"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="638">
+      <c r="K79" s="629">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="639"/>
+      <c r="L79" s="630"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="630" t="s">
+      <c r="D80" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="630"/>
+      <c r="E80" s="621"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -55401,22 +55445,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="631" t="s">
+      <c r="D81" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="631"/>
+      <c r="E81" s="622"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="632" t="s">
+      <c r="I81" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="633"/>
-      <c r="K81" s="634">
+      <c r="J81" s="624"/>
+      <c r="K81" s="625">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="634"/>
+      <c r="L81" s="625"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55457,11 +55501,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="635">
+      <c r="K83" s="626">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="634"/>
+      <c r="L83" s="625"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55478,22 +55522,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="623" t="s">
+      <c r="D85" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="624"/>
+      <c r="E85" s="615"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="625" t="s">
+      <c r="I85" s="616" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="626"/>
-      <c r="K85" s="627">
+      <c r="J85" s="617"/>
+      <c r="K85" s="618">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="627"/>
+      <c r="L85" s="618"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -55641,12 +55685,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -55663,6 +55701,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56982,10 +57026,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="642"/>
-      <c r="J36" s="643"/>
-      <c r="K36" s="643"/>
-      <c r="L36" s="644"/>
+      <c r="I36" s="644"/>
+      <c r="J36" s="645"/>
+      <c r="K36" s="645"/>
+      <c r="L36" s="646"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -57008,10 +57052,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="642"/>
-      <c r="J37" s="643"/>
-      <c r="K37" s="643"/>
-      <c r="L37" s="644"/>
+      <c r="I37" s="644"/>
+      <c r="J37" s="645"/>
+      <c r="K37" s="645"/>
+      <c r="L37" s="646"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -57086,10 +57130,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="645" t="s">
+      <c r="I40" s="647" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="646"/>
+      <c r="J40" s="648"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -57114,8 +57158,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="647"/>
-      <c r="J41" s="648"/>
+      <c r="I41" s="649"/>
+      <c r="J41" s="650"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -57140,8 +57184,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="649"/>
-      <c r="J42" s="650"/>
+      <c r="I42" s="651"/>
+      <c r="J42" s="652"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -57663,10 +57707,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="651" t="s">
+      <c r="I67" s="653" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="652"/>
+      <c r="J67" s="654"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -57686,11 +57730,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="655" t="s">
+      <c r="G68" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="660"/>
-      <c r="J68" s="661"/>
+      <c r="I68" s="662"/>
+      <c r="J68" s="663"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -57701,7 +57745,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="656"/>
+      <c r="G69" s="658"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -58317,23 +58361,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="610"/>
-      <c r="C1" s="612" t="s">
+      <c r="B1" s="637"/>
+      <c r="C1" s="639" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="613"/>
-      <c r="E1" s="613"/>
-      <c r="F1" s="613"/>
-      <c r="G1" s="613"/>
-      <c r="H1" s="613"/>
-      <c r="I1" s="613"/>
-      <c r="J1" s="613"/>
-      <c r="K1" s="613"/>
-      <c r="L1" s="613"/>
-      <c r="M1" s="613"/>
+      <c r="D1" s="640"/>
+      <c r="E1" s="640"/>
+      <c r="F1" s="640"/>
+      <c r="G1" s="640"/>
+      <c r="H1" s="640"/>
+      <c r="I1" s="640"/>
+      <c r="J1" s="640"/>
+      <c r="K1" s="640"/>
+      <c r="L1" s="640"/>
+      <c r="M1" s="640"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="611"/>
+      <c r="B2" s="638"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58343,27 +58387,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="614" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="615"/>
+      <c r="B3" s="641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="642"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="616" t="s">
+      <c r="H3" s="643" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="616"/>
+      <c r="I3" s="643"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="608" t="s">
+      <c r="P3" s="635" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="662" t="s">
+      <c r="R3" s="664" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58378,14 +58422,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="619" t="s">
+      <c r="E4" s="610" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="620"/>
-      <c r="H4" s="621" t="s">
+      <c r="F4" s="611"/>
+      <c r="H4" s="612" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="622"/>
+      <c r="I4" s="613"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58395,11 +58439,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="609"/>
+      <c r="P4" s="636"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="663"/>
+      <c r="R4" s="665"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -60402,11 +60446,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="628">
+      <c r="M49" s="619">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="628">
+      <c r="N49" s="619">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -60414,7 +60458,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="640">
+      <c r="Q49" s="631">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60447,10 +60491,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="629"/>
-      <c r="N50" s="629"/>
+      <c r="M50" s="620"/>
+      <c r="N50" s="620"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="641"/>
+      <c r="Q50" s="632"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60529,11 +60573,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="606">
+      <c r="M53" s="633">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="607"/>
+      <c r="N53" s="634"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61012,26 +61056,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="636" t="s">
+      <c r="H77" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="637"/>
+      <c r="I77" s="628"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="638">
+      <c r="K77" s="629">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="639"/>
+      <c r="L77" s="630"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="630" t="s">
+      <c r="D78" s="621" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="630"/>
+      <c r="E78" s="621"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -61040,22 +61084,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="631" t="s">
+      <c r="D79" s="622" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="631"/>
+      <c r="E79" s="622"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="632" t="s">
+      <c r="I79" s="623" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="633"/>
-      <c r="K79" s="634">
+      <c r="J79" s="624"/>
+      <c r="K79" s="625">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="634"/>
+      <c r="L79" s="625"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -61096,11 +61140,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="635">
+      <c r="K81" s="626">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="634"/>
+      <c r="L81" s="625"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -61117,22 +61161,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="623" t="s">
+      <c r="D83" s="614" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="624"/>
+      <c r="E83" s="615"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="657" t="s">
+      <c r="I83" s="659" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="658"/>
-      <c r="K83" s="659">
+      <c r="J83" s="660"/>
+      <c r="K83" s="661">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="659"/>
+      <c r="L83" s="661"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -61280,6 +61324,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61296,12 +61346,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1129">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4060,6 +4060,42 @@
   </si>
   <si>
     <t>NOMINA # 36</t>
+  </si>
+  <si>
+    <t>MAIZ-PICAÑA-CHISTORRA-LONGANIZA-CHORIZO-SALCHICHA</t>
+  </si>
+  <si>
+    <t>QUESOS-CHISTORRA-SALCHICHA-POLLO-SAL-TOSTADAS-</t>
+  </si>
+  <si>
+    <t>POLLO-PASTOR-QUESOS-JAMON-SALCHICHA-BIMBO-CHIMICHURI-ARABE</t>
+  </si>
+  <si>
+    <t>MULTA DARIO</t>
+  </si>
+  <si>
+    <t>MAIZ-HIERVAS-SALCHICHA-POLLO-PASTOR-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>HABRIO EL 20 DE OCTUBRE 2021</t>
+  </si>
+  <si>
+    <t>POLLO-LONGANIZA-PASTOR-MAIZ-PAN ARABE</t>
+  </si>
+  <si>
+    <t>QUESO AZUL--PATA</t>
+  </si>
+  <si>
+    <t>NOMINA # 37 y Vacaciones Erika</t>
+  </si>
+  <si>
+    <t>QUESOS-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                           </t>
+  </si>
+  <si>
+    <t>QUESOS-CHORIZO-PATA-PAVO-JAMON-</t>
   </si>
 </sst>
 </file>
@@ -4074,7 +4110,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4489,8 +4525,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF990099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF990099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4635,8 +4687,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="91">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -5766,12 +5824,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="667">
+  <cellXfs count="679">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6934,6 +7029,30 @@
     <xf numFmtId="44" fontId="19" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="51" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="16" fillId="19" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="52" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="52" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7108,8 +7227,14 @@
     <xf numFmtId="44" fontId="2" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="165" fontId="17" fillId="25" borderId="91" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="25" borderId="92" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="25" borderId="93" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7120,16 +7245,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990099"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFFCC99"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFFCC00"/>
-      <color rgb="FFCC9900"/>
       <color rgb="FF66FF66"/>
-      <color rgb="FF990099"/>
-      <color rgb="FF800080"/>
-      <color rgb="FFCCFF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -11396,23 +11521,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11422,24 +11547,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="608" t="s">
+      <c r="R3" s="618" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11454,14 +11579,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11471,11 +11596,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="609"/>
+      <c r="R4" s="619"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13310,11 +13435,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13322,7 +13447,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13343,10 +13468,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13401,11 +13526,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13830,26 +13955,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -13858,22 +13983,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -13914,11 +14039,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -13935,22 +14060,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="616" t="s">
+      <c r="I83" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="617"/>
-      <c r="K83" s="618">
+      <c r="J83" s="627"/>
+      <c r="K83" s="628">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="618"/>
+      <c r="L83" s="628"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -15288,10 +15413,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="647" t="s">
+      <c r="I37" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="648"/>
+      <c r="J37" s="658"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -15310,8 +15435,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="649"/>
-      <c r="J38" s="650"/>
+      <c r="I38" s="659"/>
+      <c r="J38" s="660"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -15330,8 +15455,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="651"/>
-      <c r="J39" s="652"/>
+      <c r="I39" s="661"/>
+      <c r="J39" s="662"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -15889,10 +16014,10 @@
         <f>SUM(G3:G66)</f>
         <v>1542483.7999999996</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>113965</v>
@@ -15914,11 +16039,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="662"/>
-      <c r="J68" s="663"/>
+      <c r="I68" s="672"/>
+      <c r="J68" s="673"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -15929,7 +16054,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -16517,23 +16642,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16543,27 +16668,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16578,14 +16703,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16595,11 +16720,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -18655,11 +18780,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18667,7 +18792,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18700,10 +18825,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18788,11 +18913,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19121,26 +19246,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="627" t="s">
+      <c r="H69" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="628"/>
+      <c r="I69" s="638"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="629">
+      <c r="K69" s="639">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="630"/>
+      <c r="L69" s="640"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="621" t="s">
+      <c r="D70" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="621"/>
+      <c r="E70" s="631"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19149,23 +19274,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="622" t="s">
+      <c r="D71" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="622"/>
+      <c r="E71" s="632"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="623" t="s">
+      <c r="I71" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="624"/>
-      <c r="K71" s="625">
+      <c r="J71" s="634"/>
+      <c r="K71" s="635">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="625"/>
+      <c r="L71" s="635"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19207,11 +19332,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="626">
+      <c r="K73" s="636">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="625"/>
+      <c r="L73" s="635"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19228,22 +19353,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="614" t="s">
+      <c r="D75" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="615"/>
+      <c r="E75" s="625"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="616" t="s">
+      <c r="I75" s="626" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="617"/>
-      <c r="K75" s="618">
+      <c r="J75" s="627"/>
+      <c r="K75" s="628">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="618"/>
+      <c r="L75" s="628"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -20582,10 +20707,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="647" t="s">
+      <c r="I37" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="648"/>
+      <c r="J37" s="658"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -20604,8 +20729,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I38" s="649"/>
-      <c r="J38" s="650"/>
+      <c r="I38" s="659"/>
+      <c r="J38" s="660"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -20624,8 +20749,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="651"/>
-      <c r="J39" s="652"/>
+      <c r="I39" s="661"/>
+      <c r="J39" s="662"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -21183,10 +21308,10 @@
         <f>SUM(G3:G66)</f>
         <v>1585182.9300000004</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121417.2</v>
@@ -21208,11 +21333,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="662"/>
-      <c r="J68" s="663"/>
+      <c r="I68" s="672"/>
+      <c r="J68" s="673"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -21223,7 +21348,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -21812,23 +21937,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21838,25 +21963,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -21871,14 +21996,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -21888,11 +22013,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -24021,11 +24146,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24033,7 +24158,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24066,10 +24191,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24160,11 +24285,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24541,26 +24666,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="627" t="s">
+      <c r="H69" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="628"/>
+      <c r="I69" s="638"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="629">
+      <c r="K69" s="639">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="630"/>
+      <c r="L69" s="640"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="621" t="s">
+      <c r="D70" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="621"/>
+      <c r="E70" s="631"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24569,22 +24694,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="622" t="s">
+      <c r="D71" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="622"/>
+      <c r="E71" s="632"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="623" t="s">
+      <c r="I71" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="624"/>
-      <c r="K71" s="625">
+      <c r="J71" s="634"/>
+      <c r="K71" s="635">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="625"/>
+      <c r="L71" s="635"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24629,11 +24754,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="626">
+      <c r="K73" s="636">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="625"/>
+      <c r="L73" s="635"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24654,22 +24779,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="614" t="s">
+      <c r="D75" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="615"/>
+      <c r="E75" s="625"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="616" t="s">
+      <c r="I75" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="617"/>
-      <c r="K75" s="618">
+      <c r="J75" s="627"/>
+      <c r="K75" s="628">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="618"/>
+      <c r="L75" s="628"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -26106,10 +26231,10 @@
         <f t="shared" si="0"/>
         <v>9903.85</v>
       </c>
-      <c r="I37" s="647" t="s">
+      <c r="I37" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="648"/>
+      <c r="J37" s="658"/>
       <c r="K37" s="491"/>
       <c r="L37" s="491"/>
       <c r="M37" s="101"/>
@@ -26134,8 +26259,8 @@
         <f t="shared" si="0"/>
         <v>11767.68</v>
       </c>
-      <c r="I38" s="649"/>
-      <c r="J38" s="650"/>
+      <c r="I38" s="659"/>
+      <c r="J38" s="660"/>
       <c r="K38" s="490"/>
       <c r="L38" s="218"/>
       <c r="M38" s="101"/>
@@ -26160,8 +26285,8 @@
         <f t="shared" si="0"/>
         <v>24157.14</v>
       </c>
-      <c r="I39" s="651"/>
-      <c r="J39" s="652"/>
+      <c r="I39" s="661"/>
+      <c r="J39" s="662"/>
       <c r="K39" s="84"/>
       <c r="L39" s="238"/>
       <c r="M39" s="84"/>
@@ -26767,10 +26892,10 @@
         <f>SUM(G3:G66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>122543.6</v>
@@ -26792,11 +26917,11 @@
       </c>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="662"/>
-      <c r="J68" s="663"/>
+      <c r="I68" s="672"/>
+      <c r="J68" s="673"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -26807,7 +26932,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -27395,23 +27520,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27421,25 +27546,25 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -27454,14 +27579,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27471,11 +27596,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -29334,7 +29459,7 @@
       <c r="J40" s="595">
         <v>45171</v>
       </c>
-      <c r="K40" s="666" t="s">
+      <c r="K40" s="608" t="s">
         <v>1111</v>
       </c>
       <c r="L40" s="597">
@@ -29702,11 +29827,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -29714,7 +29839,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -29747,10 +29872,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -29841,11 +29966,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30560,26 +30685,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="627" t="s">
+      <c r="H81" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="628"/>
+      <c r="I81" s="638"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="629">
+      <c r="K81" s="639">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="630"/>
+      <c r="L81" s="640"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="621" t="s">
+      <c r="D82" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="621"/>
+      <c r="E82" s="631"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-1236634.8499999987</v>
@@ -30588,22 +30713,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="622" t="s">
+      <c r="D83" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="622"/>
+      <c r="E83" s="632"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="623" t="s">
+      <c r="I83" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="624"/>
-      <c r="K83" s="625">
+      <c r="J83" s="634"/>
+      <c r="K83" s="635">
         <f>F85+F86+F87</f>
         <v>552770.9000000013</v>
       </c>
-      <c r="L83" s="625"/>
+      <c r="L83" s="635"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30644,11 +30769,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="626">
+      <c r="K85" s="636">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="625"/>
+      <c r="L85" s="635"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30666,22 +30791,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="614" t="s">
+      <c r="D87" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="615"/>
+      <c r="E87" s="625"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="616" t="s">
+      <c r="I87" s="626" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="617"/>
-      <c r="K87" s="618">
+      <c r="J87" s="627"/>
+      <c r="K87" s="628">
         <f>K83+K85</f>
         <v>-2267780.4099999988</v>
       </c>
-      <c r="L87" s="618"/>
+      <c r="L87" s="628"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -32592,10 +32717,10 @@
         <f t="shared" si="0"/>
         <v>11880</v>
       </c>
-      <c r="I49" s="647" t="s">
+      <c r="I49" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="648"/>
+      <c r="J49" s="658"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -32620,8 +32745,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="649"/>
-      <c r="J50" s="650"/>
+      <c r="I50" s="659"/>
+      <c r="J50" s="660"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -32646,8 +32771,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="651"/>
-      <c r="J51" s="652"/>
+      <c r="I51" s="661"/>
+      <c r="J51" s="662"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -33007,10 +33132,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="653" t="s">
+      <c r="I65" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="654"/>
+      <c r="J65" s="664"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>226585.60000000003</v>
@@ -33039,8 +33164,8 @@
         <f t="shared" ref="G66:G68" si="2">D66-F66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="662"/>
-      <c r="J66" s="663"/>
+      <c r="I66" s="672"/>
+      <c r="J66" s="673"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -33116,7 +33241,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="657" t="s">
+      <c r="G70" s="667" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -33132,7 +33257,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="658"/>
+      <c r="G71" s="668"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -33648,10 +33773,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33676,52 +33801,55 @@
     <col min="18" max="18" width="15.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+    <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
-    </row>
-    <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
+    </row>
+    <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="676" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K2" s="677"/>
+      <c r="L2" s="677"/>
+      <c r="M2" s="678"/>
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -33736,14 +33864,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33753,11 +33881,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="504" t="s">
@@ -33796,7 +33924,7 @@
         <v>46194</v>
       </c>
       <c r="P5" s="44">
-        <f t="shared" ref="P5:P41" si="0">N5+M5+L5+I5+C5</f>
+        <f t="shared" ref="P5:P33" si="0">N5+M5+L5+I5+C5</f>
         <v>181651</v>
       </c>
       <c r="Q5" s="45">
@@ -34145,30 +34273,39 @@
       <c r="B12" s="32">
         <v>45179</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="33">
+        <v>44079</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>1117</v>
+      </c>
       <c r="E12" s="35">
         <v>45179</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="36">
+        <v>159182</v>
+      </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38">
         <v>45179</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="39">
+        <v>1443</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="342"/>
       <c r="L12" s="49"/>
       <c r="M12" s="42">
-        <v>0</v>
+        <f>52976+7793</f>
+        <v>60769</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>52891</v>
       </c>
       <c r="O12" s="192"/>
       <c r="P12" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159182</v>
       </c>
       <c r="Q12" s="45">
         <f t="shared" si="1"/>
@@ -34189,30 +34326,39 @@
       <c r="B13" s="32">
         <v>45180</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="33">
+        <v>32587</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>1118</v>
+      </c>
       <c r="E13" s="35">
         <v>45180</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="36">
+        <v>158756</v>
+      </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38">
         <v>45180</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="39">
+        <v>2626</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="343"/>
       <c r="L13" s="49"/>
       <c r="M13" s="42">
-        <v>0</v>
+        <f>64743+3089+1319+1291</f>
+        <v>70442</v>
       </c>
       <c r="N13" s="43">
-        <v>0</v>
+        <v>53101</v>
       </c>
       <c r="O13" s="192"/>
       <c r="P13" s="49">
         <f>N13+M13+L13+I13+C13</f>
-        <v>0</v>
+        <v>158756</v>
       </c>
       <c r="Q13" s="45">
         <f t="shared" si="1"/>
@@ -34233,30 +34379,45 @@
       <c r="B14" s="32">
         <v>45181</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="50"/>
+      <c r="C14" s="33">
+        <v>23074</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>1119</v>
+      </c>
       <c r="E14" s="35">
         <v>45181</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="36">
+        <v>257318</v>
+      </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38">
         <v>45181</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="49"/>
+      <c r="I14" s="39">
+        <v>7004.5</v>
+      </c>
+      <c r="J14" s="40">
+        <v>45181</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L14" s="49">
+        <v>4000</v>
+      </c>
       <c r="M14" s="42">
-        <v>0</v>
+        <f>147183.5+1576+2533+17586</f>
+        <v>168878.5</v>
       </c>
       <c r="N14" s="43">
-        <v>0</v>
+        <v>54361</v>
       </c>
       <c r="O14" s="193"/>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>257318</v>
       </c>
       <c r="Q14" s="45">
         <f t="shared" si="1"/>
@@ -34277,29 +34438,38 @@
       <c r="B15" s="32">
         <v>45182</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="33">
+        <v>24794</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>1121</v>
+      </c>
       <c r="E15" s="35">
         <v>45182</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="36">
+        <v>228899</v>
+      </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38">
         <v>45182</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="39">
+        <v>2640</v>
+      </c>
       <c r="J15" s="40"/>
       <c r="K15" s="65"/>
       <c r="L15" s="49"/>
       <c r="M15" s="42">
-        <v>0</v>
+        <f>146305+4331+7700</f>
+        <v>158336</v>
       </c>
       <c r="N15" s="43">
-        <v>0</v>
+        <v>43129</v>
       </c>
       <c r="P15" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228899</v>
       </c>
       <c r="Q15" s="45">
         <f t="shared" si="1"/>
@@ -34320,29 +34490,38 @@
       <c r="B16" s="32">
         <v>45183</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="33">
+        <v>11260</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="E16" s="35">
         <v>45183</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="36">
+        <v>232537</v>
+      </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38">
         <v>45183</v>
       </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="39">
+        <v>2208</v>
+      </c>
       <c r="J16" s="40"/>
       <c r="K16" s="342"/>
       <c r="L16" s="13"/>
       <c r="M16" s="42">
-        <v>0</v>
+        <f>120768+6312</f>
+        <v>127080</v>
       </c>
       <c r="N16" s="43">
-        <v>0</v>
+        <v>91989</v>
       </c>
       <c r="P16" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>232537</v>
       </c>
       <c r="Q16" s="45">
         <f t="shared" si="1"/>
@@ -34365,34 +34544,43 @@
       <c r="B17" s="32">
         <v>45184</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="33">
+        <v>26812.5</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>1123</v>
+      </c>
       <c r="E17" s="35">
         <v>45184</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="36">
+        <v>290893</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38">
         <v>45184</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="39">
+        <v>6352</v>
+      </c>
       <c r="J17" s="40"/>
       <c r="K17" s="65"/>
       <c r="L17" s="55"/>
       <c r="M17" s="42">
-        <v>0</v>
+        <f>156959.5+2354+7354</f>
+        <v>166667.5</v>
       </c>
       <c r="N17" s="43">
-        <v>0</v>
+        <v>91065</v>
       </c>
       <c r="O17" s="499"/>
       <c r="P17" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>290897</v>
       </c>
       <c r="Q17" s="45">
         <f t="shared" ref="Q17:Q47" si="2">P17-F17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" s="46">
         <v>0</v>
@@ -34409,36 +34597,52 @@
       <c r="B18" s="32">
         <v>45185</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="33">
+        <v>3272</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>1124</v>
+      </c>
       <c r="E18" s="35">
         <v>45185</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="36">
+        <v>198225</v>
+      </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38">
         <v>45185</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="49"/>
+      <c r="I18" s="39">
+        <v>3920</v>
+      </c>
+      <c r="J18" s="40">
+        <v>45185</v>
+      </c>
+      <c r="K18" s="616" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L18" s="49">
+        <f>27493+3714</f>
+        <v>31207</v>
+      </c>
       <c r="M18" s="42">
-        <v>0</v>
+        <f>82182+667</f>
+        <v>82849</v>
       </c>
       <c r="N18" s="43">
-        <v>0</v>
+        <v>76977</v>
       </c>
       <c r="P18" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>198225</v>
       </c>
       <c r="Q18" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="46">
-        <v>0</v>
+      <c r="R18" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="S18" s="233"/>
       <c r="T18" s="233"/>
@@ -34452,37 +34656,45 @@
       <c r="B19" s="32">
         <v>45186</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="33">
+        <v>4078</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>1126</v>
+      </c>
       <c r="E19" s="35">
         <v>45186</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="36">
+        <v>117326</v>
+      </c>
       <c r="G19" s="37"/>
       <c r="H19" s="38">
         <v>45186</v>
       </c>
-      <c r="I19" s="39"/>
+      <c r="I19" s="39">
+        <v>1034</v>
+      </c>
       <c r="J19" s="40"/>
       <c r="K19" s="344"/>
       <c r="L19" s="59"/>
       <c r="M19" s="42">
-        <v>0</v>
+        <v>59893</v>
       </c>
       <c r="N19" s="43">
-        <v>0</v>
+        <v>52321</v>
       </c>
       <c r="O19" s="499"/>
       <c r="P19" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117326</v>
       </c>
       <c r="Q19" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R19" s="46">
-        <v>0</v>
+      <c r="R19" s="46" t="s">
+        <v>1127</v>
       </c>
       <c r="S19" s="233"/>
       <c r="T19" s="233"/>
@@ -34496,29 +34708,37 @@
       <c r="B20" s="32">
         <v>45187</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="33">
+        <v>17605</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>1128</v>
+      </c>
       <c r="E20" s="35">
         <v>45187</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="36">
+        <v>133913</v>
+      </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38">
         <v>45187</v>
       </c>
-      <c r="I20" s="39"/>
+      <c r="I20" s="39">
+        <v>3061</v>
+      </c>
       <c r="J20" s="40"/>
       <c r="K20" s="60"/>
       <c r="L20" s="55"/>
       <c r="M20" s="42">
-        <v>0</v>
+        <v>63389</v>
       </c>
       <c r="N20" s="43">
-        <v>0</v>
+        <v>49858</v>
       </c>
       <c r="P20" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133913</v>
       </c>
       <c r="Q20" s="45">
         <f t="shared" si="2"/>
@@ -35052,13 +35272,13 @@
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="370">
+      <c r="J34" s="609">
         <v>45178</v>
       </c>
-      <c r="K34" s="373" t="s">
+      <c r="K34" s="610" t="s">
         <v>1116</v>
       </c>
-      <c r="L34" s="369">
+      <c r="L34" s="611">
         <v>21173.34</v>
       </c>
       <c r="M34" s="42">
@@ -35081,7 +35301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="504"/>
       <c r="B35" s="32">
         <v>45174</v>
@@ -35097,9 +35317,16 @@
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="374"/>
-      <c r="K35" s="373"/>
-      <c r="L35" s="375"/>
+      <c r="J35" s="612">
+        <v>45185</v>
+      </c>
+      <c r="K35" s="617" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L35" s="613">
+        <f>31643+4151</f>
+        <v>35794</v>
+      </c>
       <c r="M35" s="42">
         <v>0</v>
       </c>
@@ -35133,9 +35360,9 @@
       <c r="G36" s="92"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="370"/>
-      <c r="K36" s="373"/>
-      <c r="L36" s="369"/>
+      <c r="J36" s="609"/>
+      <c r="K36" s="610"/>
+      <c r="L36" s="611"/>
       <c r="M36" s="42">
         <v>0</v>
       </c>
@@ -35169,9 +35396,9 @@
       <c r="G37" s="92"/>
       <c r="H37" s="38"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="370"/>
-      <c r="K37" s="589"/>
-      <c r="L37" s="369"/>
+      <c r="J37" s="609"/>
+      <c r="K37" s="614"/>
+      <c r="L37" s="611"/>
       <c r="M37" s="42">
         <v>0</v>
       </c>
@@ -35205,9 +35432,9 @@
       <c r="G38" s="92"/>
       <c r="H38" s="38"/>
       <c r="I38" s="39"/>
-      <c r="J38" s="370"/>
-      <c r="K38" s="590"/>
-      <c r="L38" s="369"/>
+      <c r="J38" s="609"/>
+      <c r="K38" s="615"/>
+      <c r="L38" s="611"/>
       <c r="M38" s="42">
         <v>0</v>
       </c>
@@ -35660,21 +35887,21 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
-        <v>641635</v>
-      </c>
-      <c r="N49" s="619">
+        <v>1599939</v>
+      </c>
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
-        <v>432744</v>
+        <v>998436</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>1249716.5</v>
-      </c>
-      <c r="Q49" s="631">
+        <v>3026769.5</v>
+      </c>
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -35705,10 +35932,10 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>36564</v>
@@ -35793,11 +36020,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
-        <v>1074379</v>
-      </c>
-      <c r="N53" s="634"/>
+        <v>2598375</v>
+      </c>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36264,7 +36491,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5179231.8500000006</v>
+        <v>5366793.3500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36272,7 +36499,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>1213151</v>
+        <v>2990200</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36280,7 +36507,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>24285.5</v>
+        <v>54574</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36288,7 +36515,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>156675.14000000001</v>
+        <v>227676.13999999996</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -36306,50 +36533,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="627" t="s">
+      <c r="H81" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="628"/>
+      <c r="I81" s="638"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="629">
+      <c r="K81" s="639">
         <f>I79+L79</f>
-        <v>180960.64000000001</v>
-      </c>
-      <c r="L81" s="630"/>
+        <v>282250.13999999996</v>
+      </c>
+      <c r="L81" s="640"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="621" t="s">
+      <c r="D82" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="621"/>
+      <c r="E82" s="631"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-4147041.4900000007</v>
+        <v>-2658843.4900000007</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="622" t="s">
+      <c r="D83" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="622"/>
+      <c r="E83" s="632"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="623" t="s">
+      <c r="I83" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="624"/>
-      <c r="K83" s="625">
+      <c r="J83" s="634"/>
+      <c r="K83" s="635">
         <f>F85+F86+F87</f>
-        <v>-4147041.4900000007</v>
-      </c>
-      <c r="L83" s="625"/>
+        <v>-2658843.4900000007</v>
+      </c>
+      <c r="L83" s="635"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -36383,18 +36610,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-4147041.4900000007</v>
+        <v>-2658843.4900000007</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="626">
+      <c r="K85" s="636">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="625"/>
+      <c r="L85" s="635"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36410,22 +36637,22 @@
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="172"/>
-      <c r="D87" s="614" t="s">
+      <c r="D87" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="615"/>
+      <c r="E87" s="625"/>
       <c r="F87" s="173">
         <v>0</v>
       </c>
-      <c r="I87" s="616" t="s">
+      <c r="I87" s="626" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="617"/>
-      <c r="K87" s="618">
+      <c r="J87" s="627"/>
+      <c r="K87" s="628">
         <f>K83+K85</f>
-        <v>-7293502.1500000004</v>
-      </c>
-      <c r="L87" s="618"/>
+        <v>-5805304.1500000004</v>
+      </c>
+      <c r="L87" s="628"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36569,13 +36796,14 @@
       <c r="F109" s="189"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36594,8 +36822,9 @@
     <mergeCell ref="Q49:Q50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -37634,10 +37863,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I49" s="647" t="s">
+      <c r="I49" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="648"/>
+      <c r="J49" s="658"/>
       <c r="K49" s="108"/>
       <c r="L49" s="177"/>
       <c r="M49" s="44"/>
@@ -37656,8 +37885,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I50" s="649"/>
-      <c r="J50" s="650"/>
+      <c r="I50" s="659"/>
+      <c r="J50" s="660"/>
       <c r="K50" s="108"/>
       <c r="L50" s="177"/>
       <c r="M50" s="44"/>
@@ -37676,8 +37905,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I51" s="651"/>
-      <c r="J51" s="652"/>
+      <c r="I51" s="661"/>
+      <c r="J51" s="662"/>
       <c r="K51" s="108"/>
       <c r="L51" s="177"/>
       <c r="M51" s="44"/>
@@ -37953,10 +38182,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I65" s="653" t="s">
+      <c r="I65" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J65" s="654"/>
+      <c r="J65" s="664"/>
       <c r="K65" s="560">
         <f>SUM(K3:K64)</f>
         <v>0</v>
@@ -37979,8 +38208,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I66" s="662"/>
-      <c r="J66" s="663"/>
+      <c r="I66" s="672"/>
+      <c r="J66" s="673"/>
       <c r="K66" s="150"/>
       <c r="L66" s="269"/>
       <c r="M66" s="5"/>
@@ -38044,7 +38273,7 @@
       <c r="D70" s="480"/>
       <c r="E70" s="269"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="657" t="s">
+      <c r="G70" s="667" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="233"/>
@@ -38060,7 +38289,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="269"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="658"/>
+      <c r="G71" s="668"/>
       <c r="H71" s="233"/>
       <c r="I71" s="303"/>
       <c r="J71" s="550"/>
@@ -39949,10 +40178,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="644"/>
-      <c r="J36" s="645"/>
-      <c r="K36" s="645"/>
-      <c r="L36" s="646"/>
+      <c r="I36" s="654"/>
+      <c r="J36" s="655"/>
+      <c r="K36" s="655"/>
+      <c r="L36" s="656"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -39979,10 +40208,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="644"/>
-      <c r="J37" s="645"/>
-      <c r="K37" s="645"/>
-      <c r="L37" s="646"/>
+      <c r="I37" s="654"/>
+      <c r="J37" s="655"/>
+      <c r="K37" s="655"/>
+      <c r="L37" s="656"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -40039,10 +40268,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="647" t="s">
+      <c r="I40" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="648"/>
+      <c r="J40" s="658"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -40061,8 +40290,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="649"/>
-      <c r="J41" s="650"/>
+      <c r="I41" s="659"/>
+      <c r="J41" s="660"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -40081,8 +40310,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="651"/>
-      <c r="J42" s="652"/>
+      <c r="I42" s="661"/>
+      <c r="J42" s="662"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -40586,10 +40815,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>92013.200000000012</v>
@@ -40609,11 +40838,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="655"/>
-      <c r="J68" s="656"/>
+      <c r="I68" s="665"/>
+      <c r="J68" s="666"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -40624,7 +40853,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="K69" s="1"/>
       <c r="L69" s="269"/>
       <c r="M69" s="5"/>
@@ -41267,23 +41496,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41293,24 +41522,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="608" t="s">
+      <c r="R3" s="618" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41325,14 +41554,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41342,11 +41571,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="609"/>
+      <c r="R4" s="619"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43322,11 +43551,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -43334,7 +43563,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -43367,10 +43596,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -43461,11 +43690,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -44024,26 +44253,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -44052,22 +44281,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -44108,11 +44337,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -44129,22 +44358,22 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
-      <c r="I83" s="659" t="s">
+      <c r="I83" s="669" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="660"/>
-      <c r="K83" s="661">
+      <c r="J83" s="670"/>
+      <c r="K83" s="671">
         <f>K79+K81</f>
         <v>442343.48</v>
       </c>
-      <c r="L83" s="661"/>
+      <c r="L83" s="671"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -45724,10 +45953,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="644"/>
-      <c r="J36" s="645"/>
-      <c r="K36" s="645"/>
-      <c r="L36" s="646"/>
+      <c r="I36" s="654"/>
+      <c r="J36" s="655"/>
+      <c r="K36" s="655"/>
+      <c r="L36" s="656"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -45754,10 +45983,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="644"/>
-      <c r="J37" s="645"/>
-      <c r="K37" s="645"/>
-      <c r="L37" s="646"/>
+      <c r="I37" s="654"/>
+      <c r="J37" s="655"/>
+      <c r="K37" s="655"/>
+      <c r="L37" s="656"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -45824,10 +46053,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="647" t="s">
+      <c r="I40" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="648"/>
+      <c r="J40" s="658"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -45846,8 +46075,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="649"/>
-      <c r="J41" s="650"/>
+      <c r="I41" s="659"/>
+      <c r="J41" s="660"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -45866,8 +46095,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="651"/>
-      <c r="J42" s="652"/>
+      <c r="I42" s="661"/>
+      <c r="J42" s="662"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -46371,10 +46600,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>111122</v>
@@ -46394,11 +46623,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="662"/>
-      <c r="J68" s="663"/>
+      <c r="I68" s="672"/>
+      <c r="J68" s="673"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -46409,7 +46638,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -47024,23 +47253,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47050,24 +47279,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -47082,14 +47311,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47099,11 +47328,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -49084,11 +49313,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -49096,7 +49325,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -49129,10 +49358,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -49223,11 +49452,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49706,26 +49935,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -49734,22 +49963,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -49790,11 +50019,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -49811,22 +50040,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="616" t="s">
+      <c r="I83" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="617"/>
-      <c r="K83" s="618">
+      <c r="J83" s="627"/>
+      <c r="K83" s="628">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="618"/>
+      <c r="L83" s="628"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -51297,10 +51526,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="644"/>
-      <c r="J36" s="645"/>
-      <c r="K36" s="645"/>
-      <c r="L36" s="646"/>
+      <c r="I36" s="654"/>
+      <c r="J36" s="655"/>
+      <c r="K36" s="655"/>
+      <c r="L36" s="656"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -51317,10 +51546,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I37" s="644"/>
-      <c r="J37" s="645"/>
-      <c r="K37" s="645"/>
-      <c r="L37" s="646"/>
+      <c r="I37" s="654"/>
+      <c r="J37" s="655"/>
+      <c r="K37" s="655"/>
+      <c r="L37" s="656"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -51377,10 +51606,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I40" s="647" t="s">
+      <c r="I40" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="648"/>
+      <c r="J40" s="658"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -51399,8 +51628,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I41" s="649"/>
-      <c r="J41" s="650"/>
+      <c r="I41" s="659"/>
+      <c r="J41" s="660"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -51419,8 +51648,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="651"/>
-      <c r="J42" s="652"/>
+      <c r="I42" s="661"/>
+      <c r="J42" s="662"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -51924,10 +52153,10 @@
         <f>SUM(G3:G66)</f>
         <v>0</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>103441.83</v>
@@ -51947,11 +52176,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="662"/>
-      <c r="J68" s="663"/>
+      <c r="I68" s="672"/>
+      <c r="J68" s="673"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -51962,7 +52191,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -52568,23 +52797,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52594,24 +52823,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -52626,14 +52855,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52643,11 +52872,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -54668,11 +54897,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -54680,7 +54909,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -54707,10 +54936,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -54784,11 +55013,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55417,26 +55646,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="627" t="s">
+      <c r="H79" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="628"/>
+      <c r="I79" s="638"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="629">
+      <c r="K79" s="639">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="630"/>
+      <c r="L79" s="640"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="621" t="s">
+      <c r="D80" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="621"/>
+      <c r="E80" s="631"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -55445,22 +55674,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="622" t="s">
+      <c r="D81" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="622"/>
+      <c r="E81" s="632"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="623" t="s">
+      <c r="I81" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="624"/>
-      <c r="K81" s="625">
+      <c r="J81" s="634"/>
+      <c r="K81" s="635">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="635"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55501,11 +55730,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="626">
+      <c r="K83" s="636">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="625"/>
+      <c r="L83" s="635"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55522,22 +55751,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="614" t="s">
+      <c r="D85" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="615"/>
+      <c r="E85" s="625"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="616" t="s">
+      <c r="I85" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="617"/>
-      <c r="K85" s="618">
+      <c r="J85" s="627"/>
+      <c r="K85" s="628">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="618"/>
+      <c r="L85" s="628"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -57026,10 +57255,10 @@
         <f t="shared" si="0"/>
         <v>10327.200000000001</v>
       </c>
-      <c r="I36" s="644"/>
-      <c r="J36" s="645"/>
-      <c r="K36" s="645"/>
-      <c r="L36" s="646"/>
+      <c r="I36" s="654"/>
+      <c r="J36" s="655"/>
+      <c r="K36" s="655"/>
+      <c r="L36" s="656"/>
       <c r="M36" s="101"/>
       <c r="N36" s="227">
         <f t="shared" si="1"/>
@@ -57052,10 +57281,10 @@
         <f t="shared" si="0"/>
         <v>63383.41</v>
       </c>
-      <c r="I37" s="644"/>
-      <c r="J37" s="645"/>
-      <c r="K37" s="645"/>
-      <c r="L37" s="646"/>
+      <c r="I37" s="654"/>
+      <c r="J37" s="655"/>
+      <c r="K37" s="655"/>
+      <c r="L37" s="656"/>
       <c r="M37" s="101"/>
       <c r="N37" s="227">
         <f t="shared" si="1"/>
@@ -57130,10 +57359,10 @@
         <f t="shared" si="0"/>
         <v>10162.64</v>
       </c>
-      <c r="I40" s="647" t="s">
+      <c r="I40" s="657" t="s">
         <v>35</v>
       </c>
-      <c r="J40" s="648"/>
+      <c r="J40" s="658"/>
       <c r="K40" s="84"/>
       <c r="L40" s="238"/>
       <c r="M40" s="84"/>
@@ -57158,8 +57387,8 @@
         <f t="shared" si="0"/>
         <v>12934.8</v>
       </c>
-      <c r="I41" s="649"/>
-      <c r="J41" s="650"/>
+      <c r="I41" s="659"/>
+      <c r="J41" s="660"/>
       <c r="K41" s="84"/>
       <c r="L41" s="238"/>
       <c r="M41" s="84"/>
@@ -57184,8 +57413,8 @@
         <f t="shared" si="0"/>
         <v>35275.5</v>
       </c>
-      <c r="I42" s="651"/>
-      <c r="J42" s="652"/>
+      <c r="I42" s="661"/>
+      <c r="J42" s="662"/>
       <c r="K42" s="84"/>
       <c r="L42" s="238"/>
       <c r="M42" s="84"/>
@@ -57707,10 +57936,10 @@
         <f>SUM(G3:G66)</f>
         <v>1592169.2799999998</v>
       </c>
-      <c r="I67" s="653" t="s">
+      <c r="I67" s="663" t="s">
         <v>35</v>
       </c>
-      <c r="J67" s="654"/>
+      <c r="J67" s="664"/>
       <c r="K67" s="264">
         <f>SUM(K3:K66)</f>
         <v>121598</v>
@@ -57730,11 +57959,11 @@
       <c r="D68" s="268"/>
       <c r="E68" s="269"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="657" t="s">
+      <c r="G68" s="667" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="662"/>
-      <c r="J68" s="663"/>
+      <c r="I68" s="672"/>
+      <c r="J68" s="673"/>
       <c r="K68" s="1"/>
       <c r="L68" s="269"/>
       <c r="M68" s="5"/>
@@ -57745,7 +57974,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="269"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="658"/>
+      <c r="G69" s="668"/>
       <c r="I69" s="293"/>
       <c r="J69" s="294"/>
       <c r="K69" s="295"/>
@@ -58361,23 +58590,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="637"/>
-      <c r="C1" s="639" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="640"/>
-      <c r="E1" s="640"/>
-      <c r="F1" s="640"/>
-      <c r="G1" s="640"/>
-      <c r="H1" s="640"/>
-      <c r="I1" s="640"/>
-      <c r="J1" s="640"/>
-      <c r="K1" s="640"/>
-      <c r="L1" s="640"/>
-      <c r="M1" s="640"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="638"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58387,27 +58616,27 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="641" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="642"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="643" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="643"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="635" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
         <v>509</v>
       </c>
-      <c r="R3" s="664" t="s">
+      <c r="R3" s="674" t="s">
         <v>3</v>
       </c>
     </row>
@@ -58422,14 +58651,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="610" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="H4" s="612" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="613"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58439,11 +58668,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="636"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="665"/>
+      <c r="R4" s="675"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -60446,11 +60675,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="619">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="619">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -60458,7 +60687,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="631">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60491,10 +60720,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="620"/>
-      <c r="N50" s="620"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="632"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60573,11 +60802,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="633">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="634"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61056,26 +61285,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="627" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="628"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="629">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="630"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="621" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="621"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -61084,22 +61313,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="622" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="622"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="623" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="624"/>
-      <c r="K79" s="625">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="625"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -61140,11 +61369,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="626">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="625"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -61161,22 +61390,22 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="614" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="615"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
-      <c r="I83" s="659" t="s">
+      <c r="I83" s="669" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="660"/>
-      <c r="K83" s="661">
+      <c r="J83" s="670"/>
+      <c r="K83" s="671">
         <f>K79+K81</f>
         <v>1169749.54</v>
       </c>
-      <c r="L83" s="661"/>
+      <c r="L83" s="671"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1130">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4096,6 +4096,9 @@
   </si>
   <si>
     <t>QUESOS-CHORIZO-PATA-PAVO-JAMON-</t>
+  </si>
+  <si>
+    <t>BIMBO-QUESOS-POLLO-TOCINO</t>
   </si>
 </sst>
 </file>
@@ -7053,6 +7056,39 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7127,39 +7163,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11521,23 +11524,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11547,24 +11550,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="618" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11579,14 +11582,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11596,11 +11599,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="619"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13435,11 +13438,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13447,7 +13450,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13468,10 +13471,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13526,11 +13529,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13955,26 +13958,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -13983,22 +13986,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14039,11 +14042,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14060,22 +14063,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="626" t="s">
+      <c r="I83" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="627"/>
-      <c r="K83" s="628">
+      <c r="J83" s="638"/>
+      <c r="K83" s="639">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="628"/>
+      <c r="L83" s="639"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14222,12 +14225,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14244,6 +14241,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16642,23 +16645,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16668,21 +16671,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -16703,14 +16706,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16720,7 +16723,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -18780,11 +18783,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18792,7 +18795,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18825,10 +18828,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18913,11 +18916,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19246,26 +19249,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="637" t="s">
+      <c r="H69" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="638"/>
+      <c r="I69" s="649"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="639">
+      <c r="K69" s="650">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="640"/>
+      <c r="L69" s="651"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="631" t="s">
+      <c r="D70" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="631"/>
+      <c r="E70" s="642"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19274,23 +19277,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="632" t="s">
+      <c r="D71" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="643"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="633" t="s">
+      <c r="I71" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="634"/>
-      <c r="K71" s="635">
+      <c r="J71" s="645"/>
+      <c r="K71" s="646">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="635"/>
+      <c r="L71" s="646"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19332,11 +19335,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="636">
+      <c r="K73" s="647">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="635"/>
+      <c r="L73" s="646"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19353,22 +19356,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="624" t="s">
+      <c r="D75" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="625"/>
+      <c r="E75" s="636"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="626" t="s">
+      <c r="I75" s="637" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="627"/>
-      <c r="K75" s="628">
+      <c r="J75" s="638"/>
+      <c r="K75" s="639">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="628"/>
+      <c r="L75" s="639"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19516,6 +19519,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19532,12 +19541,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21937,23 +21940,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21963,21 +21966,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -21996,14 +21999,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22013,7 +22016,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -24146,11 +24149,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24158,7 +24161,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24191,10 +24194,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24285,11 +24288,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24666,26 +24669,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="637" t="s">
+      <c r="H69" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="638"/>
+      <c r="I69" s="649"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="639">
+      <c r="K69" s="650">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="640"/>
+      <c r="L69" s="651"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="631" t="s">
+      <c r="D70" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="631"/>
+      <c r="E70" s="642"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24694,22 +24697,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="632" t="s">
+      <c r="D71" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="643"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="633" t="s">
+      <c r="I71" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="634"/>
-      <c r="K71" s="635">
+      <c r="J71" s="645"/>
+      <c r="K71" s="646">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="635"/>
+      <c r="L71" s="646"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24754,11 +24757,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="636">
+      <c r="K73" s="647">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="635"/>
+      <c r="L73" s="646"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24779,22 +24782,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="624" t="s">
+      <c r="D75" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="625"/>
+      <c r="E75" s="636"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="626" t="s">
+      <c r="I75" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="627"/>
-      <c r="K75" s="628">
+      <c r="J75" s="638"/>
+      <c r="K75" s="639">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="628"/>
+      <c r="L75" s="639"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24942,6 +24945,12 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24958,12 +24967,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27520,23 +27523,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27546,21 +27549,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -27579,14 +27582,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27596,7 +27599,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -29827,11 +29830,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -29839,7 +29842,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -29872,10 +29875,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -29966,11 +29969,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30685,26 +30688,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="649"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="650">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="640"/>
+      <c r="L81" s="651"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="642"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-1236634.8499999987</v>
@@ -30713,22 +30716,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="643"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="645"/>
+      <c r="K83" s="646">
         <f>F85+F86+F87</f>
         <v>552770.9000000013</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="646"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30769,11 +30772,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="647">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="646"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30791,22 +30794,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="636"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="626" t="s">
+      <c r="I87" s="637" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="627"/>
-      <c r="K87" s="628">
+      <c r="J87" s="638"/>
+      <c r="K87" s="639">
         <f>K83+K85</f>
         <v>-2267780.4099999988</v>
       </c>
-      <c r="L87" s="628"/>
+      <c r="L87" s="639"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -30954,12 +30957,6 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30976,6 +30973,12 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33773,10 +33776,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33802,23 +33805,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33831,21 +33834,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -33864,14 +33867,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33881,7 +33884,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -34759,29 +34762,38 @@
       <c r="B21" s="32">
         <v>45188</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="47"/>
+      <c r="C21" s="33">
+        <v>11586</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>1129</v>
+      </c>
       <c r="E21" s="35">
         <v>45188</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="36">
+        <v>153124</v>
+      </c>
       <c r="G21" s="37"/>
       <c r="H21" s="38">
         <v>45188</v>
       </c>
-      <c r="I21" s="39"/>
+      <c r="I21" s="39">
+        <v>4559.5</v>
+      </c>
       <c r="J21" s="40"/>
       <c r="K21" s="402"/>
       <c r="L21" s="55"/>
       <c r="M21" s="42">
-        <v>0</v>
+        <f>81452.5+3776+1906+4400</f>
+        <v>91534.5</v>
       </c>
       <c r="N21" s="43">
-        <v>0</v>
+        <v>45444</v>
       </c>
       <c r="P21" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>153124</v>
       </c>
       <c r="Q21" s="45">
         <f t="shared" si="2"/>
@@ -35887,19 +35899,19 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
-        <v>1599939</v>
-      </c>
-      <c r="N49" s="629">
+        <v>1691473.5</v>
+      </c>
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
-        <v>998436</v>
+        <v>1043880</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3026769.5</v>
-      </c>
-      <c r="Q49" s="641">
+        <v>3179893.5</v>
+      </c>
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>5.5</v>
       </c>
@@ -35932,10 +35944,10 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>36564</v>
@@ -36020,11 +36032,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
-        <v>2598375</v>
-      </c>
-      <c r="N53" s="644"/>
+        <v>2735353.5</v>
+      </c>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36491,7 +36503,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5366793.3500000006</v>
+        <v>5378379.3500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36499,7 +36511,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>2990200</v>
+        <v>3143324</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36507,7 +36519,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>54574</v>
+        <v>59133.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36533,50 +36545,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="649"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="650">
         <f>I79+L79</f>
-        <v>282250.13999999996</v>
-      </c>
-      <c r="L81" s="640"/>
+        <v>286809.63999999996</v>
+      </c>
+      <c r="L81" s="651"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="642"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-2658843.4900000007</v>
+        <v>-2521864.9900000007</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="643"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="645"/>
+      <c r="K83" s="646">
         <f>F85+F86+F87</f>
-        <v>-2658843.4900000007</v>
-      </c>
-      <c r="L83" s="635"/>
+        <v>-2521864.9900000007</v>
+      </c>
+      <c r="L83" s="646"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -36610,18 +36622,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-2658843.4900000007</v>
+        <v>-2521864.9900000007</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="647">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="646"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36637,22 +36649,22 @@
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="172"/>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="636"/>
       <c r="F87" s="173">
         <v>0</v>
       </c>
-      <c r="I87" s="626" t="s">
+      <c r="I87" s="637" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="627"/>
-      <c r="K87" s="628">
+      <c r="J87" s="638"/>
+      <c r="K87" s="639">
         <f>K83+K85</f>
-        <v>-5805304.1500000004</v>
-      </c>
-      <c r="L87" s="628"/>
+        <v>-5668325.6500000004</v>
+      </c>
+      <c r="L87" s="639"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36797,13 +36809,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36820,6 +36825,13 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41496,23 +41508,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41522,24 +41534,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="618" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41554,14 +41566,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41571,11 +41583,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="619"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43551,11 +43563,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -43563,7 +43575,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -43596,10 +43608,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -43690,11 +43702,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -44253,26 +44265,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -44281,22 +44293,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -44337,11 +44349,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -44358,10 +44370,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -44520,6 +44532,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44536,12 +44554,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47253,23 +47265,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47279,21 +47291,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="674" t="s">
@@ -47311,14 +47323,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47328,7 +47340,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -49313,11 +49325,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -49325,7 +49337,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -49358,10 +49370,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -49452,11 +49464,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -49935,26 +49947,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -49963,22 +49975,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -50019,11 +50031,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -50040,22 +50052,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="626" t="s">
+      <c r="I83" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="627"/>
-      <c r="K83" s="628">
+      <c r="J83" s="638"/>
+      <c r="K83" s="639">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="628"/>
+      <c r="L83" s="639"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -50202,12 +50214,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50224,6 +50230,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52797,23 +52809,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52823,21 +52835,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="674" t="s">
@@ -52855,14 +52867,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52872,7 +52884,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -54897,11 +54909,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -54909,7 +54921,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -54936,10 +54948,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -55013,11 +55025,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55646,26 +55658,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="637" t="s">
+      <c r="H79" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="638"/>
+      <c r="I79" s="649"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="639">
+      <c r="K79" s="650">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="640"/>
+      <c r="L79" s="651"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="631" t="s">
+      <c r="D80" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="631"/>
+      <c r="E80" s="642"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -55674,22 +55686,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="632" t="s">
+      <c r="D81" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="632"/>
+      <c r="E81" s="643"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="633" t="s">
+      <c r="I81" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="634"/>
-      <c r="K81" s="635">
+      <c r="J81" s="645"/>
+      <c r="K81" s="646">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55730,11 +55742,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="636">
+      <c r="K83" s="647">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="646"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55751,22 +55763,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="624" t="s">
+      <c r="D85" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="625"/>
+      <c r="E85" s="636"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="626" t="s">
+      <c r="I85" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="627"/>
-      <c r="K85" s="628">
+      <c r="J85" s="638"/>
+      <c r="K85" s="639">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="628"/>
+      <c r="L85" s="639"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -55914,6 +55926,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -55930,12 +55948,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58590,23 +58602,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58616,21 +58628,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -58651,14 +58663,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58668,7 +58680,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -60675,11 +60687,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -60687,7 +60699,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60720,10 +60732,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60802,11 +60814,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61285,26 +61297,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -61313,22 +61325,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -61369,11 +61381,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -61390,10 +61402,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -61553,12 +61565,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61575,6 +61581,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1135">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4099,6 +4099,21 @@
   </si>
   <si>
     <t>BIMBO-QUESOS-POLLO-TOCINO</t>
+  </si>
+  <si>
+    <t>CREMA-JAMON--QUESOS-CHORIZO-PATA-VINAGRE</t>
+  </si>
+  <si>
+    <t>POLLO--QUESO</t>
+  </si>
+  <si>
+    <t>PASTOR--POLLO-CHORIZO-VINAGRE-JAMON</t>
+  </si>
+  <si>
+    <t>NOMINA  # 38</t>
+  </si>
+  <si>
+    <t>Nomina # 38</t>
   </si>
 </sst>
 </file>
@@ -33776,10 +33791,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34811,36 +34826,45 @@
       <c r="B22" s="32">
         <v>45189</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="47"/>
+      <c r="C22" s="33">
+        <v>29238.5</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>1130</v>
+      </c>
       <c r="E22" s="35">
         <v>45189</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="36">
+        <v>143277</v>
+      </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38">
         <v>45189</v>
       </c>
-      <c r="I22" s="359"/>
+      <c r="I22" s="359">
+        <v>2683</v>
+      </c>
       <c r="J22" s="40"/>
       <c r="K22" s="506"/>
       <c r="L22" s="62"/>
       <c r="M22" s="42">
-        <v>0</v>
+        <f>47742.5+3409+3320+7700</f>
+        <v>62171.5</v>
       </c>
       <c r="N22" s="43">
-        <v>0</v>
+        <v>49184</v>
       </c>
       <c r="P22" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>143277</v>
       </c>
       <c r="Q22" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="46">
-        <v>0</v>
+      <c r="R22" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="500"/>
     </row>
@@ -34851,29 +34875,38 @@
       <c r="B23" s="32">
         <v>45190</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="33">
+        <v>8054</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>1131</v>
+      </c>
       <c r="E23" s="35">
         <v>45190</v>
       </c>
-      <c r="F23" s="36"/>
+      <c r="F23" s="36">
+        <v>126860</v>
+      </c>
       <c r="G23" s="37"/>
       <c r="H23" s="38">
         <v>45190</v>
       </c>
-      <c r="I23" s="39"/>
+      <c r="I23" s="39">
+        <v>2847</v>
+      </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
       <c r="L23" s="55"/>
       <c r="M23" s="42">
-        <v>0</v>
+        <f>44161+5165</f>
+        <v>49326</v>
       </c>
       <c r="N23" s="43">
-        <v>0</v>
+        <v>66633</v>
       </c>
       <c r="P23" s="49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126860</v>
       </c>
       <c r="Q23" s="45">
         <f t="shared" si="2"/>
@@ -34891,29 +34924,38 @@
       <c r="B24" s="32">
         <v>45191</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="33">
+        <v>14000</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>1132</v>
+      </c>
       <c r="E24" s="35">
         <v>45191</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="36">
+        <v>167942</v>
+      </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38">
         <v>45191</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="39">
+        <v>2678</v>
+      </c>
       <c r="J24" s="66"/>
       <c r="K24" s="65"/>
       <c r="L24" s="67"/>
       <c r="M24" s="42">
-        <v>0</v>
+        <f>102995+648</f>
+        <v>103643</v>
       </c>
       <c r="N24" s="43">
-        <v>0</v>
+        <v>47621</v>
       </c>
       <c r="P24" s="49">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>167942</v>
       </c>
       <c r="Q24" s="45">
         <f t="shared" si="2"/>
@@ -34942,9 +34984,15 @@
         <v>45192</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="68"/>
+      <c r="J25" s="64">
+        <v>45192</v>
+      </c>
+      <c r="K25" s="65" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L25" s="68">
+        <v>24181</v>
+      </c>
       <c r="M25" s="42">
         <v>0</v>
       </c>
@@ -34953,11 +35001,11 @@
       </c>
       <c r="P25" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24181</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24181</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>10</v>
@@ -35372,9 +35420,15 @@
       <c r="G36" s="92"/>
       <c r="H36" s="38"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="609"/>
-      <c r="K36" s="610"/>
-      <c r="L36" s="611"/>
+      <c r="J36" s="609">
+        <v>45192</v>
+      </c>
+      <c r="K36" s="610" t="s">
+        <v>1134</v>
+      </c>
+      <c r="L36" s="611">
+        <v>24149.5</v>
+      </c>
       <c r="M36" s="42">
         <v>0</v>
       </c>
@@ -35901,19 +35955,19 @@
       </c>
       <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
-        <v>1691473.5</v>
+        <v>1906614</v>
       </c>
       <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
-        <v>1043880</v>
+        <v>1207318</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3179893.5</v>
+        <v>3642153.5</v>
       </c>
       <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
-        <v>5.5</v>
+        <v>24186.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -36034,7 +36088,7 @@
       <c r="L53" s="49"/>
       <c r="M53" s="618">
         <f>M49+N49</f>
-        <v>2735353.5</v>
+        <v>3113932</v>
       </c>
       <c r="N53" s="619"/>
       <c r="P53" s="44"/>
@@ -36503,7 +36557,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5378379.3500000006</v>
+        <v>5429671.8500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36511,7 +36565,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>3143324</v>
+        <v>3581403</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36519,7 +36573,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>59133.5</v>
+        <v>67341.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36527,7 +36581,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>227676.13999999996</v>
+        <v>276006.63999999996</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -36552,7 +36606,7 @@
       <c r="J81" s="154"/>
       <c r="K81" s="650">
         <f>I79+L79</f>
-        <v>286809.63999999996</v>
+        <v>343348.13999999996</v>
       </c>
       <c r="L81" s="651"/>
       <c r="M81" s="155"/>
@@ -36567,7 +36621,7 @@
       <c r="E82" s="642"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-2521864.9900000007</v>
+        <v>-2191616.9900000007</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
@@ -36586,7 +36640,7 @@
       <c r="J83" s="645"/>
       <c r="K83" s="646">
         <f>F85+F86+F87</f>
-        <v>-2521864.9900000007</v>
+        <v>-2191616.9900000007</v>
       </c>
       <c r="L83" s="646"/>
       <c r="M83" s="159"/>
@@ -36622,7 +36676,7 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-2521864.9900000007</v>
+        <v>-2191616.9900000007</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
@@ -36662,7 +36716,7 @@
       <c r="J87" s="638"/>
       <c r="K87" s="639">
         <f>K83+K85</f>
-        <v>-5668325.6500000004</v>
+        <v>-5338077.6500000004</v>
       </c>
       <c r="L87" s="639"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1137">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4114,6 +4114,12 @@
   </si>
   <si>
     <t>Nomina # 38</t>
+  </si>
+  <si>
+    <t>Lengua res-Tostadas-POLLO-QUESOS--FLETE</t>
+  </si>
+  <si>
+    <t>QUESO-ARABE-SALAMI-PEPERONI-TOCINETA</t>
   </si>
 </sst>
 </file>
@@ -33791,10 +33797,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -34973,17 +34979,25 @@
       <c r="B25" s="32">
         <v>45192</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="47"/>
+      <c r="C25" s="33">
+        <v>20070.5</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>1135</v>
+      </c>
       <c r="E25" s="35">
         <v>45192</v>
       </c>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>165529</v>
+      </c>
       <c r="G25" s="37"/>
       <c r="H25" s="38">
         <v>45192</v>
       </c>
-      <c r="I25" s="39"/>
+      <c r="I25" s="39">
+        <v>3710</v>
+      </c>
       <c r="J25" s="64">
         <v>45192</v>
       </c>
@@ -34994,18 +35008,19 @@
         <v>24181</v>
       </c>
       <c r="M25" s="42">
-        <v>0</v>
+        <f>46834.5+6015</f>
+        <v>52849.5</v>
       </c>
       <c r="N25" s="43">
-        <v>0</v>
+        <v>64718</v>
       </c>
       <c r="P25" s="69">
         <f t="shared" si="0"/>
-        <v>24181</v>
+        <v>165529</v>
       </c>
       <c r="Q25" s="45">
         <f t="shared" si="2"/>
-        <v>24181</v>
+        <v>0</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>10</v>
@@ -35019,32 +35034,41 @@
       <c r="B26" s="32">
         <v>45193</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="33">
+        <v>12227</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>1136</v>
+      </c>
       <c r="E26" s="35">
         <v>45193</v>
       </c>
-      <c r="F26" s="36"/>
+      <c r="F26" s="36">
+        <v>128586</v>
+      </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38">
         <v>45193</v>
       </c>
-      <c r="I26" s="39"/>
+      <c r="I26" s="39">
+        <v>1380</v>
+      </c>
       <c r="J26" s="40"/>
       <c r="K26" s="537"/>
       <c r="L26" s="71"/>
       <c r="M26" s="42">
-        <v>0</v>
+        <f>66941+3794</f>
+        <v>70735</v>
       </c>
       <c r="N26" s="43">
-        <v>0</v>
+        <v>44244</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>128586</v>
       </c>
       <c r="Q26" s="45">
         <f t="shared" si="2"/>
@@ -35955,19 +35979,19 @@
       </c>
       <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
-        <v>1906614</v>
+        <v>2030198.5</v>
       </c>
       <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
-        <v>1207318</v>
+        <v>1316280</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3642153.5</v>
+        <v>3912087.5</v>
       </c>
       <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
-        <v>24186.5</v>
+        <v>5.5</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -36088,7 +36112,7 @@
       <c r="L53" s="49"/>
       <c r="M53" s="618">
         <f>M49+N49</f>
-        <v>3113932</v>
+        <v>3346478.5</v>
       </c>
       <c r="N53" s="619"/>
       <c r="P53" s="44"/>
@@ -36557,7 +36581,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5429671.8500000006</v>
+        <v>5461969.3500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36565,7 +36589,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>3581403</v>
+        <v>3875518</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36573,7 +36597,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>67341.5</v>
+        <v>72431.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36606,7 +36630,7 @@
       <c r="J81" s="154"/>
       <c r="K81" s="650">
         <f>I79+L79</f>
-        <v>343348.13999999996</v>
+        <v>348438.13999999996</v>
       </c>
       <c r="L81" s="651"/>
       <c r="M81" s="155"/>
@@ -36621,7 +36645,7 @@
       <c r="E82" s="642"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-2191616.9900000007</v>
+        <v>-1934889.4900000007</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
@@ -36640,7 +36664,7 @@
       <c r="J83" s="645"/>
       <c r="K83" s="646">
         <f>F85+F86+F87</f>
-        <v>-2191616.9900000007</v>
+        <v>-1934889.4900000007</v>
       </c>
       <c r="L83" s="646"/>
       <c r="M83" s="159"/>
@@ -36676,7 +36700,7 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-2191616.9900000007</v>
+        <v>-1934889.4900000007</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
@@ -36716,7 +36740,7 @@
       <c r="J87" s="638"/>
       <c r="K87" s="639">
         <f>K83+K85</f>
-        <v>-5338077.6500000004</v>
+        <v>-5081350.1500000004</v>
       </c>
       <c r="L87" s="639"/>
     </row>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1142">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -4120,6 +4120,21 @@
   </si>
   <si>
     <t>QUESO-ARABE-SALAMI-PEPERONI-TOCINETA</t>
+  </si>
+  <si>
+    <t>ARABE-JAMON-PECHUGA-POSTRES-QUESOS-POLLO-CHORIZO-SALCHICHA</t>
+  </si>
+  <si>
+    <t>JAMON-QUESOS-POLLO- BIMBO</t>
+  </si>
+  <si>
+    <t>Jamon-LOMO-MIEL-PAN-QUESO-SALCHICA-POLLO-PASTOR</t>
+  </si>
+  <si>
+    <t>POLLO-CREMA-QUESOS-PASTOR-FILETE-VERDIRAS</t>
+  </si>
+  <si>
+    <t>ERIKA Vacaciones</t>
   </si>
 </sst>
 </file>
@@ -7077,39 +7092,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7184,6 +7166,39 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11545,23 +11560,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11571,24 +11586,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="618" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11603,14 +11618,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11620,11 +11635,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="619"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13459,11 +13474,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13471,7 +13486,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13492,10 +13507,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13550,11 +13565,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13979,26 +13994,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="648" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="649"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="650">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="651"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="642" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="642"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14007,22 +14022,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="643" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="643"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="644" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="645"/>
-      <c r="K79" s="646">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="646"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14063,11 +14078,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="647">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="646"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14084,22 +14099,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="635" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="636"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="637" t="s">
+      <c r="I83" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="638"/>
-      <c r="K83" s="639">
+      <c r="J83" s="627"/>
+      <c r="K83" s="628">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="639"/>
+      <c r="L83" s="628"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14246,6 +14261,12 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14262,12 +14283,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16666,23 +16681,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16692,21 +16707,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -16727,14 +16742,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16744,7 +16759,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -18804,11 +18819,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18816,7 +18831,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18849,10 +18864,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18937,11 +18952,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19270,26 +19285,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="648" t="s">
+      <c r="H69" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="649"/>
+      <c r="I69" s="638"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="650">
+      <c r="K69" s="639">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="651"/>
+      <c r="L69" s="640"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="642" t="s">
+      <c r="D70" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="642"/>
+      <c r="E70" s="631"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19298,23 +19313,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="643" t="s">
+      <c r="D71" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="643"/>
+      <c r="E71" s="632"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="644" t="s">
+      <c r="I71" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="645"/>
-      <c r="K71" s="646">
+      <c r="J71" s="634"/>
+      <c r="K71" s="635">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="646"/>
+      <c r="L71" s="635"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19356,11 +19371,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="647">
+      <c r="K73" s="636">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="646"/>
+      <c r="L73" s="635"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19377,22 +19392,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="635" t="s">
+      <c r="D75" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="636"/>
+      <c r="E75" s="625"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="637" t="s">
+      <c r="I75" s="626" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="638"/>
-      <c r="K75" s="639">
+      <c r="J75" s="627"/>
+      <c r="K75" s="628">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="639"/>
+      <c r="L75" s="628"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19540,12 +19555,6 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19562,6 +19571,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21961,23 +21976,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -21987,21 +22002,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -22020,14 +22035,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22037,7 +22052,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -24170,11 +24185,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24182,7 +24197,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24215,10 +24230,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24309,11 +24324,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24690,26 +24705,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="648" t="s">
+      <c r="H69" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="649"/>
+      <c r="I69" s="638"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="650">
+      <c r="K69" s="639">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="651"/>
+      <c r="L69" s="640"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="642" t="s">
+      <c r="D70" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="642"/>
+      <c r="E70" s="631"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24718,22 +24733,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="643" t="s">
+      <c r="D71" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="643"/>
+      <c r="E71" s="632"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="644" t="s">
+      <c r="I71" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="645"/>
-      <c r="K71" s="646">
+      <c r="J71" s="634"/>
+      <c r="K71" s="635">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="646"/>
+      <c r="L71" s="635"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24778,11 +24793,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="647">
+      <c r="K73" s="636">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="646"/>
+      <c r="L73" s="635"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24803,22 +24818,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="635" t="s">
+      <c r="D75" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="636"/>
+      <c r="E75" s="625"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="637" t="s">
+      <c r="I75" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="638"/>
-      <c r="K75" s="639">
+      <c r="J75" s="627"/>
+      <c r="K75" s="628">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="639"/>
+      <c r="L75" s="628"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24966,12 +24981,6 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24988,6 +24997,12 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27517,7 +27532,7 @@
   </sheetPr>
   <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -27544,23 +27559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27570,21 +27585,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -27603,14 +27618,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27620,7 +27635,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -29851,11 +29866,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -29863,7 +29878,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -29896,10 +29911,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -29990,11 +30005,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30709,26 +30724,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="648" t="s">
+      <c r="H81" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="649"/>
+      <c r="I81" s="638"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="650">
+      <c r="K81" s="639">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="651"/>
+      <c r="L81" s="640"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="642" t="s">
+      <c r="D82" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="642"/>
+      <c r="E82" s="631"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-1236634.8499999987</v>
@@ -30737,22 +30752,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="643" t="s">
+      <c r="D83" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="643"/>
+      <c r="E83" s="632"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="644" t="s">
+      <c r="I83" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="645"/>
-      <c r="K83" s="646">
+      <c r="J83" s="634"/>
+      <c r="K83" s="635">
         <f>F85+F86+F87</f>
         <v>552770.9000000013</v>
       </c>
-      <c r="L83" s="646"/>
+      <c r="L83" s="635"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30793,11 +30808,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="647">
+      <c r="K85" s="636">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="646"/>
+      <c r="L85" s="635"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30815,22 +30830,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="635" t="s">
+      <c r="D87" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="636"/>
+      <c r="E87" s="625"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="637" t="s">
+      <c r="I87" s="626" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="638"/>
-      <c r="K87" s="639">
+      <c r="J87" s="627"/>
+      <c r="K87" s="628">
         <f>K83+K85</f>
         <v>-2267780.4099999988</v>
       </c>
-      <c r="L87" s="639"/>
+      <c r="L87" s="628"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -30978,6 +30993,12 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30994,12 +31015,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33797,10 +33812,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33826,23 +33841,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33855,21 +33870,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -33888,14 +33903,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33905,7 +33920,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35088,29 +35103,37 @@
       <c r="B27" s="32">
         <v>45194</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="51"/>
+      <c r="C27" s="33">
+        <v>31266</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>1137</v>
+      </c>
       <c r="E27" s="35">
         <v>45194</v>
       </c>
-      <c r="F27" s="36"/>
+      <c r="F27" s="36">
+        <v>133749</v>
+      </c>
       <c r="G27" s="37"/>
       <c r="H27" s="38">
         <v>45194</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="39">
+        <v>2472</v>
+      </c>
       <c r="J27" s="337"/>
       <c r="K27" s="345"/>
       <c r="L27" s="68"/>
       <c r="M27" s="42">
-        <v>0</v>
+        <v>67435</v>
       </c>
       <c r="N27" s="43">
-        <v>0</v>
+        <v>32576</v>
       </c>
       <c r="P27" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133749</v>
       </c>
       <c r="Q27" s="45">
         <f t="shared" si="2"/>
@@ -35128,29 +35151,38 @@
       <c r="B28" s="32">
         <v>45195</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="33">
+        <v>16176</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>1138</v>
+      </c>
       <c r="E28" s="35">
         <v>45195</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="36">
+        <v>163719</v>
+      </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38">
         <v>45195</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="39">
+        <v>3190</v>
+      </c>
       <c r="J28" s="338"/>
       <c r="K28" s="70"/>
       <c r="L28" s="68"/>
       <c r="M28" s="42">
-        <v>0</v>
+        <f>80610+3210+1391+9900</f>
+        <v>95111</v>
       </c>
       <c r="N28" s="43">
-        <v>0</v>
+        <v>49242</v>
       </c>
       <c r="P28" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163719</v>
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="2"/>
@@ -35168,29 +35200,38 @@
       <c r="B29" s="32">
         <v>45196</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="76"/>
+      <c r="C29" s="33">
+        <v>14045.5</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>1139</v>
+      </c>
       <c r="E29" s="35">
         <v>45196</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="36">
+        <v>187881</v>
+      </c>
       <c r="G29" s="37"/>
       <c r="H29" s="38">
         <v>45196</v>
       </c>
-      <c r="I29" s="39"/>
+      <c r="I29" s="39">
+        <v>3669</v>
+      </c>
       <c r="J29" s="339"/>
       <c r="K29" s="539"/>
       <c r="L29" s="68"/>
       <c r="M29" s="42">
-        <v>0</v>
+        <f>98355.5+25314+7700</f>
+        <v>131369.5</v>
       </c>
       <c r="N29" s="43">
-        <v>0</v>
+        <v>38797</v>
       </c>
       <c r="P29" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>187881</v>
       </c>
       <c r="Q29" s="45">
         <f t="shared" si="2"/>
@@ -35208,33 +35249,48 @@
       <c r="B30" s="32">
         <v>45197</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="76"/>
+      <c r="C30" s="33">
+        <v>9192</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>1140</v>
+      </c>
       <c r="E30" s="35">
         <v>45197</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="36">
+        <v>198970</v>
+      </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38">
         <v>45197</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="338"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="49"/>
+      <c r="I30" s="39">
+        <v>2158</v>
+      </c>
+      <c r="J30" s="338">
+        <v>45197</v>
+      </c>
+      <c r="K30" s="350" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L30" s="49">
+        <v>4150</v>
+      </c>
       <c r="M30" s="42">
-        <v>0</v>
+        <f>122912+4669.74</f>
+        <v>127581.74</v>
       </c>
       <c r="N30" s="43">
-        <v>0</v>
+        <v>55888</v>
       </c>
       <c r="P30" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>198969.74</v>
       </c>
       <c r="Q30" s="45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.26000000000931323</v>
       </c>
       <c r="R30" s="46">
         <v>0</v>
@@ -35977,21 +36033,21 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
-        <v>2030198.5</v>
-      </c>
-      <c r="N49" s="640">
+        <v>2451695.7400000002</v>
+      </c>
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
-        <v>1316280</v>
+        <v>1492783</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>3912087.5</v>
-      </c>
-      <c r="Q49" s="652">
+        <v>4596406.24</v>
+      </c>
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
-        <v>5.5</v>
+        <v>5.2399999999906868</v>
       </c>
       <c r="R49" s="46">
         <v>0</v>
@@ -36022,10 +36078,10 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>36564</v>
@@ -36110,11 +36166,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
-        <v>3346478.5</v>
-      </c>
-      <c r="N53" s="619"/>
+        <v>3944478.74</v>
+      </c>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36581,7 +36637,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5461969.3500000006</v>
+        <v>5532648.8500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36589,7 +36645,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>3875518</v>
+        <v>4559837</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36597,7 +36653,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>72431.5</v>
+        <v>83920.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36605,7 +36661,7 @@
       </c>
       <c r="L79" s="527">
         <f>SUM(L5:L77)-L26</f>
-        <v>276006.63999999996</v>
+        <v>280156.63999999996</v>
       </c>
       <c r="M79" s="150"/>
       <c r="N79" s="150"/>
@@ -36623,50 +36679,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="648" t="s">
+      <c r="H81" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="649"/>
+      <c r="I81" s="638"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="650">
+      <c r="K81" s="639">
         <f>I79+L79</f>
-        <v>348438.13999999996</v>
-      </c>
-      <c r="L81" s="651"/>
+        <v>364077.13999999996</v>
+      </c>
+      <c r="L81" s="640"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="642" t="s">
+      <c r="D82" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="642"/>
+      <c r="E82" s="631"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-1934889.4900000007</v>
+        <v>-1336888.9900000002</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="643" t="s">
+      <c r="D83" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="643"/>
+      <c r="E83" s="632"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="644" t="s">
+      <c r="I83" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="645"/>
-      <c r="K83" s="646">
+      <c r="J83" s="634"/>
+      <c r="K83" s="635">
         <f>F85+F86+F87</f>
-        <v>-1934889.4900000007</v>
-      </c>
-      <c r="L83" s="646"/>
+        <v>2003623.2199999997</v>
+      </c>
+      <c r="L83" s="635"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -36700,18 +36756,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-1934889.4900000007</v>
+        <v>-1336888.9900000002</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="647">
+      <c r="K85" s="636">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="646"/>
+      <c r="L85" s="635"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36726,23 +36782,25 @@
       </c>
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C87" s="172"/>
-      <c r="D87" s="635" t="s">
+      <c r="C87" s="172">
+        <v>45198</v>
+      </c>
+      <c r="D87" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="636"/>
+      <c r="E87" s="625"/>
       <c r="F87" s="173">
-        <v>0</v>
-      </c>
-      <c r="I87" s="637" t="s">
+        <v>3340512.21</v>
+      </c>
+      <c r="I87" s="626" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="638"/>
-      <c r="K87" s="639">
+      <c r="J87" s="627"/>
+      <c r="K87" s="628">
         <f>K83+K85</f>
-        <v>-5081350.1500000004</v>
-      </c>
-      <c r="L87" s="639"/>
+        <v>-1142837.4400000004</v>
+      </c>
+      <c r="L87" s="628"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36887,6 +36945,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36903,13 +36968,6 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41586,23 +41644,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41612,24 +41670,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="629" t="s">
+      <c r="R3" s="618" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41644,14 +41702,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41661,11 +41719,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="630"/>
+      <c r="R4" s="619"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43641,11 +43699,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -43653,7 +43711,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -43686,10 +43744,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -43780,11 +43838,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -44343,26 +44401,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="648" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="649"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="650">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="651"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="642" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="642"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -44371,22 +44429,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="643" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="643"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="644" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="645"/>
-      <c r="K79" s="646">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="646"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -44427,11 +44485,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="647">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="646"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -44448,10 +44506,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="635" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="636"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -44610,12 +44668,6 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44632,6 +44684,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47343,23 +47401,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47369,21 +47427,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="674" t="s">
@@ -47401,14 +47459,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47418,7 +47476,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -49403,11 +49461,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -49415,7 +49473,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -49448,10 +49506,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -49542,11 +49600,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -50025,26 +50083,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="648" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="649"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="650">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="651"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="642" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="642"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -50053,22 +50111,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="643" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="643"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="644" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="645"/>
-      <c r="K79" s="646">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="646"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -50109,11 +50167,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="647">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="646"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -50130,22 +50188,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="635" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="636"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="637" t="s">
+      <c r="I83" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="638"/>
-      <c r="K83" s="639">
+      <c r="J83" s="627"/>
+      <c r="K83" s="628">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="639"/>
+      <c r="L83" s="628"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -50292,6 +50350,12 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50308,12 +50372,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52887,23 +52945,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52913,21 +52971,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="674" t="s">
@@ -52945,14 +53003,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -52962,7 +53020,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -54987,11 +55045,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -54999,7 +55057,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -55026,10 +55084,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -55103,11 +55161,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55736,26 +55794,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="648" t="s">
+      <c r="H79" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="649"/>
+      <c r="I79" s="638"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="650">
+      <c r="K79" s="639">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="651"/>
+      <c r="L79" s="640"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="642" t="s">
+      <c r="D80" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="642"/>
+      <c r="E80" s="631"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -55764,22 +55822,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="643" t="s">
+      <c r="D81" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="643"/>
+      <c r="E81" s="632"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="644" t="s">
+      <c r="I81" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="645"/>
-      <c r="K81" s="646">
+      <c r="J81" s="634"/>
+      <c r="K81" s="635">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="646"/>
+      <c r="L81" s="635"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55820,11 +55878,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="647">
+      <c r="K83" s="636">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="646"/>
+      <c r="L83" s="635"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55841,22 +55899,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="635" t="s">
+      <c r="D85" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="636"/>
+      <c r="E85" s="625"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="637" t="s">
+      <c r="I85" s="626" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="638"/>
-      <c r="K85" s="639">
+      <c r="J85" s="627"/>
+      <c r="K85" s="628">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="639"/>
+      <c r="L85" s="628"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -56004,12 +56062,6 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -56026,6 +56078,12 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58680,23 +58738,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="622"/>
-      <c r="C1" s="624" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="649" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="625"/>
-      <c r="E1" s="625"/>
-      <c r="F1" s="625"/>
-      <c r="G1" s="625"/>
-      <c r="H1" s="625"/>
-      <c r="I1" s="625"/>
-      <c r="J1" s="625"/>
-      <c r="K1" s="625"/>
-      <c r="L1" s="625"/>
-      <c r="M1" s="625"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="650"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
+      <c r="K1" s="650"/>
+      <c r="L1" s="650"/>
+      <c r="M1" s="650"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="623"/>
+      <c r="B2" s="648"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58706,21 +58764,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="626" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="627"/>
+      <c r="B3" s="651" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="652"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="628" t="s">
+      <c r="H3" s="653" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="628"/>
+      <c r="I3" s="653"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="620" t="s">
+      <c r="P3" s="645" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -58741,14 +58799,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="631" t="s">
+      <c r="E4" s="620" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="632"/>
-      <c r="H4" s="633" t="s">
+      <c r="F4" s="621"/>
+      <c r="H4" s="622" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="634"/>
+      <c r="I4" s="623"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58758,7 +58816,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="621"/>
+      <c r="P4" s="646"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -60765,11 +60823,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="640">
+      <c r="M49" s="629">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="640">
+      <c r="N49" s="629">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -60777,7 +60835,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="652">
+      <c r="Q49" s="641">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60810,10 +60868,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="641"/>
-      <c r="N50" s="641"/>
+      <c r="M50" s="630"/>
+      <c r="N50" s="630"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="653"/>
+      <c r="Q50" s="642"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60892,11 +60950,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="618">
+      <c r="M53" s="643">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="619"/>
+      <c r="N53" s="644"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61375,26 +61433,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="648" t="s">
+      <c r="H77" s="637" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="649"/>
+      <c r="I77" s="638"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="650">
+      <c r="K77" s="639">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="651"/>
+      <c r="L77" s="640"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="642" t="s">
+      <c r="D78" s="631" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="642"/>
+      <c r="E78" s="631"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -61403,22 +61461,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="643" t="s">
+      <c r="D79" s="632" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="643"/>
+      <c r="E79" s="632"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="644" t="s">
+      <c r="I79" s="633" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="645"/>
-      <c r="K79" s="646">
+      <c r="J79" s="634"/>
+      <c r="K79" s="635">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="646"/>
+      <c r="L79" s="635"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -61459,11 +61517,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="647">
+      <c r="K81" s="636">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="646"/>
+      <c r="L81" s="635"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -61480,10 +61538,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="635" t="s">
+      <c r="D83" s="624" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="636"/>
+      <c r="E83" s="625"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -61643,6 +61701,12 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61659,12 +61723,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #09  SEPTIEMBRE 2023/BALANCE  ZAVALETA   SEPTIEMBRE  2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21135" windowHeight="11715" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="2" r:id="rId1"/>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1142">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -7092,6 +7092,39 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7166,39 +7199,6 @@
     </xf>
     <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="7" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11560,23 +11560,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -11586,24 +11586,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="618" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11618,14 +11618,14 @@
       <c r="D4" s="24">
         <v>44892</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -11635,11 +11635,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="619"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -13474,11 +13474,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="85"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1399609.5</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>910600</v>
       </c>
@@ -13486,7 +13486,7 @@
         <f>SUM(P5:P40)</f>
         <v>3236981.46</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-199</v>
       </c>
@@ -13507,10 +13507,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="88"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>571934</v>
@@ -13565,11 +13565,11 @@
       <c r="J53" s="74"/>
       <c r="K53" s="48"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>2310209.5</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -13994,26 +13994,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>1552957.04</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>-123007.98000000021</v>
@@ -14022,22 +14022,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1513561.68</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>1950142.8099999996</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -14078,11 +14078,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3445405.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -14099,22 +14099,22 @@
       <c r="C83" s="172">
         <v>44955</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3504178.07</v>
       </c>
-      <c r="I83" s="626" t="s">
+      <c r="I83" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="627"/>
-      <c r="K83" s="628">
+      <c r="J83" s="638"/>
+      <c r="K83" s="639">
         <f>K79+K81</f>
         <v>-1495262.2600000002</v>
       </c>
-      <c r="L83" s="628"/>
+      <c r="L83" s="639"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -14261,12 +14261,6 @@
     <sortCondition ref="J33:J44"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14283,6 +14277,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16681,23 +16681,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>642</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -16707,21 +16707,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -16742,14 +16742,14 @@
       <c r="D4" s="24">
         <v>45079</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -16759,7 +16759,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -18819,11 +18819,11 @@
       <c r="L49" s="49">
         <v>14500</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1601794.8800000001</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1523056</v>
       </c>
@@ -18831,7 +18831,7 @@
         <f>SUM(P5:P40)</f>
         <v>3794729.3800000004</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-422.61999999999534</v>
       </c>
@@ -18864,10 +18864,10 @@
       <c r="L50" s="89">
         <v>2808.6</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>1095</v>
@@ -18952,11 +18952,11 @@
       <c r="L53" s="49">
         <v>6254.95</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3124850.88</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -19285,26 +19285,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="637" t="s">
+      <c r="H69" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="638"/>
+      <c r="I69" s="649"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="639">
+      <c r="K69" s="650">
         <f>I67+L67</f>
         <v>513056.63999999996</v>
       </c>
-      <c r="L69" s="640"/>
+      <c r="L69" s="651"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="631" t="s">
+      <c r="D70" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="631"/>
+      <c r="E70" s="642"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>1446986.8899999997</v>
@@ -19313,23 +19313,23 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="632" t="s">
+      <c r="D71" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="643"/>
       <c r="F71" s="101">
         <f>-'   COMPRAS     JUNIO     2023  '!G67</f>
         <v>-1585182.9300000004</v>
       </c>
-      <c r="I71" s="633" t="s">
+      <c r="I71" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="634"/>
-      <c r="K71" s="635">
+      <c r="J71" s="645"/>
+      <c r="K71" s="646">
         <f>F73+F74+F75</f>
         <v>3054589.7999999993</v>
       </c>
-      <c r="L71" s="635"/>
+      <c r="L71" s="646"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160"/>
@@ -19371,11 +19371,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="636">
+      <c r="K73" s="647">
         <f>-C4</f>
         <v>-3897967.53</v>
       </c>
-      <c r="L73" s="635"/>
+      <c r="L73" s="646"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="171" t="s">
@@ -19392,22 +19392,22 @@
       <c r="C75" s="172">
         <v>45107</v>
       </c>
-      <c r="D75" s="624" t="s">
+      <c r="D75" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="625"/>
+      <c r="E75" s="636"/>
       <c r="F75" s="173">
         <v>3131387.04</v>
       </c>
-      <c r="I75" s="626" t="s">
+      <c r="I75" s="637" t="s">
         <v>764</v>
       </c>
-      <c r="J75" s="627"/>
-      <c r="K75" s="628">
+      <c r="J75" s="638"/>
+      <c r="K75" s="639">
         <f>K71+K73</f>
         <v>-843377.73000000045</v>
       </c>
-      <c r="L75" s="628"/>
+      <c r="L75" s="639"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -19555,6 +19555,12 @@
     <sortCondition ref="B37:B49"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19571,12 +19577,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21976,23 +21976,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -22002,21 +22002,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -22035,14 +22035,14 @@
       <c r="D4" s="24">
         <v>45107</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -22052,7 +22052,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -24185,11 +24185,11 @@
       <c r="L49" s="49">
         <v>5250</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>2422108.7600000002</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1603736</v>
       </c>
@@ -24197,7 +24197,7 @@
         <f>SUM(P5:P40)</f>
         <v>4927758.76</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-0.23999999999068677</v>
       </c>
@@ -24230,10 +24230,10 @@
       <c r="L50" s="89">
         <v>3420</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>440369</v>
@@ -24324,11 +24324,11 @@
       <c r="L53" s="49">
         <v>8015.92</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>4025844.7600000002</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -24705,26 +24705,26 @@
       <c r="A69" s="152"/>
       <c r="B69" s="153"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="637" t="s">
+      <c r="H69" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="638"/>
+      <c r="I69" s="649"/>
       <c r="J69" s="154"/>
-      <c r="K69" s="639">
+      <c r="K69" s="650">
         <f>I67+L67</f>
         <v>792651.90999999992</v>
       </c>
-      <c r="L69" s="640"/>
+      <c r="L69" s="651"/>
       <c r="M69" s="155"/>
       <c r="N69" s="155"/>
       <c r="P69" s="44"/>
       <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="631" t="s">
+      <c r="D70" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="631"/>
+      <c r="E70" s="642"/>
       <c r="F70" s="156">
         <f>F67-K69-C67</f>
         <v>896993.63999999966</v>
@@ -24733,22 +24733,22 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="632" t="s">
+      <c r="D71" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="632"/>
+      <c r="E71" s="643"/>
       <c r="F71" s="101">
         <v>-931631.77</v>
       </c>
-      <c r="I71" s="633" t="s">
+      <c r="I71" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J71" s="634"/>
-      <c r="K71" s="635">
+      <c r="J71" s="645"/>
+      <c r="K71" s="646">
         <f>F73+F74+F75</f>
         <v>2818686.5799999996</v>
       </c>
-      <c r="L71" s="635"/>
+      <c r="L71" s="646"/>
       <c r="M71" s="159"/>
       <c r="N71" s="159"/>
       <c r="O71" s="160">
@@ -24793,11 +24793,11 @@
         <v>21</v>
       </c>
       <c r="J73" s="170"/>
-      <c r="K73" s="636">
+      <c r="K73" s="647">
         <f>-C4</f>
         <v>-3131387.04</v>
       </c>
-      <c r="L73" s="635"/>
+      <c r="L73" s="646"/>
       <c r="O73" s="536">
         <f>SUM(O71:O72)</f>
         <v>104</v>
@@ -24818,22 +24818,22 @@
       <c r="C75" s="172">
         <v>45135</v>
       </c>
-      <c r="D75" s="624" t="s">
+      <c r="D75" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="625"/>
+      <c r="E75" s="636"/>
       <c r="F75" s="173">
         <v>2820551.31</v>
       </c>
-      <c r="I75" s="626" t="s">
+      <c r="I75" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J75" s="627"/>
-      <c r="K75" s="628">
+      <c r="J75" s="638"/>
+      <c r="K75" s="639">
         <f>K71+K73</f>
         <v>-312700.46000000043</v>
       </c>
-      <c r="L75" s="628"/>
+      <c r="L75" s="639"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="174"/>
@@ -24981,6 +24981,12 @@
     <sortCondition ref="J40:J62"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24997,12 +25003,6 @@
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27559,23 +27559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>765</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -27585,21 +27585,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -27618,14 +27618,14 @@
       <c r="D4" s="24">
         <v>45135</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -27635,7 +27635,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -29866,11 +29866,11 @@
       <c r="J49" s="338"/>
       <c r="K49" s="349"/>
       <c r="L49" s="49"/>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>2901103.23</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>2054394</v>
       </c>
@@ -29878,7 +29878,7 @@
         <f>SUM(P5:P40)</f>
         <v>6121324.54</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-1197.4599999999919</v>
       </c>
@@ -29911,10 +29911,10 @@
       <c r="L50" s="89">
         <v>2958</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>146522</v>
@@ -30005,11 +30005,11 @@
       <c r="L53" s="49">
         <v>1100.01</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>4955497.2300000004</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -30724,26 +30724,26 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="649"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="650">
         <f>I79+L79</f>
         <v>778945.87000000011</v>
       </c>
-      <c r="L81" s="640"/>
+      <c r="L81" s="651"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="642"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
         <v>-1236634.8499999987</v>
@@ -30752,22 +30752,22 @@
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="643"/>
       <c r="F83" s="101">
         <v>-1249902.31</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="645"/>
+      <c r="K83" s="646">
         <f>F85+F86+F87</f>
         <v>552770.9000000013</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="646"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -30808,11 +30808,11 @@
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="647">
         <f>-C4</f>
         <v>-2820551.31</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="646"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -30830,22 +30830,22 @@
       <c r="C87" s="172">
         <v>45171</v>
       </c>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="636"/>
       <c r="F87" s="173">
         <v>3146460.66</v>
       </c>
-      <c r="I87" s="626" t="s">
+      <c r="I87" s="637" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="627"/>
-      <c r="K87" s="628">
+      <c r="J87" s="638"/>
+      <c r="K87" s="639">
         <f>K83+K85</f>
         <v>-2267780.4099999988</v>
       </c>
-      <c r="L87" s="628"/>
+      <c r="L87" s="639"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -30993,12 +30993,6 @@
     <sortCondition ref="B44:B74"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -31015,6 +31009,12 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33812,10 +33812,10 @@
   <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q30" sqref="Q30"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33841,23 +33841,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>1082</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -33870,21 +33870,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="533"/>
@@ -33903,14 +33903,14 @@
       <c r="D4" s="24">
         <v>45171</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -33920,7 +33920,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -35304,36 +35304,44 @@
       <c r="B31" s="32">
         <v>45198</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="79"/>
+      <c r="C31" s="33">
+        <v>6210</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>1131</v>
+      </c>
       <c r="E31" s="35">
         <v>45198</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="36">
+        <v>164139</v>
+      </c>
       <c r="G31" s="37"/>
       <c r="H31" s="38">
         <v>45198</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="39">
+        <v>2755</v>
+      </c>
       <c r="J31" s="338"/>
       <c r="K31" s="347"/>
       <c r="L31" s="68"/>
       <c r="M31" s="42">
-        <v>0</v>
+        <f>92654+4668</f>
+        <v>97322</v>
       </c>
       <c r="N31" s="43">
-        <v>0</v>
+        <v>59102</v>
       </c>
       <c r="P31" s="69">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>165389</v>
       </c>
       <c r="Q31" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="46">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R31" s="282">
+        <v>1250</v>
       </c>
       <c r="S31" s="233"/>
     </row>
@@ -36033,19 +36041,19 @@
       <c r="L49" s="369">
         <v>8488</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
-        <v>2451695.7400000002</v>
-      </c>
-      <c r="N49" s="629">
+        <v>2549017.7400000002</v>
+      </c>
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
-        <v>1492783</v>
+        <v>1551885</v>
       </c>
       <c r="P49" s="111">
         <f>SUM(P5:P40)</f>
-        <v>4596406.24</v>
-      </c>
-      <c r="Q49" s="641">
+        <v>4761795.24</v>
+      </c>
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>5.2399999999906868</v>
       </c>
@@ -36078,13 +36086,13 @@
       <c r="L50" s="369">
         <v>1856</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
-        <v>36564</v>
+        <v>37814</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -36166,11 +36174,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
-        <v>3944478.74</v>
-      </c>
-      <c r="N53" s="644"/>
+        <v>4100902.74</v>
+      </c>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -36637,7 +36645,7 @@
       </c>
       <c r="C79" s="519">
         <f>SUM(C4:C78)</f>
-        <v>5532648.8500000006</v>
+        <v>5538858.8500000006</v>
       </c>
       <c r="D79" s="520"/>
       <c r="E79" s="521" t="s">
@@ -36645,7 +36653,7 @@
       </c>
       <c r="F79" s="522">
         <f>SUM(F5:F61)</f>
-        <v>4559837</v>
+        <v>4723976</v>
       </c>
       <c r="G79" s="523"/>
       <c r="H79" s="521" t="s">
@@ -36653,7 +36661,7 @@
       </c>
       <c r="I79" s="524">
         <f>SUM(I5:I61)</f>
-        <v>83920.5</v>
+        <v>86675.5</v>
       </c>
       <c r="J79" s="525"/>
       <c r="K79" s="526" t="s">
@@ -36679,50 +36687,50 @@
       <c r="A81" s="152"/>
       <c r="B81" s="153"/>
       <c r="C81" s="1"/>
-      <c r="H81" s="637" t="s">
+      <c r="H81" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I81" s="638"/>
+      <c r="I81" s="649"/>
       <c r="J81" s="154"/>
-      <c r="K81" s="639">
+      <c r="K81" s="650">
         <f>I79+L79</f>
-        <v>364077.13999999996</v>
-      </c>
-      <c r="L81" s="640"/>
+        <v>366832.13999999996</v>
+      </c>
+      <c r="L81" s="651"/>
       <c r="M81" s="155"/>
       <c r="N81" s="155"/>
       <c r="P81" s="44"/>
       <c r="Q81" s="19"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D82" s="631" t="s">
+      <c r="D82" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="631"/>
+      <c r="E82" s="642"/>
       <c r="F82" s="156">
         <f>F79-K81-C79</f>
-        <v>-1336888.9900000002</v>
+        <v>-1181714.9900000002</v>
       </c>
       <c r="I82" s="157"/>
       <c r="J82" s="158"/>
     </row>
     <row r="83" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D83" s="632" t="s">
+      <c r="D83" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="632"/>
+      <c r="E83" s="643"/>
       <c r="F83" s="101">
         <v>0</v>
       </c>
-      <c r="I83" s="633" t="s">
+      <c r="I83" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J83" s="634"/>
-      <c r="K83" s="635">
+      <c r="J83" s="645"/>
+      <c r="K83" s="646">
         <f>F85+F86+F87</f>
-        <v>2003623.2199999997</v>
-      </c>
-      <c r="L83" s="635"/>
+        <v>2457933.2199999997</v>
+      </c>
+      <c r="L83" s="646"/>
       <c r="M83" s="159"/>
       <c r="N83" s="159"/>
       <c r="O83" s="160"/>
@@ -36756,18 +36764,18 @@
       </c>
       <c r="F85" s="150">
         <f>SUM(F82:F84)</f>
-        <v>-1336888.9900000002</v>
+        <v>-1181714.9900000002</v>
       </c>
       <c r="H85" s="168"/>
       <c r="I85" s="169" t="s">
         <v>21</v>
       </c>
       <c r="J85" s="170"/>
-      <c r="K85" s="636">
+      <c r="K85" s="647">
         <f>-C4</f>
         <v>-3146460.66</v>
       </c>
-      <c r="L85" s="635"/>
+      <c r="L85" s="646"/>
       <c r="O85" s="536"/>
     </row>
     <row r="86" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -36778,29 +36786,29 @@
         <v>23</v>
       </c>
       <c r="F86" s="101">
-        <v>0</v>
+        <v>299136</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="172">
         <v>45198</v>
       </c>
-      <c r="D87" s="624" t="s">
+      <c r="D87" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="625"/>
+      <c r="E87" s="636"/>
       <c r="F87" s="173">
         <v>3340512.21</v>
       </c>
-      <c r="I87" s="626" t="s">
+      <c r="I87" s="637" t="s">
         <v>764</v>
       </c>
-      <c r="J87" s="627"/>
-      <c r="K87" s="628">
+      <c r="J87" s="638"/>
+      <c r="K87" s="639">
         <f>K83+K85</f>
-        <v>-1142837.4400000004</v>
-      </c>
-      <c r="L87" s="628"/>
+        <v>-688527.44000000041</v>
+      </c>
+      <c r="L87" s="639"/>
     </row>
     <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C88" s="174"/>
@@ -36945,13 +36953,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -36968,6 +36969,13 @@
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K81:L81"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41644,23 +41652,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -41670,24 +41678,24 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="618" t="s">
+      <c r="R3" s="629" t="s">
         <v>3</v>
       </c>
     </row>
@@ -41702,14 +41710,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -41719,11 +41727,11 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="619"/>
+      <c r="R4" s="630"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
@@ -43699,11 +43707,11 @@
       <c r="L49" s="49">
         <v>5160.4799999999996</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1964337.8699999999</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1314937</v>
       </c>
@@ -43711,7 +43719,7 @@
         <f>SUM(P5:P40)</f>
         <v>3956557.8699999996</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-996.13000000000466</v>
       </c>
@@ -43744,10 +43752,10 @@
       <c r="L50" s="89">
         <v>4412</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>16567</v>
@@ -43838,11 +43846,11 @@
       <c r="L53" s="49">
         <v>4698</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3279274.87</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -44401,26 +44409,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>526980.64000000013</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1939381.5999999999</v>
@@ -44429,22 +44437,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1830849.67</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>3946521.55</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -44485,11 +44493,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -44506,10 +44514,10 @@
       <c r="C83" s="172">
         <v>44988</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3720574.62</v>
       </c>
@@ -44668,6 +44676,12 @@
     <sortCondition ref="J46:J65"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -44684,12 +44698,6 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -47401,23 +47409,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -47427,21 +47435,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="674" t="s">
@@ -47459,14 +47467,14 @@
       <c r="D4" s="24">
         <v>44955</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -47476,7 +47484,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -49461,11 +49469,11 @@
       <c r="L49" s="376">
         <v>6074.64</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1803019.98</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1138524</v>
       </c>
@@ -49473,7 +49481,7 @@
         <f>SUM(P5:P40)</f>
         <v>3684795.48</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>7.9800000000104774</v>
       </c>
@@ -49506,10 +49514,10 @@
       <c r="L50" s="378">
         <v>10278.9</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>353172.5</v>
@@ -49600,11 +49608,11 @@
       <c r="L53" s="376">
         <v>28000</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>2941543.98</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -50083,26 +50091,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>646140.08000000031</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1113109.92</v>
@@ -50111,22 +50119,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1405309.97</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>3400888.74</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -50167,11 +50175,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3504178.07</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -50188,22 +50196,22 @@
       <c r="C83" s="172">
         <v>45014</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3567993.62</v>
       </c>
-      <c r="I83" s="626" t="s">
+      <c r="I83" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J83" s="627"/>
-      <c r="K83" s="628">
+      <c r="J83" s="638"/>
+      <c r="K83" s="639">
         <f>K79+K81</f>
         <v>-103289.32999999961</v>
       </c>
-      <c r="L83" s="628"/>
+      <c r="L83" s="639"/>
     </row>
     <row r="84" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C84" s="174"/>
@@ -50350,12 +50358,6 @@
     <sortCondition ref="J46:J60"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -50372,6 +50374,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -52945,23 +52953,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -52971,21 +52979,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="674" t="s">
@@ -53003,14 +53011,14 @@
       <c r="D4" s="24">
         <v>45014</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -53020,7 +53028,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -55045,11 +55053,11 @@
       <c r="L49" s="49">
         <v>25617.51</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>2051765.3</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1741324</v>
       </c>
@@ -55057,7 +55065,7 @@
         <f>SUM(P5:P40)</f>
         <v>4831473.13</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>-111.39999999999418</v>
       </c>
@@ -55084,10 +55092,10 @@
       <c r="J50" s="87"/>
       <c r="K50" s="343"/>
       <c r="L50" s="89"/>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>97872.53</v>
@@ -55161,11 +55169,11 @@
       <c r="J53" s="338"/>
       <c r="K53" s="343"/>
       <c r="L53" s="49"/>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3793089.3</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -55794,26 +55802,26 @@
       <c r="A79" s="152"/>
       <c r="B79" s="153"/>
       <c r="C79" s="1"/>
-      <c r="H79" s="637" t="s">
+      <c r="H79" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I79" s="638"/>
+      <c r="I79" s="649"/>
       <c r="J79" s="154"/>
-      <c r="K79" s="639">
+      <c r="K79" s="650">
         <f>I77+L77</f>
         <v>739761.38</v>
       </c>
-      <c r="L79" s="640"/>
+      <c r="L79" s="651"/>
       <c r="M79" s="155"/>
       <c r="N79" s="155"/>
       <c r="P79" s="44"/>
       <c r="Q79" s="19"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="631" t="s">
+      <c r="D80" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="631"/>
+      <c r="E80" s="642"/>
       <c r="F80" s="156">
         <f>F77-K79-C77</f>
         <v>2011425.4899999998</v>
@@ -55822,22 +55830,22 @@
       <c r="J80" s="158"/>
     </row>
     <row r="81" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D81" s="632" t="s">
+      <c r="D81" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="632"/>
+      <c r="E81" s="643"/>
       <c r="F81" s="101">
         <v>-2021696.34</v>
       </c>
-      <c r="I81" s="633" t="s">
+      <c r="I81" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="634"/>
-      <c r="K81" s="635">
+      <c r="J81" s="645"/>
+      <c r="K81" s="646">
         <f>F83+F84+F85</f>
         <v>2945239.9399999995</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
       <c r="M81" s="159"/>
       <c r="N81" s="159"/>
       <c r="O81" s="160"/>
@@ -55878,11 +55886,11 @@
         <v>21</v>
       </c>
       <c r="J83" s="170"/>
-      <c r="K83" s="636">
+      <c r="K83" s="647">
         <f>-C4</f>
         <v>-3567993.62</v>
       </c>
-      <c r="L83" s="635"/>
+      <c r="L83" s="646"/>
     </row>
     <row r="84" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="171" t="s">
@@ -55899,22 +55907,22 @@
       <c r="C85" s="172">
         <v>45051</v>
       </c>
-      <c r="D85" s="624" t="s">
+      <c r="D85" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E85" s="625"/>
+      <c r="E85" s="636"/>
       <c r="F85" s="173">
         <v>3065283.79</v>
       </c>
-      <c r="I85" s="626" t="s">
+      <c r="I85" s="637" t="s">
         <v>220</v>
       </c>
-      <c r="J85" s="627"/>
-      <c r="K85" s="628">
+      <c r="J85" s="638"/>
+      <c r="K85" s="639">
         <f>K81+K83</f>
         <v>-622753.68000000063</v>
       </c>
-      <c r="L85" s="628"/>
+      <c r="L85" s="639"/>
     </row>
     <row r="86" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C86" s="174"/>
@@ -56062,6 +56070,12 @@
     <sortCondition ref="B45:B61"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -56078,12 +56092,6 @@
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -58738,23 +58746,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="647"/>
-      <c r="C1" s="649" t="s">
+      <c r="B1" s="622"/>
+      <c r="C1" s="624" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="650"/>
-      <c r="E1" s="650"/>
-      <c r="F1" s="650"/>
-      <c r="G1" s="650"/>
-      <c r="H1" s="650"/>
-      <c r="I1" s="650"/>
-      <c r="J1" s="650"/>
-      <c r="K1" s="650"/>
-      <c r="L1" s="650"/>
-      <c r="M1" s="650"/>
+      <c r="D1" s="625"/>
+      <c r="E1" s="625"/>
+      <c r="F1" s="625"/>
+      <c r="G1" s="625"/>
+      <c r="H1" s="625"/>
+      <c r="I1" s="625"/>
+      <c r="J1" s="625"/>
+      <c r="K1" s="625"/>
+      <c r="L1" s="625"/>
+      <c r="M1" s="625"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="648"/>
+      <c r="B2" s="623"/>
       <c r="C2" s="5"/>
       <c r="H2" s="8"/>
       <c r="I2" s="9"/>
@@ -58764,21 +58772,21 @@
       <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="651" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="652"/>
+      <c r="B3" s="626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="627"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
       <c r="F3" s="16"/>
-      <c r="H3" s="653" t="s">
+      <c r="H3" s="628" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="653"/>
+      <c r="I3" s="628"/>
       <c r="K3" s="18"/>
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
-      <c r="P3" s="645" t="s">
+      <c r="P3" s="620" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="467" t="s">
@@ -58799,14 +58807,14 @@
       <c r="D4" s="24">
         <v>45051</v>
       </c>
-      <c r="E4" s="620" t="s">
+      <c r="E4" s="631" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="621"/>
-      <c r="H4" s="622" t="s">
+      <c r="F4" s="632"/>
+      <c r="H4" s="633" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="623"/>
+      <c r="I4" s="634"/>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
       <c r="L4" s="27"/>
@@ -58816,7 +58824,7 @@
       <c r="N4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="646"/>
+      <c r="P4" s="621"/>
       <c r="Q4" s="30" t="s">
         <v>9</v>
       </c>
@@ -60823,11 +60831,11 @@
       <c r="L49" s="49">
         <v>8091</v>
       </c>
-      <c r="M49" s="629">
+      <c r="M49" s="640">
         <f>SUM(M5:M40)</f>
         <v>1683911.56</v>
       </c>
-      <c r="N49" s="629">
+      <c r="N49" s="640">
         <f>SUM(N5:N40)</f>
         <v>1355406.15</v>
       </c>
@@ -60835,7 +60843,7 @@
         <f>SUM(P5:P40)</f>
         <v>3685318.7</v>
       </c>
-      <c r="Q49" s="641">
+      <c r="Q49" s="652">
         <f>SUM(Q5:Q40)</f>
         <v>5790.6999999999971</v>
       </c>
@@ -60868,10 +60876,10 @@
       <c r="L50" s="89">
         <v>1856</v>
       </c>
-      <c r="M50" s="630"/>
-      <c r="N50" s="630"/>
+      <c r="M50" s="641"/>
+      <c r="N50" s="641"/>
       <c r="P50" s="44"/>
-      <c r="Q50" s="642"/>
+      <c r="Q50" s="653"/>
       <c r="R50" s="112">
         <f>SUM(R5:R49)</f>
         <v>13930</v>
@@ -60950,11 +60958,11 @@
       <c r="L53" s="49">
         <v>9804.18</v>
       </c>
-      <c r="M53" s="643">
+      <c r="M53" s="618">
         <f>M49+N49</f>
         <v>3039317.71</v>
       </c>
-      <c r="N53" s="644"/>
+      <c r="N53" s="619"/>
       <c r="P53" s="44"/>
       <c r="Q53" s="19"/>
     </row>
@@ -61433,26 +61441,26 @@
       <c r="A77" s="152"/>
       <c r="B77" s="153"/>
       <c r="C77" s="1"/>
-      <c r="H77" s="637" t="s">
+      <c r="H77" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="I77" s="638"/>
+      <c r="I77" s="649"/>
       <c r="J77" s="154"/>
-      <c r="K77" s="639">
+      <c r="K77" s="650">
         <f>I75+L75</f>
         <v>484126.00999999989</v>
       </c>
-      <c r="L77" s="640"/>
+      <c r="L77" s="651"/>
       <c r="M77" s="155"/>
       <c r="N77" s="155"/>
       <c r="P77" s="44"/>
       <c r="Q77" s="19"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="631" t="s">
+      <c r="D78" s="642" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="631"/>
+      <c r="E78" s="642"/>
       <c r="F78" s="156">
         <f>F75-K77-C75</f>
         <v>1743477.6000000003</v>
@@ -61461,22 +61469,22 @@
       <c r="J78" s="158"/>
     </row>
     <row r="79" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D79" s="632" t="s">
+      <c r="D79" s="643" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="632"/>
+      <c r="E79" s="643"/>
       <c r="F79" s="101">
         <v>-1542483.8</v>
       </c>
-      <c r="I79" s="633" t="s">
+      <c r="I79" s="644" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="634"/>
-      <c r="K79" s="635">
+      <c r="J79" s="645"/>
+      <c r="K79" s="646">
         <f>F81+F82+F83</f>
         <v>4235033.33</v>
       </c>
-      <c r="L79" s="635"/>
+      <c r="L79" s="646"/>
       <c r="M79" s="159"/>
       <c r="N79" s="159"/>
       <c r="O79" s="160"/>
@@ -61517,11 +61525,11 @@
         <v>21</v>
       </c>
       <c r="J81" s="170"/>
-      <c r="K81" s="636">
+      <c r="K81" s="647">
         <f>-C4</f>
         <v>-3065283.79</v>
       </c>
-      <c r="L81" s="635"/>
+      <c r="L81" s="646"/>
     </row>
     <row r="82" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="171" t="s">
@@ -61538,10 +61546,10 @@
       <c r="C83" s="172">
         <v>45079</v>
       </c>
-      <c r="D83" s="624" t="s">
+      <c r="D83" s="635" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="625"/>
+      <c r="E83" s="636"/>
       <c r="F83" s="173">
         <v>3897967.53</v>
       </c>
@@ -61701,12 +61709,6 @@
     <sortCondition ref="J46:J62"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -61723,6 +61725,12 @@
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="K77:L77"/>
     <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
